--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fede/Desktop/PAPERS/Proyecto libro/Anexo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFCA3EB-B845-4643-BF76-965D5A467CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0E0989-3B11-374F-A99D-CCF7243207E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internas-General" sheetId="13" r:id="rId1"/>
@@ -19,19 +19,19 @@
     <sheet name="Internas-PN" sheetId="15" r:id="rId4"/>
     <sheet name="Internas-PC" sheetId="16" r:id="rId5"/>
     <sheet name="Nacional-General" sheetId="5" r:id="rId6"/>
-    <sheet name="Nacional-FA" sheetId="6" r:id="rId7"/>
-    <sheet name="Nacional-PN" sheetId="7" r:id="rId8"/>
-    <sheet name="Nacional-PC" sheetId="8" r:id="rId9"/>
-    <sheet name="Nacional-SUBLEMAS" sheetId="9" r:id="rId10"/>
-    <sheet name="Reforma" sheetId="10" r:id="rId11"/>
-    <sheet name="Balotaje" sheetId="11" r:id="rId12"/>
+    <sheet name="Nacional-SUBLEMAS" sheetId="9" r:id="rId7"/>
+    <sheet name="Reforma" sheetId="10" r:id="rId8"/>
+    <sheet name="Balotaje" sheetId="11" r:id="rId9"/>
+    <sheet name="Nacional-FA" sheetId="6" r:id="rId10"/>
+    <sheet name="Nacional-PN" sheetId="7" r:id="rId11"/>
+    <sheet name="Nacional-PC" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="94">
   <si>
     <t>DEPARTAMENTO</t>
   </si>
@@ -91,63 +91,6 @@
   </si>
   <si>
     <t>Partido Verde Animalista</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>DU</t>
-  </si>
-  <si>
-    <t>FD</t>
-  </si>
-  <si>
-    <t>FS</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>RN</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>RV</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>SJ</t>
-  </si>
-  <si>
-    <t>SO</t>
-  </si>
-  <si>
-    <t>TA</t>
-  </si>
-  <si>
-    <t>TT</t>
   </si>
   <si>
     <t>Departamento</t>
@@ -220,12 +163,6 @@
   </si>
   <si>
     <t>VotosSI</t>
-  </si>
-  <si>
-    <t>Martínez.Villar</t>
-  </si>
-  <si>
-    <t>Lacalle.Argimón</t>
   </si>
   <si>
     <t>Hablitados</t>
@@ -344,11 +281,47 @@
   <si>
     <t>Ernesto Talvi</t>
   </si>
+  <si>
+    <t>Participación</t>
+  </si>
+  <si>
+    <t>% Lema</t>
+  </si>
+  <si>
+    <t>% Dentro del lema</t>
+  </si>
+  <si>
+    <t>% SI</t>
+  </si>
+  <si>
+    <t>Martínez-Villar</t>
+  </si>
+  <si>
+    <t>Lacalle-Argimón</t>
+  </si>
+  <si>
+    <t>% Martinez-Villar</t>
+  </si>
+  <si>
+    <t>% Lacalle-Argimón</t>
+  </si>
+  <si>
+    <t>% Blanco</t>
+  </si>
+  <si>
+    <t>% Anulado</t>
+  </si>
+  <si>
+    <t>% Participación</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,10 +359,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,7 +763,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -842,7 +825,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -904,7 +887,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -966,7 +949,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1028,7 +1011,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -1090,7 +1073,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1152,7 +1135,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1214,7 +1197,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1276,7 +1259,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1338,7 +1321,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>124</v>
@@ -1400,7 +1383,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1462,7 +1445,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1524,7 +1507,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1586,7 +1569,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1648,7 +1631,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1710,7 +1693,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1772,7 +1755,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1834,7 +1817,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1896,7 +1879,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1958,7 +1941,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B21">
         <f>SUM(B2:B20)</f>
@@ -2043,8 +2026,103 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48C7A7C-5C12-DA4C-8557-0471A523D965}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BD9FEF-152C-0D40-B0FB-02AFF5462054}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>309307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>234909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>172471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>123520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>96391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>41836</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D70695B-A5D1-1D46-A2D3-ADDA59DA0354}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2052,498 +2130,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C2">
-        <v>309307</v>
+        <v>471975</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C3">
-        <v>234909</v>
+        <v>143532</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>172471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5">
-        <v>123520</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6">
-        <v>96391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7">
-        <v>41836</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8">
-        <v>471975</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9">
-        <v>143532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10">
         <v>108750</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11">
-        <v>141159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12">
-        <v>119859</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13">
-        <v>44598</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6B12CA-3570-7149-A147-2D29312251E5}">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>64640</v>
-      </c>
-      <c r="B2">
-        <v>58178</v>
-      </c>
-      <c r="C2">
-        <v>513</v>
-      </c>
-      <c r="D2">
-        <v>669</v>
-      </c>
-      <c r="E2">
-        <v>34752</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>411087</v>
-      </c>
-      <c r="B3">
-        <v>371983</v>
-      </c>
-      <c r="C3">
-        <v>5617</v>
-      </c>
-      <c r="D3">
-        <v>8596</v>
-      </c>
-      <c r="E3">
-        <v>164260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>74926</v>
-      </c>
-      <c r="B4">
-        <v>69163</v>
-      </c>
-      <c r="C4">
-        <v>844</v>
-      </c>
-      <c r="D4">
-        <v>826</v>
-      </c>
-      <c r="E4">
-        <v>37155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>107775</v>
-      </c>
-      <c r="B5">
-        <v>98806</v>
-      </c>
-      <c r="C5">
-        <v>1228</v>
-      </c>
-      <c r="D5">
-        <v>1907</v>
-      </c>
-      <c r="E5">
-        <v>48307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>51787</v>
-      </c>
-      <c r="B6">
-        <v>48055</v>
-      </c>
-      <c r="C6">
-        <v>453</v>
-      </c>
-      <c r="D6">
-        <v>605</v>
-      </c>
-      <c r="E6">
-        <v>27331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>22838</v>
-      </c>
-      <c r="B7">
-        <v>21129</v>
-      </c>
-      <c r="C7">
-        <v>218</v>
-      </c>
-      <c r="D7">
-        <v>294</v>
-      </c>
-      <c r="E7">
-        <v>12083</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>59574</v>
-      </c>
-      <c r="B8">
-        <v>55303</v>
-      </c>
-      <c r="C8">
-        <v>629</v>
-      </c>
-      <c r="D8">
-        <v>990</v>
-      </c>
-      <c r="E8">
-        <v>28523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>52537</v>
-      </c>
-      <c r="B9">
-        <v>48717</v>
-      </c>
-      <c r="C9">
-        <v>575</v>
-      </c>
-      <c r="D9">
-        <v>688</v>
-      </c>
-      <c r="E9">
-        <v>29528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>142659</v>
-      </c>
-      <c r="B10">
-        <v>130093</v>
-      </c>
-      <c r="C10">
-        <v>1458</v>
-      </c>
-      <c r="D10">
-        <v>2534</v>
-      </c>
-      <c r="E10">
-        <v>72059</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1053066</v>
-      </c>
-      <c r="B11">
-        <v>933197</v>
-      </c>
-      <c r="C11">
-        <v>9527</v>
-      </c>
-      <c r="D11">
-        <v>18358</v>
-      </c>
-      <c r="E11">
-        <v>364405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>98237</v>
-      </c>
-      <c r="B12">
-        <v>89219</v>
-      </c>
-      <c r="C12">
-        <v>997</v>
-      </c>
-      <c r="D12">
-        <v>1276</v>
-      </c>
-      <c r="E12">
-        <v>44536</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>47138</v>
-      </c>
-      <c r="B13">
-        <v>42511</v>
-      </c>
-      <c r="C13">
-        <v>533</v>
-      </c>
-      <c r="D13">
-        <v>614</v>
-      </c>
-      <c r="E13">
-        <v>22126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>91089</v>
-      </c>
-      <c r="B14">
-        <v>81579</v>
-      </c>
-      <c r="C14">
-        <v>809</v>
-      </c>
-      <c r="D14">
-        <v>927</v>
-      </c>
-      <c r="E14">
-        <v>49783</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>63764</v>
-      </c>
-      <c r="B15">
-        <v>58324</v>
-      </c>
-      <c r="C15">
-        <v>820</v>
-      </c>
-      <c r="D15">
-        <v>1093</v>
-      </c>
-      <c r="E15">
-        <v>29727</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>105642</v>
-      </c>
-      <c r="B16">
-        <v>96191</v>
-      </c>
-      <c r="C16">
-        <v>1100</v>
-      </c>
-      <c r="D16">
-        <v>1081</v>
-      </c>
-      <c r="E16">
-        <v>51458</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>85589</v>
-      </c>
-      <c r="B17">
-        <v>79510</v>
-      </c>
-      <c r="C17">
-        <v>1033</v>
-      </c>
-      <c r="D17">
-        <v>1515</v>
-      </c>
-      <c r="E17">
-        <v>39725</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>75619</v>
-      </c>
-      <c r="B18">
-        <v>69021</v>
-      </c>
-      <c r="C18">
-        <v>876</v>
-      </c>
-      <c r="D18">
-        <v>1099</v>
-      </c>
-      <c r="E18">
-        <v>33896</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>81075</v>
-      </c>
-      <c r="B19">
-        <v>74962</v>
-      </c>
-      <c r="C19">
-        <v>929</v>
-      </c>
-      <c r="D19">
-        <v>877</v>
-      </c>
-      <c r="E19">
-        <v>41685</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>44083</v>
-      </c>
-      <c r="B20">
-        <v>40570</v>
-      </c>
-      <c r="C20">
-        <v>532</v>
-      </c>
-      <c r="D20">
-        <v>648</v>
-      </c>
-      <c r="E20">
-        <v>23000</v>
       </c>
     </row>
   </sheetData>
@@ -2552,411 +2178,55 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C4D943-BE71-4448-9C66-01B0201E982A}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED08F8C1-6521-3B4A-929B-CA26D29A6630}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>19800</v>
-      </c>
-      <c r="B2">
-        <v>34958</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
       </c>
       <c r="C2">
-        <v>64657</v>
-      </c>
-      <c r="D2">
-        <v>57890</v>
-      </c>
-      <c r="E2">
-        <v>671</v>
-      </c>
-      <c r="F2">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>189577</v>
-      </c>
-      <c r="B3">
-        <v>165350</v>
+        <v>141159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
       </c>
       <c r="C3">
-        <v>411393</v>
-      </c>
-      <c r="D3">
-        <v>372403</v>
-      </c>
-      <c r="E3">
-        <v>6006</v>
-      </c>
-      <c r="F3">
-        <v>8686</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>26466</v>
-      </c>
-      <c r="B4">
-        <v>38620</v>
+        <v>119859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
       </c>
       <c r="C4">
-        <v>75011</v>
-      </c>
-      <c r="D4">
-        <v>69035</v>
-      </c>
-      <c r="E4">
-        <v>1052</v>
-      </c>
-      <c r="F4">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>41946</v>
-      </c>
-      <c r="B5">
-        <v>52111</v>
-      </c>
-      <c r="C5">
-        <v>107819</v>
-      </c>
-      <c r="D5">
-        <v>98756</v>
-      </c>
-      <c r="E5">
-        <v>1425</v>
-      </c>
-      <c r="F5">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>17905</v>
-      </c>
-      <c r="B6">
-        <v>26948</v>
-      </c>
-      <c r="C6">
-        <v>51960</v>
-      </c>
-      <c r="D6">
-        <v>48105</v>
-      </c>
-      <c r="E6">
-        <v>768</v>
-      </c>
-      <c r="F6">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>22419</v>
-      </c>
-      <c r="B7">
-        <v>29257</v>
-      </c>
-      <c r="C7">
-        <v>59678</v>
-      </c>
-      <c r="D7">
-        <v>55432</v>
-      </c>
-      <c r="E7">
-        <v>878</v>
-      </c>
-      <c r="F7">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6990</v>
-      </c>
-      <c r="B8">
-        <v>13102</v>
-      </c>
-      <c r="C8">
-        <v>22842</v>
-      </c>
-      <c r="D8">
-        <v>21086</v>
-      </c>
-      <c r="E8">
-        <v>356</v>
-      </c>
-      <c r="F8">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>15934</v>
-      </c>
-      <c r="B9">
-        <v>30249</v>
-      </c>
-      <c r="C9">
-        <v>52577</v>
-      </c>
-      <c r="D9">
-        <v>48678</v>
-      </c>
-      <c r="E9">
-        <v>792</v>
-      </c>
-      <c r="F9">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>48768</v>
-      </c>
-      <c r="B10">
-        <v>74193</v>
-      </c>
-      <c r="C10">
-        <v>142818</v>
-      </c>
-      <c r="D10">
-        <v>130167</v>
-      </c>
-      <c r="E10">
-        <v>2193</v>
-      </c>
-      <c r="F10">
-        <v>3576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>507346</v>
-      </c>
-      <c r="B11">
-        <v>383991</v>
-      </c>
-      <c r="C11">
-        <v>1053116</v>
-      </c>
-      <c r="D11">
-        <v>935170</v>
-      </c>
-      <c r="E11">
-        <v>13924</v>
-      </c>
-      <c r="F11">
-        <v>22240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>40114</v>
-      </c>
-      <c r="B12">
-        <v>43404</v>
-      </c>
-      <c r="C12">
-        <v>98407</v>
-      </c>
-      <c r="D12">
-        <v>89429</v>
-      </c>
-      <c r="E12">
-        <v>1305</v>
-      </c>
-      <c r="F12">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>17485</v>
-      </c>
-      <c r="B13">
-        <v>22953</v>
-      </c>
-      <c r="C13">
-        <v>47152</v>
-      </c>
-      <c r="D13">
-        <v>42376</v>
-      </c>
-      <c r="E13">
-        <v>613</v>
-      </c>
-      <c r="F13">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>24129</v>
-      </c>
-      <c r="B14">
-        <v>30736</v>
-      </c>
-      <c r="C14">
-        <v>63808</v>
-      </c>
-      <c r="D14">
-        <v>58321</v>
-      </c>
-      <c r="E14">
-        <v>1195</v>
-      </c>
-      <c r="F14">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>24029</v>
-      </c>
-      <c r="B15">
-        <v>52842</v>
-      </c>
-      <c r="C15">
-        <v>91135</v>
-      </c>
-      <c r="D15">
-        <v>81290</v>
-      </c>
-      <c r="E15">
-        <v>1216</v>
-      </c>
-      <c r="F15">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>43398</v>
-      </c>
-      <c r="B16">
-        <v>48240</v>
-      </c>
-      <c r="C16">
-        <v>105719</v>
-      </c>
-      <c r="D16">
-        <v>96046</v>
-      </c>
-      <c r="E16">
-        <v>1448</v>
-      </c>
-      <c r="F16">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>35178</v>
-      </c>
-      <c r="B17">
-        <v>40247</v>
-      </c>
-      <c r="C17">
-        <v>85654</v>
-      </c>
-      <c r="D17">
-        <v>79441</v>
-      </c>
-      <c r="E17">
-        <v>1323</v>
-      </c>
-      <c r="F17">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>30453</v>
-      </c>
-      <c r="B18">
-        <v>34318</v>
-      </c>
-      <c r="C18">
-        <v>75718</v>
-      </c>
-      <c r="D18">
-        <v>69043</v>
-      </c>
-      <c r="E18">
-        <v>1027</v>
-      </c>
-      <c r="F18">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>26179</v>
-      </c>
-      <c r="B19">
-        <v>44092</v>
-      </c>
-      <c r="C19">
-        <v>81190</v>
-      </c>
-      <c r="D19">
-        <v>74834</v>
-      </c>
-      <c r="E19">
-        <v>1206</v>
-      </c>
-      <c r="F19">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>14155</v>
-      </c>
-      <c r="B20">
-        <v>23702</v>
-      </c>
-      <c r="C20">
-        <v>44159</v>
-      </c>
-      <c r="D20">
-        <v>40527</v>
-      </c>
-      <c r="E20">
-        <v>626</v>
-      </c>
-      <c r="F20">
-        <v>885</v>
+        <v>44598</v>
       </c>
     </row>
   </sheetData>
@@ -2979,10 +2249,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3146,8 +2416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041A808B-2A1E-8F4E-937E-2F1B254DFF75}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3167,54 +2437,54 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="N1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>579</v>
@@ -3224,7 +2494,7 @@
         <v>0.13730139909888547</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>330</v>
@@ -3234,7 +2504,7 @@
         <v>7.8254683424235236E-2</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I2">
         <v>664</v>
@@ -3244,7 +2514,7 @@
         <v>0.15745790846573393</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L2">
         <v>2644</v>
@@ -3259,10 +2529,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>10625</v>
@@ -3272,7 +2542,7 @@
         <v>0.26496920122696327</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>2935</v>
@@ -3282,7 +2552,7 @@
         <v>7.3193845233048199E-2</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I3">
         <v>12012</v>
@@ -3292,7 +2562,7 @@
         <v>0.29955859248360306</v>
       </c>
       <c r="K3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L3">
         <v>14527</v>
@@ -3307,10 +2577,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
         <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>90</v>
       </c>
       <c r="C4">
         <v>687</v>
@@ -3320,7 +2590,7 @@
         <v>0.18131433095803642</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>169</v>
@@ -3330,7 +2600,7 @@
         <v>4.4602797571918713E-2</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I4">
         <v>764</v>
@@ -3340,7 +2610,7 @@
         <v>0.20163631565056744</v>
       </c>
       <c r="K4" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L4">
         <v>2169</v>
@@ -3355,10 +2625,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>2083</v>
@@ -3368,7 +2638,7 @@
         <v>0.22877539813289402</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F5">
         <v>434</v>
@@ -3378,7 +2648,7 @@
         <v>4.7666117517847335E-2</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I5">
         <v>2003</v>
@@ -3388,7 +2658,7 @@
         <v>0.2199890170236134</v>
       </c>
       <c r="K5" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L5">
         <v>4585</v>
@@ -3403,10 +2673,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>456</v>
@@ -3416,7 +2686,7 @@
         <v>0.15478615071283094</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>151</v>
@@ -3426,7 +2696,7 @@
         <v>5.1255940257976917E-2</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I6">
         <v>741</v>
@@ -3436,7 +2706,7 @@
         <v>0.2515274949083503</v>
       </c>
       <c r="K6" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L6">
         <v>1598</v>
@@ -3451,10 +2721,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>625</v>
@@ -3464,7 +2734,7 @@
         <v>0.15739108536892471</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>311</v>
@@ -3474,7 +2744,7 @@
         <v>7.8317804079576933E-2</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I7">
         <v>966</v>
@@ -3484,7 +2754,7 @@
         <v>0.24326366154621001</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L7">
         <v>2069</v>
@@ -3499,10 +2769,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C8">
         <v>284</v>
@@ -3512,7 +2782,7 @@
         <v>0.21679389312977099</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F8">
         <v>56</v>
@@ -3522,7 +2792,7 @@
         <v>4.2748091603053436E-2</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I8">
         <v>354</v>
@@ -3532,7 +2802,7 @@
         <v>0.27022900763358776</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L8">
         <v>616</v>
@@ -3547,10 +2817,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>531</v>
@@ -3560,7 +2830,7 @@
         <v>0.18386426592797783</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <v>203</v>
@@ -3570,7 +2840,7 @@
         <v>7.0290858725761768E-2</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I9">
         <v>688</v>
@@ -3580,7 +2850,7 @@
         <v>0.23822714681440443</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L9">
         <v>1466</v>
@@ -3595,10 +2865,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>2152</v>
@@ -3608,7 +2878,7 @@
         <v>0.20911476047031385</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F10">
         <v>704</v>
@@ -3618,7 +2888,7 @@
         <v>6.8409289670585946E-2</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I10">
         <v>2103</v>
@@ -3628,7 +2898,7 @@
         <v>0.20435331843358273</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L10">
         <v>5332</v>
@@ -3643,10 +2913,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>29836</v>
@@ -3656,7 +2926,7 @@
         <v>0.23808231858152859</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F11">
         <v>16023</v>
@@ -3666,7 +2936,7 @@
         <v>0.12785872739750076</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I11">
         <v>34529</v>
@@ -3676,7 +2946,7 @@
         <v>0.2755310490113152</v>
       </c>
       <c r="K11" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L11">
         <v>44930</v>
@@ -3691,10 +2961,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>2301</v>
@@ -3704,7 +2974,7 @@
         <v>0.24614890885750962</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F12">
         <v>301</v>
@@ -3714,7 +2984,7 @@
         <v>3.2199400941377833E-2</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I12">
         <v>2283</v>
@@ -3724,7 +2994,7 @@
         <v>0.24422336328626446</v>
       </c>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L12">
         <v>4463</v>
@@ -3739,10 +3009,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C13">
         <v>1051</v>
@@ -3752,7 +3022,7 @@
         <v>0.24233341019137652</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <v>244</v>
@@ -3762,7 +3032,7 @@
         <v>5.6260087618169238E-2</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I13">
         <v>673</v>
@@ -3772,7 +3042,7 @@
         <v>0.15517638920913074</v>
       </c>
       <c r="K13" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L13">
         <v>2369</v>
@@ -3787,10 +3057,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C14">
         <v>900</v>
@@ -3800,7 +3070,7 @@
         <v>0.19321597252039502</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F14">
         <v>205</v>
@@ -3810,7 +3080,7 @@
         <v>4.4010304851867757E-2</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I14">
         <v>1231</v>
@@ -3820,7 +3090,7 @@
         <v>0.26427651352511805</v>
       </c>
       <c r="K14" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L14">
         <v>2322</v>
@@ -3835,10 +3105,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C15">
         <v>929</v>
@@ -3848,7 +3118,7 @@
         <v>0.27179637214745467</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F15">
         <v>137</v>
@@ -3858,7 +3128,7 @@
         <v>4.0081919251023994E-2</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I15">
         <v>733</v>
@@ -3868,7 +3138,7 @@
         <v>0.21445289643066121</v>
       </c>
       <c r="K15" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L15">
         <v>1619</v>
@@ -3883,10 +3153,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C16">
         <v>1801</v>
@@ -3896,7 +3166,7 @@
         <v>0.17394243770523468</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F16">
         <v>267</v>
@@ -3906,7 +3176,7 @@
         <v>2.5787135406606144E-2</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I16">
         <v>1358</v>
@@ -3916,7 +3186,7 @@
         <v>0.13115704075719528</v>
       </c>
       <c r="K16" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L16">
         <v>6928</v>
@@ -3931,10 +3201,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C17">
         <v>1581</v>
@@ -3944,7 +3214,7 @@
         <v>0.21797876740659039</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F17">
         <v>438</v>
@@ -3954,7 +3224,7 @@
         <v>6.0388804632565837E-2</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I17">
         <v>1569</v>
@@ -3964,7 +3234,7 @@
         <v>0.21632427960843789</v>
       </c>
       <c r="K17" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L17">
         <v>3665</v>
@@ -3979,10 +3249,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C18">
         <v>896</v>
@@ -3992,7 +3262,7 @@
         <v>0.17948717948717949</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F18">
         <v>255</v>
@@ -4002,7 +3272,7 @@
         <v>5.1081730769230768E-2</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I18">
         <v>999</v>
@@ -4012,7 +3282,7 @@
         <v>0.20012019230769232</v>
       </c>
       <c r="K18" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L18">
         <v>2842</v>
@@ -4027,10 +3297,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C19">
         <v>1204</v>
@@ -4040,7 +3310,7 @@
         <v>0.22898440471662229</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F19">
         <v>432</v>
@@ -4050,7 +3320,7 @@
         <v>8.216051730696082E-2</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I19">
         <v>1163</v>
@@ -4060,7 +3330,7 @@
         <v>0.22118676302776721</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L19">
         <v>2459</v>
@@ -4075,10 +3345,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C20">
         <v>369</v>
@@ -4088,7 +3358,7 @@
         <v>0.15036674816625917</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F20">
         <v>119</v>
@@ -4098,7 +3368,7 @@
         <v>4.8492257538712308E-2</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I20">
         <v>446</v>
@@ -4108,7 +3378,7 @@
         <v>0.18174409127954361</v>
       </c>
       <c r="K20" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L20">
         <v>1520</v>
@@ -4123,10 +3393,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C21">
         <f>SUM(C2:C20)</f>
@@ -4137,7 +3407,7 @@
         <v>0.23003367108583392</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F21">
         <f>SUM(F2:F20)</f>
@@ -4148,7 +3418,7 @@
         <v>9.2630641469340566E-2</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I21">
         <f>SUM(I2:I20)</f>
@@ -4159,7 +3429,7 @@
         <v>0.25499011741912297</v>
       </c>
       <c r="K21" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L21">
         <f>SUM(L2:L20)</f>
@@ -4207,63 +3477,63 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="N1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="O1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="Q1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <v>112</v>
@@ -4273,7 +3543,7 @@
         <v>7.1753475558972392E-3</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F2">
         <v>22</v>
@@ -4283,7 +3553,7 @@
         <v>1.4094432699083862E-3</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>8708</v>
@@ -4293,7 +3563,7 @@
         <v>0.55788327247101033</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L2">
         <v>4823</v>
@@ -4303,7 +3573,7 @@
         <v>0.30898840412582484</v>
       </c>
       <c r="N2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O2">
         <v>1944</v>
@@ -4318,10 +3588,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C3">
         <v>1257</v>
@@ -4331,7 +3601,7 @@
         <v>2.0179156231939895E-2</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F3">
         <v>137</v>
@@ -4341,7 +3611,7 @@
         <v>2.1993193347460346E-3</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I3">
         <v>40844</v>
@@ -4351,7 +3621,7 @@
         <v>0.65568612341873755</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L3">
         <v>6981</v>
@@ -4361,7 +3631,7 @@
         <v>0.11206896551724138</v>
       </c>
       <c r="N3" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O3">
         <v>13073</v>
@@ -4376,10 +3646,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>14737</v>
@@ -4389,7 +3659,7 @@
         <v>0.57633946030504501</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -4399,7 +3669,7 @@
         <v>1.9554165037152912E-4</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I4">
         <v>5430</v>
@@ -4409,7 +3679,7 @@
         <v>0.21235823230348064</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L4">
         <v>1213</v>
@@ -4419,7 +3689,7 @@
         <v>4.743840438013297E-2</v>
       </c>
       <c r="N4" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O4">
         <v>4185</v>
@@ -4434,10 +3704,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>1485</v>
@@ -4447,7 +3717,7 @@
         <v>6.5684713375796178E-2</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F5">
         <v>176</v>
@@ -4457,7 +3727,7 @@
         <v>7.7848549186128801E-3</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I5">
         <v>12140</v>
@@ -4467,7 +3737,7 @@
         <v>0.53697806086341116</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L5">
         <v>5391</v>
@@ -4477,7 +3747,7 @@
         <v>0.23845541401273884</v>
       </c>
       <c r="N5" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O5">
         <v>3416</v>
@@ -4492,10 +3762,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C6">
         <v>190</v>
@@ -4505,7 +3775,7 @@
         <v>1.2428861123830705E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F6">
         <v>16</v>
@@ -4515,7 +3785,7 @@
         <v>1.0466409367436383E-3</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I6">
         <v>9026</v>
@@ -4525,7 +3795,7 @@
         <v>0.59043631844050504</v>
       </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L6">
         <v>1838</v>
@@ -4535,7 +3805,7 @@
         <v>0.12023287760842546</v>
       </c>
       <c r="N6" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O6">
         <v>4217</v>
@@ -4550,10 +3820,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C7">
         <v>36</v>
@@ -4563,7 +3833,7 @@
         <v>2.4728671520813299E-3</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F7">
         <v>78</v>
@@ -4573,7 +3843,7 @@
         <v>5.3578788295095478E-3</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I7">
         <v>10207</v>
@@ -4583,7 +3853,7 @@
         <v>0.70112652836928147</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L7">
         <v>815</v>
@@ -4593,7 +3863,7 @@
         <v>5.5982964692952331E-2</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O7">
         <v>3422</v>
@@ -4608,10 +3878,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C8">
         <v>78</v>
@@ -4621,7 +3891,7 @@
         <v>1.2468030690537084E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -4631,7 +3901,7 @@
         <v>7.9923273657289001E-4</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I8">
         <v>3617</v>
@@ -4641,7 +3911,7 @@
         <v>0.57816496163682862</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L8">
         <v>825</v>
@@ -4651,7 +3921,7 @@
         <v>0.13187340153452684</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O8">
         <v>1731</v>
@@ -4666,10 +3936,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
         <v>74</v>
-      </c>
-      <c r="B9" t="s">
-        <v>95</v>
       </c>
       <c r="C9">
         <v>218</v>
@@ -4679,7 +3949,7 @@
         <v>1.690839990692624E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <v>28</v>
@@ -4689,7 +3959,7 @@
         <v>2.1717210889630034E-3</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I9">
         <v>7247</v>
@@ -4699,7 +3969,7 @@
         <v>0.562087954704103</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L9">
         <v>2877</v>
@@ -4709,7 +3979,7 @@
         <v>0.22314434189094859</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O9">
         <v>2523</v>
@@ -4724,10 +3994,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C10">
         <v>10990</v>
@@ -4737,7 +4007,7 @@
         <v>0.33712690573330473</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F10">
         <v>98</v>
@@ -4747,7 +4017,7 @@
         <v>3.006227184882972E-3</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I10">
         <v>14396</v>
@@ -4757,7 +4027,7 @@
         <v>0.44160863830178843</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L10">
         <v>1655</v>
@@ -4767,7 +4037,7 @@
         <v>5.0768428479401211E-2</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O10">
         <v>5460</v>
@@ -4782,10 +4052,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>1456</v>
@@ -4795,7 +4065,7 @@
         <v>1.2749450530205516E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F11">
         <v>727</v>
@@ -4805,7 +4075,7 @@
         <v>6.3659687743539903E-3</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I11">
         <v>71723</v>
@@ -4815,7 +4085,7 @@
         <v>0.62804178597385307</v>
       </c>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L11">
         <v>15827</v>
@@ -4825,7 +4095,7 @@
         <v>0.13858897908074361</v>
       </c>
       <c r="N11" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O11">
         <v>24468</v>
@@ -4840,10 +4110,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4853,7 +4123,7 @@
         <v>4.4593088071348942E-4</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F12">
         <v>114</v>
@@ -4863,7 +4133,7 @@
         <v>5.0836120401337795E-3</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I12">
         <v>5686</v>
@@ -4873,7 +4143,7 @@
         <v>0.25355629877369007</v>
       </c>
       <c r="K12" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L12">
         <v>13164</v>
@@ -4883,7 +4153,7 @@
         <v>0.58702341137123748</v>
       </c>
       <c r="N12" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O12">
         <v>3451</v>
@@ -4898,10 +4168,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C13">
         <v>25</v>
@@ -4911,7 +4181,7 @@
         <v>2.7855153203342618E-3</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <v>15</v>
@@ -4921,7 +4191,7 @@
         <v>1.6713091922005571E-3</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I13">
         <v>4056</v>
@@ -4931,7 +4201,7 @@
         <v>0.45192200557103063</v>
       </c>
       <c r="K13" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L13">
         <v>2768</v>
@@ -4941,7 +4211,7 @@
         <v>0.30841225626740948</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O13">
         <v>2111</v>
@@ -4956,10 +4226,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C14">
         <v>80</v>
@@ -4969,7 +4239,7 @@
         <v>7.0243217139344984E-3</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F14">
         <v>23</v>
@@ -4979,7 +4249,7 @@
         <v>2.0194924927561682E-3</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I14">
         <v>7275</v>
@@ -4989,7 +4259,7 @@
         <v>0.63877425586091841</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L14">
         <v>1539</v>
@@ -4999,7 +4269,7 @@
         <v>0.1351303889718149</v>
       </c>
       <c r="N14" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O14">
         <v>2472</v>
@@ -5014,10 +4284,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C15">
         <v>524</v>
@@ -5027,7 +4297,7 @@
         <v>3.9890377588306943E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F15">
         <v>65</v>
@@ -5037,7 +4307,7 @@
         <v>4.9482338611449451E-3</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I15">
         <v>6411</v>
@@ -5047,7 +4317,7 @@
         <v>0.48804811205846527</v>
       </c>
       <c r="K15" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L15">
         <v>1396</v>
@@ -5057,7 +4327,7 @@
         <v>0.10627283800243606</v>
       </c>
       <c r="N15" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O15">
         <v>4740</v>
@@ -5072,10 +4342,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C16">
         <v>233</v>
@@ -5085,7 +4355,7 @@
         <v>1.7390655321689805E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F16">
         <v>82</v>
@@ -5095,7 +4365,7 @@
         <v>6.1203164651440515E-3</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I16">
         <v>7088</v>
@@ -5105,7 +4375,7 @@
         <v>0.52903418420659798</v>
       </c>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L16">
         <v>2322</v>
@@ -5115,7 +4385,7 @@
         <v>0.17330944917151814</v>
       </c>
       <c r="N16" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O16">
         <v>3673</v>
@@ -5130,10 +4400,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C17">
         <v>327</v>
@@ -5143,7 +4413,7 @@
         <v>1.9114982171041094E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F17">
         <v>21</v>
@@ -5153,7 +4423,7 @@
         <v>1.2275676623604373E-3</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I17">
         <v>11106</v>
@@ -5163,7 +4433,7 @@
         <v>0.64920792657976267</v>
       </c>
       <c r="K17" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L17">
         <v>2915</v>
@@ -5173,7 +4443,7 @@
         <v>0.17039808265622261</v>
       </c>
       <c r="N17" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O17">
         <v>2738</v>
@@ -5188,10 +4458,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <v>253</v>
@@ -5201,7 +4471,7 @@
         <v>1.6146531367668644E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F18">
         <v>26</v>
@@ -5211,7 +4481,7 @@
         <v>1.6593273342268174E-3</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I18">
         <v>6047</v>
@@ -5221,7 +4491,7 @@
         <v>0.38592124577190628</v>
       </c>
       <c r="K18" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L18">
         <v>4803</v>
@@ -5231,7 +4501,7 @@
         <v>0.30652881485736166</v>
       </c>
       <c r="N18" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O18">
         <v>4540</v>
@@ -5246,10 +4516,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C19">
         <v>1468</v>
@@ -5259,7 +4529,7 @@
         <v>7.69392033542977E-2</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F19">
         <v>37</v>
@@ -5269,7 +4539,7 @@
         <v>1.9392033542976939E-3</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I19">
         <v>8701</v>
@@ -5279,7 +4549,7 @@
         <v>0.45602725366876312</v>
       </c>
       <c r="K19" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L19">
         <v>4716</v>
@@ -5289,7 +4559,7 @@
         <v>0.24716981132075472</v>
       </c>
       <c r="N19" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O19">
         <v>4158</v>
@@ -5304,10 +4574,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C20">
         <v>835</v>
@@ -5317,7 +4587,7 @@
         <v>6.8024439918533602E-2</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -5327,7 +4597,7 @@
         <v>2.443991853360489E-3</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I20">
         <v>4940</v>
@@ -5337,7 +4607,7 @@
         <v>0.40244399185336049</v>
       </c>
       <c r="K20" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L20">
         <v>4394</v>
@@ -5347,7 +4617,7 @@
         <v>0.3579633401221996</v>
       </c>
       <c r="N20" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O20">
         <v>2076</v>
@@ -5362,10 +4632,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C21">
         <f>SUM(C2:C20)</f>
@@ -5376,7 +4646,7 @@
         <v>7.5361223911606379E-2</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F21">
         <f>SUM(F2:F20)</f>
@@ -5387,7 +4657,7 @@
         <v>3.7445616007836125E-3</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I21">
         <f>SUM(I2:I20)</f>
@@ -5398,7 +4668,7 @@
         <v>0.53730176334809931</v>
       </c>
       <c r="K21" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L21">
         <f>SUM(L2:L20)</f>
@@ -5409,7 +4679,7 @@
         <v>0.17627331566105239</v>
       </c>
       <c r="N21" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O21">
         <f>SUM(O2:O20)</f>
@@ -5433,110 +4703,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6C17F0-415D-664A-A750-5A637C994158}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="7" max="7" width="12" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12" style="3" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="10" max="10" width="12" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12" style="3" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="12" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12" style="3" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="L1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="N1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>597</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <f>C2/N2</f>
         <v>0.21498019445444724</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F2">
         <v>1360</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <f>F2/N2</f>
         <v>0.48973712639539069</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I2">
         <v>820</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <f>I2/N2</f>
         <v>0.29528267915016204</v>
       </c>
       <c r="K2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="3">
         <f>L2/N2</f>
         <v>0</v>
       </c>
@@ -5546,45 +4816,45 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>3002</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D21" si="0">C3/N3</f>
         <v>0.14145031333930169</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F3">
         <v>6513</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <f t="shared" ref="G3:G21" si="1">F3/N3</f>
         <v>0.30688404089902466</v>
       </c>
       <c r="H3" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I3">
         <v>11678</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <f t="shared" ref="J3:J21" si="2">I3/N3</f>
         <v>0.55025208500212031</v>
       </c>
       <c r="K3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L3">
         <v>30</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <f t="shared" ref="M3:M21" si="3">L3/N3</f>
         <v>1.4135607595533149E-3</v>
       </c>
@@ -5594,45 +4864,45 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C4">
         <v>54</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>2.9110512129380053E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F4">
         <v>944</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <f t="shared" si="1"/>
         <v>0.50889487870619943</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I4">
         <v>857</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <f t="shared" si="2"/>
         <v>0.46199460916442048</v>
       </c>
       <c r="K4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5642,45 +4912,45 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>1247</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>0.15496458307443767</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F5">
         <v>1714</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <f t="shared" si="1"/>
         <v>0.21299863303094321</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I5">
         <v>5078</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <f t="shared" si="2"/>
         <v>0.63104262458058902</v>
       </c>
       <c r="K5" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L5">
         <v>8</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <f t="shared" si="3"/>
         <v>9.9415931403007331E-4</v>
       </c>
@@ -5690,45 +4960,45 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>203</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>6.2538508934072701E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F6">
         <v>1487</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <f t="shared" si="1"/>
         <v>0.45810227972889711</v>
       </c>
       <c r="H6" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I6">
         <v>1556</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <f t="shared" si="2"/>
         <v>0.47935921133703019</v>
       </c>
       <c r="K6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5738,45 +5008,45 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C7">
         <v>719</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>0.1854526695898891</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F7">
         <v>732</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <f t="shared" si="1"/>
         <v>0.18880577766314161</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I7">
         <v>2426</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <f t="shared" si="2"/>
         <v>0.6257415527469693</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5786,45 +5056,45 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C8">
         <v>442</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>0.20918125887363936</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F8">
         <v>648</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>0.30667297681022243</v>
       </c>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I8">
         <v>1023</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <f t="shared" si="2"/>
         <v>0.48414576431613821</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5834,45 +5104,45 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C9">
         <v>206</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>4.888467014712862E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F9">
         <v>2038</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>0.48362600854295207</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I9">
         <v>1970</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3">
         <f t="shared" si="2"/>
         <v>0.46748932130991933</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5882,45 +5152,45 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C10">
         <v>464</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>5.7978258153192554E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F10">
         <v>3502</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>0.43758590528551794</v>
       </c>
       <c r="H10" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I10">
         <v>4037</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="3">
         <f t="shared" si="2"/>
         <v>0.50443583656128954</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5930,45 +5200,45 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>3036</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>4.4599180291745623E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F11">
         <v>18216</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <f t="shared" si="1"/>
         <v>0.26759508175047375</v>
       </c>
       <c r="H11" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I11">
         <v>46704</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <f t="shared" si="2"/>
         <v>0.68608699484377067</v>
       </c>
       <c r="K11" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L11">
         <v>117</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="3">
         <f t="shared" si="3"/>
         <v>1.7187431140099599E-3</v>
       </c>
@@ -5978,45 +5248,45 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <v>313</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>6.4060581252558327E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F12">
         <v>2192</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <f t="shared" si="1"/>
         <v>0.44862873516168644</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I12">
         <v>2381</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="3">
         <f t="shared" si="2"/>
         <v>0.48731068358575524</v>
       </c>
       <c r="K12" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6026,45 +5296,45 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C13">
         <v>201</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>5.1564905079527962E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F13">
         <v>979</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>0.25115443817342226</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I13">
         <v>2714</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="3">
         <f t="shared" si="2"/>
         <v>0.69625448948178548</v>
       </c>
       <c r="K13" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L13">
         <v>4</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="3">
         <f t="shared" si="3"/>
         <v>1.026167265264238E-3</v>
       </c>
@@ -6074,45 +5344,45 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>183</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>5.9764859568909208E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F14">
         <v>1229</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>0.40137165251469625</v>
       </c>
       <c r="H14" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I14">
         <v>1650</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="3">
         <f t="shared" si="2"/>
         <v>0.53886348791639449</v>
       </c>
       <c r="K14" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6122,45 +5392,45 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
         <v>80</v>
-      </c>
-      <c r="B15" t="s">
-        <v>101</v>
       </c>
       <c r="C15">
         <v>3882</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>0.26636475916014823</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F15">
         <v>8907</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>0.61115685467270486</v>
       </c>
       <c r="H15" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I15">
         <v>1785</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="3">
         <f t="shared" si="2"/>
         <v>0.12247838616714697</v>
       </c>
       <c r="K15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6170,45 +5440,45 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C16">
         <v>9454</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>0.62271110525622453</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F16">
         <v>2364</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <f t="shared" si="1"/>
         <v>0.15571071005137663</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I16">
         <v>3350</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="3">
         <f t="shared" si="2"/>
         <v>0.22065604004742459</v>
       </c>
       <c r="K16" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L16">
         <v>14</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="3">
         <f t="shared" si="3"/>
         <v>9.2214464497431166E-4</v>
       </c>
@@ -6218,45 +5488,45 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C17">
         <v>157</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>3.4145280556763809E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F17">
         <v>1296</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <f t="shared" si="1"/>
         <v>0.28186167899086562</v>
       </c>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I17">
         <v>3145</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="3">
         <f t="shared" si="2"/>
         <v>0.68399304045237064</v>
       </c>
       <c r="K17" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6266,45 +5536,45 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C18">
         <v>137</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <f t="shared" si="0"/>
         <v>2.683643486777669E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F18">
         <v>2015</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <f t="shared" si="1"/>
         <v>0.39471106758080315</v>
       </c>
       <c r="H18" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I18">
         <v>2889</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="3">
         <f t="shared" si="2"/>
         <v>0.56591576885406469</v>
       </c>
       <c r="K18" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L18">
         <v>64</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="3">
         <f t="shared" si="3"/>
         <v>1.2536728697355533E-2</v>
       </c>
@@ -6314,45 +5584,45 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C19">
         <v>112</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>1.7806041335453101E-2</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F19">
         <v>3257</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
         <f t="shared" si="1"/>
         <v>0.51780604133545305</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I19">
         <v>2921</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="3">
         <f t="shared" si="2"/>
         <v>0.46438791732909379</v>
       </c>
       <c r="K19" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6362,45 +5632,45 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C20">
         <v>40</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <f t="shared" si="0"/>
         <v>2.2002200220022004E-2</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F20">
         <v>1034</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="3">
         <f t="shared" si="1"/>
         <v>0.56875687568756872</v>
       </c>
       <c r="H20" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I20">
         <v>744</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="3">
         <f t="shared" si="2"/>
         <v>0.40924092409240925</v>
       </c>
       <c r="K20" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6410,49 +5680,49 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C21">
         <f>SUM(C2:C20)</f>
         <v>24449</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <f t="shared" si="0"/>
         <v>0.13371727347804924</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F21">
         <f>SUM(F2:F20)</f>
         <v>60427</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="3">
         <f t="shared" si="1"/>
         <v>0.33048933226136368</v>
       </c>
       <c r="H21" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I21">
         <f>SUM(I2:I20)</f>
         <v>97728</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="3">
         <f t="shared" si="2"/>
         <v>0.53449718607970864</v>
       </c>
       <c r="K21" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L21">
         <f>SUM(L2:L20)</f>
         <v>237</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="3">
         <f t="shared" si="3"/>
         <v>1.2962081808784681E-3</v>
       </c>
@@ -6468,1209 +5738,2987 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7D0C7A-41FB-EF49-814D-F7088EB65B84}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection sqref="A1:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="13.1640625" customWidth="1"/>
+    <col min="29" max="29" width="13.1640625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="13.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="W1" s="4"/>
+      <c r="X1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4"/>
+      <c r="AB1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="AC1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>152</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
+        <f>B2/$AB2</f>
+        <v>2.6126714565643371E-3</v>
+      </c>
+      <c r="D2">
         <v>10084</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="2">
+        <f>D2/$AB2</f>
+        <v>0.17333012478943929</v>
+      </c>
+      <c r="F2">
         <v>4813</v>
       </c>
-      <c r="E2">
+      <c r="G2" s="2">
+        <f>F2/$AB2</f>
+        <v>8.272886658186944E-2</v>
+      </c>
+      <c r="H2">
         <v>139</v>
       </c>
-      <c r="F2">
+      <c r="I2" s="2">
+        <f>H2/$AB2</f>
+        <v>2.3892192925160714E-3</v>
+      </c>
+      <c r="J2">
         <v>15</v>
       </c>
-      <c r="G2">
+      <c r="K2" s="2">
+        <f>J2/$AB2</f>
+        <v>2.5782942005569113E-4</v>
+      </c>
+      <c r="L2">
         <v>54</v>
       </c>
-      <c r="H2">
+      <c r="M2" s="2">
+        <f>L2/$AB2</f>
+        <v>9.2818591220048821E-4</v>
+      </c>
+      <c r="N2">
         <v>185</v>
       </c>
-      <c r="I2">
+      <c r="O2" s="2">
+        <f>N2/$AB2</f>
+        <v>3.1798961806868576E-3</v>
+      </c>
+      <c r="P2">
         <v>15046</v>
       </c>
-      <c r="J2">
+      <c r="Q2" s="2">
+        <f>P2/$AB2</f>
+        <v>0.25862009694386195</v>
+      </c>
+      <c r="R2">
         <v>151</v>
       </c>
-      <c r="K2">
+      <c r="S2" s="2">
+        <f>R2/$AB2</f>
+        <v>2.5954828285606243E-3</v>
+      </c>
+      <c r="T2">
         <v>24224</v>
       </c>
-      <c r="L2">
+      <c r="U2" s="2">
+        <f>T2/$AB2</f>
+        <v>0.41637732476193751</v>
+      </c>
+      <c r="V2">
         <v>137</v>
       </c>
-      <c r="M2">
+      <c r="W2" s="2">
+        <f>V2/$AB2</f>
+        <v>2.3548420365086457E-3</v>
+      </c>
+      <c r="X2">
         <v>669</v>
       </c>
-      <c r="N2">
+      <c r="Y2" s="2">
+        <f>X2/$AB2</f>
+        <v>1.1499192134483825E-2</v>
+      </c>
+      <c r="Z2">
+        <v>513</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>Z2/$AB2</f>
+        <v>8.8177661659046367E-3</v>
+      </c>
+      <c r="AB2">
         <v>58178</v>
       </c>
-      <c r="O2">
-        <v>513</v>
-      </c>
-      <c r="P2">
+      <c r="AC2" s="2">
+        <f>AB2/AD2</f>
+        <v>0.90003094059405941</v>
+      </c>
+      <c r="AD2">
         <v>64640</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>3139</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C21" si="0">B3/$AB3</f>
+        <v>8.438557676022829E-3</v>
+      </c>
+      <c r="D3">
         <v>35202</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E21" si="1">D3/$AB3</f>
+        <v>9.4633356900718585E-2</v>
+      </c>
+      <c r="F3">
         <v>35177</v>
       </c>
-      <c r="E3">
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G21" si="2">F3/$AB3</f>
+        <v>9.4566149528338667E-2</v>
+      </c>
+      <c r="H3">
         <v>5347</v>
       </c>
-      <c r="F3">
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I21" si="3">H3/$AB3</f>
+        <v>1.4374312804617415E-2</v>
+      </c>
+      <c r="J3">
         <v>219</v>
       </c>
-      <c r="G3">
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K21" si="4">J3/$AB3</f>
+        <v>5.8873658204810434E-4</v>
+      </c>
+      <c r="L3">
         <v>1093</v>
       </c>
-      <c r="H3">
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M21" si="5">L3/$AB3</f>
+        <v>2.9383063204501281E-3</v>
+      </c>
+      <c r="N3">
         <v>6409</v>
       </c>
-      <c r="I3">
+      <c r="O3" s="2">
+        <f t="shared" ref="O3:O21" si="6">N3/$AB3</f>
+        <v>1.7229281983316441E-2</v>
+      </c>
+      <c r="P3">
         <v>158221</v>
       </c>
-      <c r="J3">
+      <c r="Q3" s="2">
+        <f t="shared" ref="Q3:Q21" si="7">P3/$AB3</f>
+        <v>0.42534470661293661</v>
+      </c>
+      <c r="R3">
         <v>3601</v>
       </c>
-      <c r="K3">
+      <c r="S3" s="2">
+        <f t="shared" ref="S3:S21" si="8">R3/$AB3</f>
+        <v>9.6805499176037622E-3</v>
+      </c>
+      <c r="T3">
         <v>101417</v>
       </c>
-      <c r="L3">
+      <c r="U3" s="2">
+        <f t="shared" ref="U3:U21" si="9">T3/$AB3</f>
+        <v>0.27263880338617624</v>
+      </c>
+      <c r="V3">
         <v>3106</v>
       </c>
-      <c r="M3">
+      <c r="W3" s="2">
+        <f t="shared" ref="W3:W21" si="10">V3/$AB3</f>
+        <v>8.3498439444813343E-3</v>
+      </c>
+      <c r="X3">
         <v>8596</v>
       </c>
-      <c r="N3">
+      <c r="Y3" s="2">
+        <f t="shared" ref="Y3:Y21" si="11">X3/$AB3</f>
+        <v>2.3108582919111893E-2</v>
+      </c>
+      <c r="Z3">
+        <v>5617</v>
+      </c>
+      <c r="AA3" s="2">
+        <f t="shared" ref="AA3:AA21" si="12">Z3/$AB3</f>
+        <v>1.5100152426320557E-2</v>
+      </c>
+      <c r="AB3">
         <v>371983</v>
       </c>
-      <c r="O3">
-        <v>5617</v>
-      </c>
-      <c r="P3">
+      <c r="AC3" s="2">
+        <f t="shared" ref="AC3:AC21" si="13">AB3/AD3</f>
+        <v>0.90487658330231802</v>
+      </c>
+      <c r="AD3">
         <v>411087</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>215</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1085985281147435E-3</v>
+      </c>
+      <c r="D4">
         <v>12232</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17685756835302113</v>
+      </c>
+      <c r="F4">
         <v>5257</v>
       </c>
-      <c r="E4">
+      <c r="G4" s="2">
+        <f t="shared" si="2"/>
+        <v>7.6008848661856768E-2</v>
+      </c>
+      <c r="H4">
         <v>401</v>
       </c>
-      <c r="F4">
+      <c r="I4" s="2">
+        <f t="shared" si="3"/>
+        <v>5.7978977198791257E-3</v>
+      </c>
+      <c r="J4">
         <v>18</v>
       </c>
-      <c r="G4">
+      <c r="K4" s="2">
+        <f t="shared" si="4"/>
+        <v>2.6025476049332735E-4</v>
+      </c>
+      <c r="L4">
         <v>64</v>
       </c>
-      <c r="H4">
+      <c r="M4" s="2">
+        <f t="shared" si="5"/>
+        <v>9.2535025953183062E-4</v>
+      </c>
+      <c r="N4">
         <v>317</v>
       </c>
-      <c r="I4">
+      <c r="O4" s="2">
+        <f t="shared" si="6"/>
+        <v>4.583375504243598E-3</v>
+      </c>
+      <c r="P4">
         <v>19895</v>
       </c>
-      <c r="J4">
+      <c r="Q4" s="2">
+        <f t="shared" si="7"/>
+        <v>0.28765380333415264</v>
+      </c>
+      <c r="R4">
         <v>259</v>
       </c>
-      <c r="K4">
+      <c r="S4" s="2">
+        <f t="shared" si="8"/>
+        <v>3.7447768315428771E-3</v>
+      </c>
+      <c r="T4">
         <v>26215</v>
       </c>
-      <c r="L4">
+      <c r="U4" s="2">
+        <f t="shared" si="9"/>
+        <v>0.37903214146292091</v>
+      </c>
+      <c r="V4">
         <v>350</v>
       </c>
-      <c r="M4">
+      <c r="W4" s="2">
+        <f t="shared" si="10"/>
+        <v>5.0605092318146989E-3</v>
+      </c>
+      <c r="X4">
         <v>826</v>
       </c>
-      <c r="N4">
+      <c r="Y4" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1942801787082688E-2</v>
+      </c>
+      <c r="Z4">
+        <v>844</v>
+      </c>
+      <c r="AA4" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2203056547576016E-2</v>
+      </c>
+      <c r="AB4">
         <v>69163</v>
       </c>
-      <c r="O4">
-        <v>844</v>
-      </c>
-      <c r="P4">
+      <c r="AC4" s="2">
+        <f t="shared" si="13"/>
+        <v>0.92308410965485943</v>
+      </c>
+      <c r="AD4">
         <v>74926</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>482</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8782462603485614E-3</v>
+      </c>
+      <c r="D5">
         <v>7099</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>7.1847863490071454E-2</v>
+      </c>
+      <c r="F5">
         <v>15750</v>
       </c>
-      <c r="E5">
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15940327510475072</v>
+      </c>
+      <c r="H5">
         <v>1104</v>
       </c>
-      <c r="F5">
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1173410521628241E-2</v>
+      </c>
+      <c r="J5">
         <v>47</v>
       </c>
-      <c r="G5">
+      <c r="K5" s="2">
+        <f t="shared" si="4"/>
+        <v>4.7567961459830374E-4</v>
+      </c>
+      <c r="L5">
         <v>160</v>
       </c>
-      <c r="H5">
+      <c r="M5" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6193348582069914E-3</v>
+      </c>
+      <c r="N5">
         <v>958</v>
       </c>
-      <c r="I5">
+      <c r="O5" s="2">
+        <f t="shared" si="6"/>
+        <v>9.6957674635143615E-3</v>
+      </c>
+      <c r="P5">
         <v>34068</v>
       </c>
-      <c r="J5">
+      <c r="Q5" s="2">
+        <f t="shared" si="7"/>
+        <v>0.34479687468372366</v>
+      </c>
+      <c r="R5">
         <v>879</v>
       </c>
-      <c r="K5">
+      <c r="S5" s="2">
+        <f t="shared" si="8"/>
+        <v>8.896220877274659E-3</v>
+      </c>
+      <c r="T5">
         <v>32691</v>
       </c>
-      <c r="L5">
+      <c r="U5" s="2">
+        <f t="shared" si="9"/>
+        <v>0.33086047406027974</v>
+      </c>
+      <c r="V5">
         <v>409</v>
       </c>
-      <c r="M5">
+      <c r="W5" s="2">
+        <f t="shared" si="10"/>
+        <v>4.1394247312916219E-3</v>
+      </c>
+      <c r="X5">
         <v>1907</v>
       </c>
-      <c r="N5">
+      <c r="Y5" s="2">
+        <f t="shared" si="11"/>
+        <v>1.9300447341254579E-2</v>
+      </c>
+      <c r="Z5">
+        <v>1228</v>
+      </c>
+      <c r="AA5" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2428395036738659E-2</v>
+      </c>
+      <c r="AB5">
         <v>98806</v>
       </c>
-      <c r="O5">
-        <v>1228</v>
-      </c>
-      <c r="P5">
+      <c r="AC5" s="2">
+        <f t="shared" si="13"/>
+        <v>0.9167803293899327</v>
+      </c>
+      <c r="AD5">
         <v>107775</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>307</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>6.388513162001873E-3</v>
+      </c>
+      <c r="D6">
         <v>8135</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1692851940484861</v>
+      </c>
+      <c r="F6">
         <v>5852</v>
       </c>
-      <c r="E6">
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.12177713037144938</v>
+      </c>
+      <c r="H6">
         <v>258</v>
       </c>
-      <c r="F6">
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>5.3688481947768187E-3</v>
+      </c>
+      <c r="J6">
         <v>21</v>
       </c>
-      <c r="G6">
+      <c r="K6" s="2">
+        <f t="shared" si="4"/>
+        <v>4.3699927166788056E-4</v>
+      </c>
+      <c r="L6">
         <v>243</v>
       </c>
-      <c r="H6">
+      <c r="M6" s="2">
+        <f t="shared" si="5"/>
+        <v>5.0567058578711889E-3</v>
+      </c>
+      <c r="N6">
         <v>275</v>
       </c>
-      <c r="I6">
+      <c r="O6" s="2">
+        <f t="shared" si="6"/>
+        <v>5.7226095099365314E-3</v>
+      </c>
+      <c r="P6">
         <v>13087</v>
       </c>
-      <c r="J6">
+      <c r="Q6" s="2">
+        <f t="shared" si="7"/>
+        <v>0.27233378420559773</v>
+      </c>
+      <c r="R6">
         <v>325</v>
       </c>
-      <c r="K6">
+      <c r="S6" s="2">
+        <f t="shared" si="8"/>
+        <v>6.7630839662886277E-3</v>
+      </c>
+      <c r="T6">
         <v>16577</v>
       </c>
-      <c r="L6">
+      <c r="U6" s="2">
+        <f t="shared" si="9"/>
+        <v>0.3449589012589741</v>
+      </c>
+      <c r="V6">
         <v>132</v>
       </c>
-      <c r="M6">
+      <c r="W6" s="2">
+        <f t="shared" si="10"/>
+        <v>2.7468525647695351E-3</v>
+      </c>
+      <c r="X6">
         <v>605</v>
       </c>
-      <c r="N6">
+      <c r="Y6" s="2">
+        <f t="shared" si="11"/>
+        <v>1.2589740921860368E-2</v>
+      </c>
+      <c r="Z6">
+        <v>453</v>
+      </c>
+      <c r="AA6" s="2">
+        <f t="shared" si="12"/>
+        <v>9.4266985745499951E-3</v>
+      </c>
+      <c r="AB6">
         <v>48055</v>
       </c>
-      <c r="O6">
-        <v>453</v>
-      </c>
-      <c r="P6">
+      <c r="AC6" s="2">
+        <f t="shared" si="13"/>
+        <v>0.92793558228899142</v>
+      </c>
+      <c r="AD6">
         <v>51787</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>266</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8098656492414514E-3</v>
+      </c>
+      <c r="D7">
         <v>5611</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10145923367629242</v>
+      </c>
+      <c r="F7">
         <v>7919</v>
       </c>
-      <c r="E7">
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.14319295517422201</v>
+      </c>
+      <c r="H7">
         <v>454</v>
       </c>
-      <c r="F7">
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>8.2093195667504483E-3</v>
+      </c>
+      <c r="J7">
         <v>29</v>
       </c>
-      <c r="G7">
+      <c r="K7" s="2">
+        <f t="shared" si="4"/>
+        <v>5.243838489774515E-4</v>
+      </c>
+      <c r="L7">
         <v>89</v>
       </c>
-      <c r="H7">
+      <c r="M7" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6093159503101097E-3</v>
+      </c>
+      <c r="N7">
         <v>359</v>
       </c>
-      <c r="I7">
+      <c r="O7" s="2">
+        <f t="shared" si="6"/>
+        <v>6.491510406307072E-3</v>
+      </c>
+      <c r="P7">
         <v>17267</v>
       </c>
-      <c r="J7">
+      <c r="Q7" s="2">
+        <f t="shared" si="7"/>
+        <v>0.31222537656185018</v>
+      </c>
+      <c r="R7">
         <v>405</v>
       </c>
-      <c r="K7">
+      <c r="S7" s="2">
+        <f t="shared" si="8"/>
+        <v>7.3232916839954436E-3</v>
+      </c>
+      <c r="T7">
         <v>18809</v>
       </c>
-      <c r="L7">
+      <c r="U7" s="2">
+        <f t="shared" si="9"/>
+        <v>0.34010813156609948</v>
+      </c>
+      <c r="V7">
         <v>546</v>
       </c>
-      <c r="M7">
+      <c r="W7" s="2">
+        <f t="shared" si="10"/>
+        <v>9.8728821221271898E-3</v>
+      </c>
+      <c r="X7">
         <v>990</v>
       </c>
-      <c r="N7">
+      <c r="Y7" s="2">
+        <f t="shared" si="11"/>
+        <v>1.7901379671988862E-2</v>
+      </c>
+      <c r="Z7">
+        <v>629</v>
+      </c>
+      <c r="AA7" s="2">
+        <f t="shared" si="12"/>
+        <v>1.1373704862304034E-2</v>
+      </c>
+      <c r="AB7">
         <v>55303</v>
       </c>
-      <c r="O7">
-        <v>629</v>
-      </c>
-      <c r="P7">
+      <c r="AC7" s="2">
+        <f t="shared" si="13"/>
+        <v>0.92830765098868639</v>
+      </c>
+      <c r="AD7">
         <v>59574</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>70</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3129821572246677E-3</v>
+      </c>
+      <c r="D8">
         <v>2874</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1360215817123385</v>
+      </c>
+      <c r="F8">
         <v>4055</v>
       </c>
-      <c r="E8">
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19191632353637181</v>
+      </c>
+      <c r="H8">
         <v>204</v>
       </c>
-      <c r="F8">
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>9.6549765724833168E-3</v>
+      </c>
+      <c r="J8">
         <v>7</v>
       </c>
-      <c r="G8">
+      <c r="K8" s="2">
+        <f t="shared" si="4"/>
+        <v>3.3129821572246674E-4</v>
+      </c>
+      <c r="L8">
         <v>39</v>
       </c>
-      <c r="H8">
+      <c r="M8" s="2">
+        <f t="shared" si="5"/>
+        <v>1.8458043447394576E-3</v>
+      </c>
+      <c r="N8">
         <v>134</v>
       </c>
-      <c r="I8">
+      <c r="O8" s="2">
+        <f t="shared" si="6"/>
+        <v>6.3419944152586496E-3</v>
+      </c>
+      <c r="P8">
         <v>5308</v>
       </c>
-      <c r="J8">
+      <c r="Q8" s="2">
+        <f t="shared" si="7"/>
+        <v>0.25121870415069336</v>
+      </c>
+      <c r="R8">
         <v>116</v>
       </c>
-      <c r="K8">
+      <c r="S8" s="2">
+        <f t="shared" si="8"/>
+        <v>5.4900847176865917E-3</v>
+      </c>
+      <c r="T8">
         <v>7357</v>
       </c>
-      <c r="L8">
+      <c r="U8" s="2">
+        <f t="shared" si="9"/>
+        <v>0.34819442472431256</v>
+      </c>
+      <c r="V8">
         <v>71</v>
       </c>
-      <c r="M8">
+      <c r="W8" s="2">
+        <f t="shared" si="10"/>
+        <v>3.3603104737564486E-3</v>
+      </c>
+      <c r="X8">
         <v>294</v>
       </c>
-      <c r="N8">
+      <c r="Y8" s="2">
+        <f t="shared" si="11"/>
+        <v>1.3914525060343604E-2</v>
+      </c>
+      <c r="Z8">
+        <v>218</v>
+      </c>
+      <c r="AA8" s="2">
+        <f t="shared" si="12"/>
+        <v>1.031757300392825E-2</v>
+      </c>
+      <c r="AB8">
         <v>21129</v>
       </c>
-      <c r="O8">
-        <v>218</v>
-      </c>
-      <c r="P8">
+      <c r="AC8" s="2">
+        <f t="shared" si="13"/>
+        <v>0.92516857868464841</v>
+      </c>
+      <c r="AD8">
         <v>22838</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>158</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2432210521994376E-3</v>
+      </c>
+      <c r="D9">
         <v>7024</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14417964981423323</v>
+      </c>
+      <c r="F9">
         <v>8198</v>
       </c>
-      <c r="E9">
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16827801383500626</v>
+      </c>
+      <c r="H9">
         <v>325</v>
       </c>
-      <c r="F9">
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>6.6711825440811216E-3</v>
+      </c>
+      <c r="J9">
         <v>21</v>
       </c>
-      <c r="G9">
+      <c r="K9" s="2">
+        <f t="shared" si="4"/>
+        <v>4.3106102592524172E-4</v>
+      </c>
+      <c r="L9">
         <v>83</v>
       </c>
-      <c r="H9">
+      <c r="M9" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7037173881807172E-3</v>
+      </c>
+      <c r="N9">
         <v>491</v>
       </c>
-      <c r="I9">
+      <c r="O9" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0078617320442556E-2</v>
+      </c>
+      <c r="P9">
         <v>11856</v>
       </c>
-      <c r="J9">
+      <c r="Q9" s="2">
+        <f t="shared" si="7"/>
+        <v>0.24336473920807933</v>
+      </c>
+      <c r="R9">
         <v>377</v>
       </c>
-      <c r="K9">
+      <c r="S9" s="2">
+        <f t="shared" si="8"/>
+        <v>7.7385717511341007E-3</v>
+      </c>
+      <c r="T9">
         <v>17608</v>
       </c>
-      <c r="L9">
+      <c r="U9" s="2">
+        <f t="shared" si="9"/>
+        <v>0.36143440688055506</v>
+      </c>
+      <c r="V9">
         <v>216</v>
       </c>
-      <c r="M9">
+      <c r="W9" s="2">
+        <f t="shared" si="10"/>
+        <v>4.4337705523739149E-3</v>
+      </c>
+      <c r="X9">
         <v>688</v>
       </c>
-      <c r="N9">
+      <c r="Y9" s="2">
+        <f t="shared" si="11"/>
+        <v>1.4122380277931728E-2</v>
+      </c>
+      <c r="Z9">
+        <v>575</v>
+      </c>
+      <c r="AA9" s="2">
+        <f t="shared" si="12"/>
+        <v>1.1802861424143522E-2</v>
+      </c>
+      <c r="AB9">
         <v>48717</v>
       </c>
-      <c r="O9">
-        <v>575</v>
-      </c>
-      <c r="P9">
+      <c r="AC9" s="2">
+        <f t="shared" si="13"/>
+        <v>0.92728933894207888</v>
+      </c>
+      <c r="AD9">
         <v>52537</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>737</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>5.6651779880546992E-3</v>
+      </c>
+      <c r="D10">
         <v>15751</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12107492332408354</v>
+      </c>
+      <c r="F10">
         <v>15281</v>
       </c>
-      <c r="E10">
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.11746212325029018</v>
+      </c>
+      <c r="H10">
         <v>1229</v>
       </c>
-      <c r="F10">
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>9.4470878525362619E-3</v>
+      </c>
+      <c r="J10">
         <v>61</v>
       </c>
-      <c r="G10">
+      <c r="K10" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6889532872637266E-4</v>
+      </c>
+      <c r="L10">
         <v>413</v>
       </c>
-      <c r="H10">
+      <c r="M10" s="2">
+        <f t="shared" si="5"/>
+        <v>3.1746519797375724E-3</v>
+      </c>
+      <c r="N10">
         <v>2782</v>
       </c>
-      <c r="I10">
+      <c r="O10" s="2">
+        <f t="shared" si="6"/>
+        <v>2.1384701713389652E-2</v>
+      </c>
+      <c r="P10">
         <v>37496</v>
       </c>
-      <c r="J10">
+      <c r="Q10" s="2">
+        <f t="shared" si="7"/>
+        <v>0.28822457780203392</v>
+      </c>
+      <c r="R10">
         <v>1437</v>
       </c>
-      <c r="K10">
+      <c r="S10" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1045944055406516E-2</v>
+      </c>
+      <c r="T10">
         <v>47339</v>
       </c>
-      <c r="L10">
+      <c r="U10" s="2">
+        <f t="shared" si="9"/>
+        <v>0.36388583551766812</v>
+      </c>
+      <c r="V10">
         <v>1437</v>
       </c>
-      <c r="M10">
+      <c r="W10" s="2">
+        <f t="shared" si="10"/>
+        <v>1.1045944055406516E-2</v>
+      </c>
+      <c r="X10">
         <v>2534</v>
       </c>
-      <c r="N10">
+      <c r="Y10" s="2">
+        <f t="shared" si="11"/>
+        <v>1.9478373163813581E-2</v>
+      </c>
+      <c r="Z10">
+        <v>1458</v>
+      </c>
+      <c r="AA10" s="2">
+        <f t="shared" si="12"/>
+        <v>1.1207367037427071E-2</v>
+      </c>
+      <c r="AB10">
         <v>130093</v>
       </c>
-      <c r="O10">
-        <v>1458</v>
-      </c>
-      <c r="P10">
+      <c r="AC10" s="2">
+        <f t="shared" si="13"/>
+        <v>0.91191582725239906</v>
+      </c>
+      <c r="AD10">
         <v>142659</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>10888</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1667418562211408E-2</v>
+      </c>
+      <c r="D11">
         <v>76410</v>
       </c>
-      <c r="D11">
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>8.187981744476247E-2</v>
+      </c>
+      <c r="F11">
         <v>98559</v>
       </c>
-      <c r="E11">
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10561435581125957</v>
+      </c>
+      <c r="H11">
         <v>11715</v>
       </c>
-      <c r="F11">
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2553619439410971E-2</v>
+      </c>
+      <c r="J11">
         <v>720</v>
       </c>
-      <c r="G11">
+      <c r="K11" s="2">
+        <f t="shared" si="4"/>
+        <v>7.7154127156431069E-4</v>
+      </c>
+      <c r="L11">
         <v>3079</v>
       </c>
-      <c r="H11">
+      <c r="M11" s="2">
+        <f t="shared" si="5"/>
+        <v>3.2994105210368231E-3</v>
+      </c>
+      <c r="N11">
         <v>15978</v>
       </c>
-      <c r="I11">
+      <c r="O11" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7121786718131329E-2</v>
+      </c>
+      <c r="P11">
         <v>438839</v>
       </c>
-      <c r="J11">
+      <c r="Q11" s="2">
+        <f t="shared" si="7"/>
+        <v>0.47025333343334796</v>
+      </c>
+      <c r="R11">
         <v>12415</v>
       </c>
-      <c r="K11">
+      <c r="S11" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3303729008987384E-2</v>
+      </c>
+      <c r="T11">
         <v>214675</v>
       </c>
-      <c r="L11">
+      <c r="U11" s="2">
+        <f t="shared" si="9"/>
+        <v>0.23004253121259499</v>
+      </c>
+      <c r="V11">
         <v>10081</v>
       </c>
-      <c r="M11">
+      <c r="W11" s="2">
+        <f t="shared" si="10"/>
+        <v>1.0802649386999744E-2</v>
+      </c>
+      <c r="X11">
         <v>18358</v>
       </c>
-      <c r="N11">
+      <c r="Y11" s="2">
+        <f t="shared" si="11"/>
+        <v>1.9672159254691131E-2</v>
+      </c>
+      <c r="Z11">
+        <v>9527</v>
+      </c>
+      <c r="AA11" s="2">
+        <f t="shared" si="12"/>
+        <v>1.0208991241934983E-2</v>
+      </c>
+      <c r="AB11">
         <v>933197</v>
       </c>
-      <c r="O11">
-        <v>9527</v>
-      </c>
-      <c r="P11">
+      <c r="AC11" s="2">
+        <f t="shared" si="13"/>
+        <v>0.88617142705205565</v>
+      </c>
+      <c r="AD11">
         <v>1053066</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B12">
         <v>677</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>7.5880698057588626E-3</v>
+      </c>
+      <c r="D12">
         <v>6919</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>7.7550745917349437E-2</v>
+      </c>
+      <c r="F12">
         <v>11378</v>
       </c>
-      <c r="E12">
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.12752888958629888</v>
+      </c>
+      <c r="H12">
         <v>701</v>
       </c>
-      <c r="F12">
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>7.8570708033042294E-3</v>
+      </c>
+      <c r="J12">
         <v>32</v>
       </c>
-      <c r="G12">
+      <c r="K12" s="2">
+        <f t="shared" si="4"/>
+        <v>3.5866799672715455E-4</v>
+      </c>
+      <c r="L12">
         <v>158</v>
       </c>
-      <c r="H12">
+      <c r="M12" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7709232338403256E-3</v>
+      </c>
+      <c r="N12">
         <v>1154</v>
       </c>
-      <c r="I12">
+      <c r="O12" s="2">
+        <f t="shared" si="6"/>
+        <v>1.293446463197301E-2</v>
+      </c>
+      <c r="P12">
         <v>32698</v>
       </c>
-      <c r="J12">
+      <c r="Q12" s="2">
+        <f t="shared" si="7"/>
+        <v>0.36649144240576559</v>
+      </c>
+      <c r="R12">
         <v>509</v>
       </c>
-      <c r="K12">
+      <c r="S12" s="2">
+        <f t="shared" si="8"/>
+        <v>5.7050628229413014E-3</v>
+      </c>
+      <c r="T12">
         <v>28971</v>
       </c>
-      <c r="L12">
+      <c r="U12" s="2">
+        <f t="shared" si="9"/>
+        <v>0.3247178291619498</v>
+      </c>
+      <c r="V12">
         <v>442</v>
       </c>
-      <c r="M12">
+      <c r="W12" s="2">
+        <f t="shared" si="10"/>
+        <v>4.9541017047938221E-3</v>
+      </c>
+      <c r="X12">
         <v>1276</v>
       </c>
-      <c r="N12">
+      <c r="Y12" s="2">
+        <f t="shared" si="11"/>
+        <v>1.4301886369495287E-2</v>
+      </c>
+      <c r="Z12">
+        <v>997</v>
+      </c>
+      <c r="AA12" s="2">
+        <f t="shared" si="12"/>
+        <v>1.1174749773030408E-2</v>
+      </c>
+      <c r="AB12">
         <v>89219</v>
       </c>
-      <c r="O12">
-        <v>997</v>
-      </c>
-      <c r="P12">
+      <c r="AC12" s="2">
+        <f t="shared" si="13"/>
+        <v>0.90820159410405443</v>
+      </c>
+      <c r="AD12">
         <v>98237</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>163</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8343017101456094E-3</v>
+      </c>
+      <c r="D13">
         <v>4604</v>
       </c>
-      <c r="D13">
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10830138081908212</v>
+      </c>
+      <c r="F13">
         <v>6816</v>
       </c>
-      <c r="E13">
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16033497212486181</v>
+      </c>
+      <c r="H13">
         <v>224</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="I13" s="2">
+        <f t="shared" si="3"/>
+        <v>5.2692244360283223E-3</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>89</v>
       </c>
-      <c r="H13">
+      <c r="M13" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0935757803862529E-3</v>
+      </c>
+      <c r="N13">
         <v>325</v>
       </c>
-      <c r="I13">
+      <c r="O13" s="2">
+        <f t="shared" si="6"/>
+        <v>7.6450800969160926E-3</v>
+      </c>
+      <c r="P13">
         <v>14263</v>
       </c>
-      <c r="J13">
+      <c r="Q13" s="2">
+        <f t="shared" si="7"/>
+        <v>0.33551316129942838</v>
+      </c>
+      <c r="R13">
         <v>286</v>
       </c>
-      <c r="K13">
+      <c r="S13" s="2">
+        <f t="shared" si="8"/>
+        <v>6.7276704852861609E-3</v>
+      </c>
+      <c r="T13">
         <v>13546</v>
       </c>
-      <c r="L13">
+      <c r="U13" s="2">
+        <f t="shared" si="9"/>
+        <v>0.31864693843946273</v>
+      </c>
+      <c r="V13">
         <v>187</v>
       </c>
-      <c r="M13">
+      <c r="W13" s="2">
+        <f t="shared" si="10"/>
+        <v>4.398861471148644E-3</v>
+      </c>
+      <c r="X13">
         <v>614</v>
       </c>
-      <c r="N13">
+      <c r="Y13" s="2">
+        <f t="shared" si="11"/>
+        <v>1.4443320552327632E-2</v>
+      </c>
+      <c r="Z13">
+        <v>533</v>
+      </c>
+      <c r="AA13" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2537931358942392E-2</v>
+      </c>
+      <c r="AB13">
         <v>42511</v>
       </c>
-      <c r="O13">
-        <v>533</v>
-      </c>
-      <c r="P13">
+      <c r="AC13" s="2">
+        <f t="shared" si="13"/>
+        <v>0.90184140184140182</v>
+      </c>
+      <c r="AD13">
         <v>47138</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>502</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>8.6070914203415401E-3</v>
+      </c>
+      <c r="D14">
         <v>10553</v>
       </c>
-      <c r="D14">
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.18093752143200054</v>
+      </c>
+      <c r="F14">
         <v>5788</v>
       </c>
-      <c r="E14">
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9238735340511627E-2</v>
+      </c>
+      <c r="H14">
         <v>348</v>
       </c>
-      <c r="F14">
+      <c r="I14" s="2">
+        <f t="shared" si="3"/>
+        <v>5.9666689527467249E-3</v>
+      </c>
+      <c r="J14">
         <v>38</v>
       </c>
-      <c r="G14">
+      <c r="K14" s="2">
+        <f t="shared" si="4"/>
+        <v>6.515328166792401E-4</v>
+      </c>
+      <c r="L14">
         <v>85</v>
       </c>
-      <c r="H14">
+      <c r="M14" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4573760373088266E-3</v>
+      </c>
+      <c r="N14">
         <v>919</v>
       </c>
-      <c r="I14">
+      <c r="O14" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5756806803374254E-2</v>
+      </c>
+      <c r="P14">
         <v>18903</v>
       </c>
-      <c r="J14">
+      <c r="Q14" s="2">
+        <f t="shared" si="7"/>
+        <v>0.32410328509704411</v>
+      </c>
+      <c r="R14">
         <v>310</v>
       </c>
-      <c r="K14">
+      <c r="S14" s="2">
+        <f t="shared" si="8"/>
+        <v>5.3151361360674852E-3</v>
+      </c>
+      <c r="T14">
         <v>17317</v>
       </c>
-      <c r="L14">
+      <c r="U14" s="2">
+        <f t="shared" si="9"/>
+        <v>0.29691036280090527</v>
+      </c>
+      <c r="V14">
         <v>430</v>
       </c>
-      <c r="M14">
+      <c r="W14" s="2">
+        <f t="shared" si="10"/>
+        <v>7.3726081887387695E-3</v>
+      </c>
+      <c r="X14">
         <v>1093</v>
       </c>
-      <c r="N14">
+      <c r="Y14" s="2">
+        <f t="shared" si="11"/>
+        <v>1.8740141279747616E-2</v>
+      </c>
+      <c r="Z14">
+        <v>820</v>
+      </c>
+      <c r="AA14" s="2">
+        <f t="shared" si="12"/>
+        <v>1.4059392359920445E-2</v>
+      </c>
+      <c r="AB14">
         <v>58324</v>
       </c>
-      <c r="O14">
-        <v>820</v>
-      </c>
-      <c r="P14">
+      <c r="AC14" s="2">
+        <f t="shared" si="13"/>
+        <v>0.91468540242142904</v>
+      </c>
+      <c r="AD14">
         <v>63764</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B15">
         <v>318</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8980620012503218E-3</v>
+      </c>
+      <c r="D15">
         <v>18948</v>
       </c>
-      <c r="D15">
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23226565660280218</v>
+      </c>
+      <c r="F15">
         <v>21256</v>
       </c>
-      <c r="E15">
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2605572512533863</v>
+      </c>
+      <c r="H15">
         <v>231</v>
       </c>
-      <c r="F15">
+      <c r="I15" s="2">
+        <f t="shared" si="3"/>
+        <v>2.8316110763799509E-3</v>
+      </c>
+      <c r="J15">
         <v>52</v>
       </c>
-      <c r="G15">
+      <c r="K15" s="2">
+        <f t="shared" si="4"/>
+        <v>6.3741894360068159E-4</v>
+      </c>
+      <c r="L15">
         <v>86</v>
       </c>
-      <c r="H15">
+      <c r="M15" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0541928682626656E-3</v>
+      </c>
+      <c r="N15">
         <v>181</v>
       </c>
-      <c r="I15">
+      <c r="O15" s="2">
+        <f t="shared" si="6"/>
+        <v>2.2187082459946801E-3</v>
+      </c>
+      <c r="P15">
         <v>15274</v>
       </c>
-      <c r="J15">
+      <c r="Q15" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1872295566260925</v>
+      </c>
+      <c r="R15">
         <v>261</v>
       </c>
-      <c r="K15">
+      <c r="S15" s="2">
+        <f t="shared" si="8"/>
+        <v>3.199352774611113E-3</v>
+      </c>
+      <c r="T15">
         <v>20419</v>
       </c>
-      <c r="L15">
+      <c r="U15" s="2">
+        <f t="shared" si="9"/>
+        <v>0.25029725787273688</v>
+      </c>
+      <c r="V15">
         <v>261</v>
       </c>
-      <c r="M15">
+      <c r="W15" s="2">
+        <f t="shared" si="10"/>
+        <v>3.199352774611113E-3</v>
+      </c>
+      <c r="X15">
         <v>927</v>
       </c>
-      <c r="N15">
+      <c r="Y15" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1363218475342919E-2</v>
+      </c>
+      <c r="Z15">
+        <v>809</v>
+      </c>
+      <c r="AA15" s="2">
+        <f t="shared" si="12"/>
+        <v>9.9167677956336804E-3</v>
+      </c>
+      <c r="AB15">
         <v>81579</v>
       </c>
-      <c r="O15">
-        <v>809</v>
-      </c>
-      <c r="P15">
+      <c r="AC15" s="2">
+        <f t="shared" si="13"/>
+        <v>0.89559661430029969</v>
+      </c>
+      <c r="AD15">
         <v>91089</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B16">
         <v>276</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8692913058394236E-3</v>
+      </c>
+      <c r="D16">
         <v>11474</v>
       </c>
-      <c r="D16">
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11928350885217952</v>
+      </c>
+      <c r="F16">
         <v>22001</v>
       </c>
-      <c r="E16">
+      <c r="G16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.22872202181077231</v>
+      </c>
+      <c r="H16">
         <v>1080</v>
       </c>
-      <c r="F16">
+      <c r="I16" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1227661631545571E-2</v>
+      </c>
+      <c r="J16">
         <v>29</v>
       </c>
-      <c r="G16">
+      <c r="K16" s="2">
+        <f t="shared" si="4"/>
+        <v>3.0148350677298291E-4</v>
+      </c>
+      <c r="L16">
         <v>171</v>
       </c>
-      <c r="H16">
+      <c r="M16" s="2">
+        <f t="shared" si="5"/>
+        <v>1.777713091661382E-3</v>
+      </c>
+      <c r="N16">
         <v>506</v>
       </c>
-      <c r="I16">
+      <c r="O16" s="2">
+        <f t="shared" si="6"/>
+        <v>5.2603673940389431E-3</v>
+      </c>
+      <c r="P16">
         <v>33720</v>
       </c>
-      <c r="J16">
+      <c r="Q16" s="2">
+        <f t="shared" si="7"/>
+        <v>0.35055254649603396</v>
+      </c>
+      <c r="R16">
         <v>561</v>
       </c>
-      <c r="K16">
+      <c r="S16" s="2">
+        <f t="shared" si="8"/>
+        <v>5.8321464586083933E-3</v>
+      </c>
+      <c r="T16">
         <v>21681</v>
       </c>
-      <c r="L16">
+      <c r="U16" s="2">
+        <f t="shared" si="9"/>
+        <v>0.22539530725327733</v>
+      </c>
+      <c r="V16">
         <v>271</v>
       </c>
-      <c r="M16">
+      <c r="W16" s="2">
+        <f t="shared" si="10"/>
+        <v>2.8173113908785646E-3</v>
+      </c>
+      <c r="X16">
         <v>1081</v>
       </c>
-      <c r="N16">
+      <c r="Y16" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1238057614537743E-2</v>
+      </c>
+      <c r="Z16">
+        <v>1100</v>
+      </c>
+      <c r="AA16" s="2">
+        <f t="shared" si="12"/>
+        <v>1.1435581291389007E-2</v>
+      </c>
+      <c r="AB16">
         <v>96191</v>
       </c>
-      <c r="O16">
-        <v>1100</v>
-      </c>
-      <c r="P16">
+      <c r="AC16" s="2">
+        <f t="shared" si="13"/>
+        <v>0.9105374756252248</v>
+      </c>
+      <c r="AD16">
         <v>105642</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B17">
         <v>520</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>6.5400578543579422E-3</v>
+      </c>
+      <c r="D17">
         <v>8022</v>
       </c>
-      <c r="D17">
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10089296943780657</v>
+      </c>
+      <c r="F17">
         <v>8140</v>
       </c>
-      <c r="E17">
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10237705948937241</v>
+      </c>
+      <c r="H17">
         <v>792</v>
       </c>
-      <c r="F17">
+      <c r="I17" s="2">
+        <f t="shared" si="3"/>
+        <v>9.9610111935605587E-3</v>
+      </c>
+      <c r="J17">
         <v>42</v>
       </c>
-      <c r="G17">
+      <c r="K17" s="2">
+        <f t="shared" si="4"/>
+        <v>5.2823544208275685E-4</v>
+      </c>
+      <c r="L17">
         <v>161</v>
       </c>
-      <c r="H17">
+      <c r="M17" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0249025279839013E-3</v>
+      </c>
+      <c r="N17">
         <v>897</v>
       </c>
-      <c r="I17">
+      <c r="O17" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1281599798767451E-2</v>
+      </c>
+      <c r="P17">
         <v>29257</v>
       </c>
-      <c r="J17">
+      <c r="Q17" s="2">
+        <f t="shared" si="7"/>
+        <v>0.36796629354798138</v>
+      </c>
+      <c r="R17">
         <v>748</v>
       </c>
-      <c r="K17">
+      <c r="S17" s="2">
+        <f t="shared" si="8"/>
+        <v>9.4076216828071942E-3</v>
+      </c>
+      <c r="T17">
         <v>26360</v>
       </c>
-      <c r="L17">
+      <c r="U17" s="2">
+        <f t="shared" si="9"/>
+        <v>0.33153062507860648</v>
+      </c>
+      <c r="V17">
         <v>412</v>
       </c>
-      <c r="M17">
+      <c r="W17" s="2">
+        <f t="shared" si="10"/>
+        <v>5.1817381461451394E-3</v>
+      </c>
+      <c r="X17">
         <v>1515</v>
       </c>
-      <c r="N17">
+      <c r="Y17" s="2">
+        <f t="shared" si="11"/>
+        <v>1.9054207017985159E-2</v>
+      </c>
+      <c r="Z17">
+        <v>1033</v>
+      </c>
+      <c r="AA17" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2992076468368759E-2</v>
+      </c>
+      <c r="AB17">
         <v>79510</v>
       </c>
-      <c r="O17">
-        <v>1033</v>
-      </c>
-      <c r="P17">
+      <c r="AC17" s="2">
+        <f t="shared" si="13"/>
+        <v>0.92897451775344964</v>
+      </c>
+      <c r="AD17">
         <v>85589</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>381</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5200591124440384E-3</v>
+      </c>
+      <c r="D18">
         <v>7620</v>
       </c>
-      <c r="D18">
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11040118224888078</v>
+      </c>
+      <c r="F18">
         <v>10454</v>
       </c>
-      <c r="E18">
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15146114950522305</v>
+      </c>
+      <c r="H18">
         <v>476</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="I18" s="2">
+        <f t="shared" si="3"/>
+        <v>6.896451804523261E-3</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>141</v>
       </c>
-      <c r="H18">
+      <c r="M18" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0428565219281088E-3</v>
+      </c>
+      <c r="N18">
         <v>877</v>
       </c>
-      <c r="I18">
+      <c r="O18" s="2">
+        <f t="shared" si="6"/>
+        <v>1.2706277799510293E-2</v>
+      </c>
+      <c r="P18">
         <v>23386</v>
       </c>
-      <c r="J18">
+      <c r="Q18" s="2">
+        <f t="shared" si="7"/>
+        <v>0.33882441575752309</v>
+      </c>
+      <c r="R18">
         <v>310</v>
       </c>
-      <c r="K18">
+      <c r="S18" s="2">
+        <f t="shared" si="8"/>
+        <v>4.4913866794164094E-3</v>
+      </c>
+      <c r="T18">
         <v>20951</v>
       </c>
-      <c r="L18">
+      <c r="U18" s="2">
+        <f t="shared" si="9"/>
+        <v>0.30354529780791356</v>
+      </c>
+      <c r="V18">
         <v>287</v>
       </c>
-      <c r="M18">
+      <c r="W18" s="2">
+        <f t="shared" si="10"/>
+        <v>4.1581547644919661E-3</v>
+      </c>
+      <c r="X18">
         <v>1099</v>
       </c>
-      <c r="N18">
+      <c r="Y18" s="2">
+        <f t="shared" si="11"/>
+        <v>1.592269019573753E-2</v>
+      </c>
+      <c r="Z18">
+        <v>876</v>
+      </c>
+      <c r="AA18" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2691789455383145E-2</v>
+      </c>
+      <c r="AB18">
         <v>69021</v>
       </c>
-      <c r="O18">
-        <v>876</v>
-      </c>
-      <c r="P18">
+      <c r="AC18" s="2">
+        <f t="shared" si="13"/>
+        <v>0.91274679644004819</v>
+      </c>
+      <c r="AD18">
         <v>75619</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <v>313</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1754488941063471E-3</v>
+      </c>
+      <c r="D19">
         <v>12252</v>
       </c>
-      <c r="D19">
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16344281102425229</v>
+      </c>
+      <c r="F19">
         <v>10198</v>
       </c>
-      <c r="E19">
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.13604226141244896</v>
+      </c>
+      <c r="H19">
         <v>969</v>
       </c>
-      <c r="F19">
+      <c r="I19" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2926549451722205E-2</v>
+      </c>
+      <c r="J19">
         <v>15</v>
       </c>
-      <c r="G19">
+      <c r="K19" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0010138470158214E-4</v>
+      </c>
+      <c r="L19">
         <v>80</v>
       </c>
-      <c r="H19">
+      <c r="M19" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0672073850751048E-3</v>
+      </c>
+      <c r="N19">
         <v>516</v>
       </c>
-      <c r="I19">
+      <c r="O19" s="2">
+        <f t="shared" si="6"/>
+        <v>6.8834876337344258E-3</v>
+      </c>
+      <c r="P19">
         <v>20239</v>
       </c>
-      <c r="J19">
+      <c r="Q19" s="2">
+        <f t="shared" si="7"/>
+        <v>0.26999012833168806</v>
+      </c>
+      <c r="R19">
         <v>487</v>
       </c>
-      <c r="K19">
+      <c r="S19" s="2">
+        <f t="shared" si="8"/>
+        <v>6.4966249566447004E-3</v>
+      </c>
+      <c r="T19">
         <v>25221</v>
       </c>
-      <c r="L19">
+      <c r="U19" s="2">
+        <f t="shared" si="9"/>
+        <v>0.33645046823724017</v>
+      </c>
+      <c r="V19">
         <v>364</v>
       </c>
-      <c r="M19">
+      <c r="W19" s="2">
+        <f t="shared" si="10"/>
+        <v>4.855793602091726E-3</v>
+      </c>
+      <c r="X19">
         <v>877</v>
       </c>
-      <c r="N19">
+      <c r="Y19" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1699260958885835E-2</v>
+      </c>
+      <c r="Z19">
+        <v>929</v>
+      </c>
+      <c r="AA19" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2392945759184653E-2</v>
+      </c>
+      <c r="AB19">
         <v>74962</v>
       </c>
-      <c r="O19">
-        <v>929</v>
-      </c>
-      <c r="P19">
+      <c r="AC19" s="2">
+        <f t="shared" si="13"/>
+        <v>0.92460067838421212</v>
+      </c>
+      <c r="AD19">
         <v>81075</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B20">
         <v>164</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0423958590091198E-3</v>
+      </c>
+      <c r="D20">
         <v>7922</v>
       </c>
-      <c r="D20">
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1952674389943308</v>
+      </c>
+      <c r="F20">
         <v>3285</v>
       </c>
-      <c r="E20">
+      <c r="G20" s="2">
+        <f t="shared" si="2"/>
+        <v>8.0971160956371704E-2</v>
+      </c>
+      <c r="H20">
         <v>316</v>
       </c>
-      <c r="F20">
+      <c r="I20" s="2">
+        <f t="shared" si="3"/>
+        <v>7.7890066551639138E-3</v>
+      </c>
+      <c r="J20">
         <v>21</v>
       </c>
-      <c r="G20">
+      <c r="K20" s="2">
+        <f t="shared" si="4"/>
+        <v>5.1762385999507021E-4</v>
+      </c>
+      <c r="L20">
         <v>75</v>
       </c>
-      <c r="H20">
+      <c r="M20" s="2">
+        <f t="shared" si="5"/>
+        <v>1.8486566428395365E-3</v>
+      </c>
+      <c r="N20">
         <v>198</v>
       </c>
-      <c r="I20">
+      <c r="O20" s="2">
+        <f t="shared" si="6"/>
+        <v>4.8804535370963768E-3</v>
+      </c>
+      <c r="P20">
         <v>10553</v>
       </c>
-      <c r="J20">
+      <c r="Q20" s="2">
+        <f t="shared" si="7"/>
+        <v>0.26011831402514174</v>
+      </c>
+      <c r="R20">
         <v>143</v>
       </c>
-      <c r="K20">
+      <c r="S20" s="2">
+        <f t="shared" si="8"/>
+        <v>3.5247719990140498E-3</v>
+      </c>
+      <c r="T20">
         <v>15074</v>
       </c>
-      <c r="L20">
+      <c r="U20" s="2">
+        <f t="shared" si="9"/>
+        <v>0.37155533645550898</v>
+      </c>
+      <c r="V20">
         <v>253</v>
       </c>
-      <c r="M20">
+      <c r="W20" s="2">
+        <f t="shared" si="10"/>
+        <v>6.2361350751787038E-3</v>
+      </c>
+      <c r="X20">
         <v>648</v>
       </c>
-      <c r="N20">
+      <c r="Y20" s="2">
+        <f t="shared" si="11"/>
+        <v>1.5972393394133595E-2</v>
+      </c>
+      <c r="Z20">
+        <v>532</v>
+      </c>
+      <c r="AA20" s="2">
+        <f t="shared" si="12"/>
+        <v>1.311313778654178E-2</v>
+      </c>
+      <c r="AB20">
         <v>40570</v>
       </c>
-      <c r="O20">
-        <v>532</v>
-      </c>
-      <c r="P20">
+      <c r="AC20" s="2">
+        <f t="shared" si="13"/>
+        <v>0.92030941632828978</v>
+      </c>
+      <c r="AD20">
         <v>44083</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" t="e">
-        <v>#N/A</v>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>65</v>
       </c>
       <c r="B21">
         <v>19728</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9983425981072047E-3</v>
+      </c>
+      <c r="D21">
         <v>268736</v>
       </c>
-      <c r="D21">
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10895390290171014</v>
+      </c>
+      <c r="F21">
         <v>300177</v>
       </c>
-      <c r="E21">
+      <c r="G21" s="2">
+        <f t="shared" si="2"/>
+        <v>0.12170105870194781</v>
+      </c>
+      <c r="H21">
         <v>26313</v>
       </c>
-      <c r="F21">
+      <c r="I21" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0668105676398768E-2</v>
+      </c>
+      <c r="J21">
         <v>1387</v>
       </c>
-      <c r="G21">
+      <c r="K21" s="2">
+        <f t="shared" si="4"/>
+        <v>5.6233278505548928E-4</v>
+      </c>
+      <c r="L21">
         <v>6363</v>
       </c>
-      <c r="H21">
+      <c r="M21" s="2">
+        <f t="shared" si="5"/>
+        <v>2.5797573982033733E-3</v>
+      </c>
+      <c r="N21">
         <v>33461</v>
       </c>
-      <c r="I21">
+      <c r="O21" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3566126402841909E-2</v>
+      </c>
+      <c r="P21">
         <v>949376</v>
       </c>
-      <c r="J21">
+      <c r="Q21" s="2">
+        <f t="shared" si="7"/>
+        <v>0.38490645288020203</v>
+      </c>
+      <c r="R21">
         <v>23580</v>
       </c>
-      <c r="K21">
+      <c r="S21" s="2">
+        <f t="shared" si="8"/>
+        <v>9.5600627769347069E-3</v>
+      </c>
+      <c r="T21">
         <v>696452</v>
       </c>
-      <c r="L21">
+      <c r="U21" s="2">
+        <f t="shared" si="9"/>
+        <v>0.28236322481432274</v>
+      </c>
+      <c r="V21">
         <v>19392</v>
       </c>
-      <c r="M21">
+      <c r="W21" s="2">
+        <f t="shared" si="10"/>
+        <v>7.8621177850007554E-3</v>
+      </c>
+      <c r="X21">
         <v>44597</v>
       </c>
-      <c r="N21">
+      <c r="Y21" s="2">
+        <f t="shared" si="11"/>
+        <v>1.8081005922941353E-2</v>
+      </c>
+      <c r="Z21">
+        <v>28691</v>
+      </c>
+      <c r="AA21" s="2">
+        <f t="shared" si="12"/>
+        <v>1.1632220573920002E-2</v>
+      </c>
+      <c r="AB21">
         <v>2466511</v>
       </c>
-      <c r="O21">
-        <v>28691</v>
-      </c>
-      <c r="P21">
+      <c r="AC21" s="2">
+        <f t="shared" si="13"/>
+        <v>0.90245085753487309</v>
+      </c>
+      <c r="AD21">
         <v>2733125</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BD9FEF-152C-0D40-B0FB-02AFF5462054}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48C7A7C-5C12-DA4C-8557-0471A523D965}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>309307</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D2" s="3">
+        <v>0.32580031515437508</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.38490000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>234909</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
+      <c r="D3" s="3">
+        <v>0.24743515740865579</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>172471</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D4" s="3">
+        <v>0.18166774807873803</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>123520</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
+      <c r="D5" s="3">
+        <v>0.1301065120668734</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>96391</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
+      <c r="D6" s="3">
+        <v>0.10153090029661588</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>41836</v>
       </c>
+      <c r="D7" s="3">
+        <v>4.4066839692598087E-2</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>471975</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.67768489429278689</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.2823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>143532</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.20609029768024215</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>108750</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.15614859315502003</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>141159</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.47025255099491298</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.1217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>119859</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.39929441629438633</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13">
+        <v>44598</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.14857234231803237</v>
+      </c>
+      <c r="E13" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D70695B-A5D1-1D46-A2D3-ADDA59DA0354}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6B12CA-3570-7149-A147-2D29312251E5}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>64640</v>
+      </c>
+      <c r="C2">
+        <v>58178</v>
+      </c>
+      <c r="D2">
+        <v>513</v>
+      </c>
+      <c r="E2">
+        <v>669</v>
+      </c>
+      <c r="F2">
+        <v>34752</v>
+      </c>
+      <c r="G2" s="1">
+        <f>F2/C2</f>
+        <v>0.5973392003850253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>411087</v>
+      </c>
+      <c r="C3">
+        <v>371983</v>
+      </c>
+      <c r="D3">
+        <v>5617</v>
+      </c>
+      <c r="E3">
+        <v>8596</v>
+      </c>
+      <c r="F3">
+        <v>164260</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G21" si="0">F3/C3</f>
+        <v>0.44157931948503021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>74926</v>
+      </c>
+      <c r="C4">
+        <v>69163</v>
+      </c>
+      <c r="D4">
+        <v>844</v>
+      </c>
+      <c r="E4">
+        <v>826</v>
+      </c>
+      <c r="F4">
+        <v>37155</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53720920145164319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>107775</v>
+      </c>
+      <c r="C5">
+        <v>98806</v>
+      </c>
+      <c r="D5">
+        <v>1228</v>
+      </c>
+      <c r="E5">
+        <v>1907</v>
+      </c>
+      <c r="F5">
+        <v>48307</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.48890755622128212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>51787</v>
+      </c>
+      <c r="C6">
+        <v>48055</v>
+      </c>
+      <c r="D6">
+        <v>453</v>
+      </c>
+      <c r="E6">
+        <v>605</v>
+      </c>
+      <c r="F6">
+        <v>27331</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56874414733118306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>22838</v>
+      </c>
+      <c r="C7">
+        <v>21129</v>
+      </c>
+      <c r="D7">
+        <v>218</v>
+      </c>
+      <c r="E7">
+        <v>294</v>
+      </c>
+      <c r="F7">
+        <v>12083</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57186804865350938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>59574</v>
+      </c>
+      <c r="C8">
+        <v>55303</v>
+      </c>
+      <c r="D8">
+        <v>629</v>
+      </c>
+      <c r="E8">
+        <v>990</v>
+      </c>
+      <c r="F8">
+        <v>28523</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5157586387718569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>52537</v>
+      </c>
+      <c r="C9">
+        <v>48717</v>
+      </c>
+      <c r="D9">
+        <v>575</v>
+      </c>
+      <c r="E9">
+        <v>688</v>
+      </c>
+      <c r="F9">
+        <v>29528</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60611285588193031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B10">
+        <v>142659</v>
+      </c>
+      <c r="C10">
+        <v>130093</v>
+      </c>
+      <c r="D10">
+        <v>1458</v>
+      </c>
+      <c r="E10">
+        <v>2534</v>
+      </c>
+      <c r="F10">
+        <v>72059</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55390374578186374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="C2">
-        <v>471975</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B11">
+        <v>1053066</v>
+      </c>
+      <c r="C11">
+        <v>933197</v>
+      </c>
+      <c r="D11">
+        <v>9527</v>
+      </c>
+      <c r="E11">
+        <v>18358</v>
+      </c>
+      <c r="F11">
+        <v>364405</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39049096814498974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="C3">
-        <v>143532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B12">
+        <v>98237</v>
+      </c>
+      <c r="C12">
+        <v>89219</v>
+      </c>
+      <c r="D12">
+        <v>997</v>
+      </c>
+      <c r="E12">
+        <v>1276</v>
+      </c>
+      <c r="F12">
+        <v>44536</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49917618444501732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>57</v>
       </c>
-      <c r="C4">
-        <v>108750</v>
+      <c r="B13">
+        <v>47138</v>
+      </c>
+      <c r="C13">
+        <v>42511</v>
+      </c>
+      <c r="D13">
+        <v>533</v>
+      </c>
+      <c r="E13">
+        <v>614</v>
+      </c>
+      <c r="F13">
+        <v>22126</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.52047705299804758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14">
+        <v>91089</v>
+      </c>
+      <c r="C14">
+        <v>81579</v>
+      </c>
+      <c r="D14">
+        <v>809</v>
+      </c>
+      <c r="E14">
+        <v>927</v>
+      </c>
+      <c r="F14">
+        <v>49783</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61024283210139862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15">
+        <v>63764</v>
+      </c>
+      <c r="C15">
+        <v>58324</v>
+      </c>
+      <c r="D15">
+        <v>820</v>
+      </c>
+      <c r="E15">
+        <v>1093</v>
+      </c>
+      <c r="F15">
+        <v>29727</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.50968726424799393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16">
+        <v>105642</v>
+      </c>
+      <c r="C16">
+        <v>96191</v>
+      </c>
+      <c r="D16">
+        <v>1100</v>
+      </c>
+      <c r="E16">
+        <v>1081</v>
+      </c>
+      <c r="F16">
+        <v>51458</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53495649281117774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>85589</v>
+      </c>
+      <c r="C17">
+        <v>79510</v>
+      </c>
+      <c r="D17">
+        <v>1033</v>
+      </c>
+      <c r="E17">
+        <v>1515</v>
+      </c>
+      <c r="F17">
+        <v>39725</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49962268896994089</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18">
+        <v>75619</v>
+      </c>
+      <c r="C18">
+        <v>69021</v>
+      </c>
+      <c r="D18">
+        <v>876</v>
+      </c>
+      <c r="E18">
+        <v>1099</v>
+      </c>
+      <c r="F18">
+        <v>33896</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4910969125338665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19">
+        <v>81075</v>
+      </c>
+      <c r="C19">
+        <v>74962</v>
+      </c>
+      <c r="D19">
+        <v>929</v>
+      </c>
+      <c r="E19">
+        <v>877</v>
+      </c>
+      <c r="F19">
+        <v>41685</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55608174808569677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <v>44083</v>
+      </c>
+      <c r="C20">
+        <v>40570</v>
+      </c>
+      <c r="D20">
+        <v>532</v>
+      </c>
+      <c r="E20">
+        <v>648</v>
+      </c>
+      <c r="F20">
+        <v>23000</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56692137047079127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21">
+        <f>SUM(B2:B20)</f>
+        <v>2733125</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:F21" si="1">SUM(C2:C20)</f>
+        <v>2466511</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>28691</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>44597</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>1154339</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.46800480516810994</v>
       </c>
     </row>
   </sheetData>
@@ -7679,55 +8727,929 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED08F8C1-6521-3B4A-929B-CA26D29A6630}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C4D943-BE71-4448-9C66-01B0201E982A}">
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="17" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="17" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="3"/>
+    <col min="9" max="9" width="8.83203125" style="3"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>19800</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2/J2</f>
+        <v>0.34202798410779062</v>
+      </c>
+      <c r="D2">
+        <v>34958</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2/J2</f>
+        <v>0.60386940749697704</v>
+      </c>
+      <c r="F2">
+        <v>671</v>
+      </c>
+      <c r="G2" s="3">
+        <f>F2/J2</f>
+        <v>1.1590948350319572E-2</v>
+      </c>
+      <c r="H2">
+        <v>746</v>
+      </c>
+      <c r="I2" s="3">
+        <f>H2/J2</f>
+        <v>1.2886508896182414E-2</v>
+      </c>
+      <c r="J2">
+        <v>57890</v>
+      </c>
+      <c r="K2" s="3">
+        <f>J2/L2</f>
+        <v>0.89534002505529175</v>
+      </c>
+      <c r="L2">
+        <v>64657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>189577</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C21" si="0">B3/J3</f>
+        <v>0.50906410528379198</v>
+      </c>
+      <c r="D3">
+        <v>165350</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E21" si="1">D3/J3</f>
+        <v>0.44400823838690878</v>
+      </c>
+      <c r="F3">
+        <v>6006</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G21" si="2">F3/J3</f>
+        <v>1.6127689626560474E-2</v>
+      </c>
+      <c r="H3">
+        <v>8686</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I21" si="3">H3/J3</f>
+        <v>2.3324194488229151E-2</v>
+      </c>
+      <c r="J3">
+        <v>372403</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K21" si="4">J3/L3</f>
+        <v>0.90522444475234143</v>
+      </c>
+      <c r="L3">
+        <v>411393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>26466</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.3833707539653799</v>
+      </c>
+      <c r="D4">
+        <v>38620</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.55942637792424132</v>
+      </c>
+      <c r="F4">
+        <v>1052</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5238647063083944E-2</v>
+      </c>
+      <c r="H4">
+        <v>1083</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5687694647642501E-2</v>
+      </c>
+      <c r="J4">
+        <v>69035</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="4"/>
+        <v>0.92033168468624604</v>
+      </c>
+      <c r="L4">
+        <v>75011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>41946</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.42474381303414477</v>
+      </c>
+      <c r="D5">
+        <v>52111</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.52767426789258376</v>
+      </c>
+      <c r="F5">
+        <v>1425</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4429503017538176E-2</v>
+      </c>
+      <c r="H5">
+        <v>1894</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9178581554538457E-2</v>
+      </c>
+      <c r="J5">
+        <v>98756</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="4"/>
+        <v>0.91594245912130512</v>
+      </c>
+      <c r="L5">
+        <v>107819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>17905</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.37220663132730486</v>
+      </c>
+      <c r="D6">
+        <v>26948</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.56019124831098643</v>
+      </c>
+      <c r="F6">
+        <v>768</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5965076395385094E-2</v>
+      </c>
+      <c r="H6">
+        <v>915</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9020891799189272E-2</v>
+      </c>
+      <c r="J6">
+        <v>48105</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="4"/>
+        <v>0.92580831408775976</v>
+      </c>
+      <c r="L6">
+        <v>51960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>22419</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.40444147784673112</v>
+      </c>
+      <c r="D7">
+        <v>29257</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.52779982681483617</v>
+      </c>
+      <c r="F7">
+        <v>878</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5839226439601672E-2</v>
+      </c>
+      <c r="H7">
+        <v>1231</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="3"/>
+        <v>2.2207389233655651E-2</v>
+      </c>
+      <c r="J7">
+        <v>55432</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="4"/>
+        <v>0.9288515030664567</v>
+      </c>
+      <c r="L7">
+        <v>59678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>6990</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.33149957317651524</v>
+      </c>
+      <c r="D8">
+        <v>13102</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.62136014417148822</v>
+      </c>
+      <c r="F8">
+        <v>356</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6883240064497772E-2</v>
+      </c>
+      <c r="H8">
+        <v>372</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7642037370767333E-2</v>
+      </c>
+      <c r="J8">
+        <v>21086</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="4"/>
+        <v>0.92312406969617367</v>
+      </c>
+      <c r="L8">
+        <v>22842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>15934</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.32733473026829368</v>
+      </c>
+      <c r="D9">
+        <v>30249</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.62141008258350794</v>
+      </c>
+      <c r="F9">
+        <v>792</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6270183655860963E-2</v>
+      </c>
+      <c r="H9">
+        <v>928</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9064053576564363E-2</v>
+      </c>
+      <c r="J9">
+        <v>48678</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="4"/>
+        <v>0.92584209825589137</v>
+      </c>
+      <c r="L9">
+        <v>52577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>48768</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.37465717117241698</v>
+      </c>
+      <c r="D10">
+        <v>74193</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.56998317545921773</v>
+      </c>
+      <c r="F10">
+        <v>2193</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6847588098365944E-2</v>
+      </c>
+      <c r="H10">
+        <v>3576</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="3"/>
+        <v>2.7472400838922308E-2</v>
+      </c>
+      <c r="J10">
+        <v>130167</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="4"/>
+        <v>0.91141872873167251</v>
+      </c>
+      <c r="L10">
+        <v>142818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>507346</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.54251740325288456</v>
+      </c>
+      <c r="D11">
+        <v>383991</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.41061090496914998</v>
+      </c>
+      <c r="F11">
+        <v>13924</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4889271469358513E-2</v>
+      </c>
+      <c r="H11">
+        <v>22240</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="3"/>
+        <v>2.3781772298084841E-2</v>
+      </c>
+      <c r="J11">
+        <v>935170</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="4"/>
+        <v>0.88800284109252925</v>
+      </c>
+      <c r="L11">
+        <v>1053116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <v>40114</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.44855695579733645</v>
+      </c>
+      <c r="D12">
+        <v>43404</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.48534591687260287</v>
+      </c>
+      <c r="F12">
+        <v>1305</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>1.459258182468774E-2</v>
+      </c>
+      <c r="H12">
+        <v>1767</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9758691252278342E-2</v>
+      </c>
+      <c r="J12">
+        <v>89429</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="4"/>
+        <v>0.90876665277876578</v>
+      </c>
+      <c r="L12">
+        <v>98407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>17485</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.41261563148952235</v>
+      </c>
+      <c r="D13">
+        <v>22953</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.54165093449122148</v>
+      </c>
+      <c r="F13">
+        <v>613</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4465735321880309E-2</v>
+      </c>
+      <c r="H13">
+        <v>747</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7627902586369645E-2</v>
+      </c>
+      <c r="J13">
+        <v>42376</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="4"/>
+        <v>0.89871055310485237</v>
+      </c>
+      <c r="L13">
+        <v>47152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B14">
+        <v>24129</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.41372747380874814</v>
+      </c>
+      <c r="D14">
+        <v>30736</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.52701428301983844</v>
+      </c>
+      <c r="F14">
+        <v>1195</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0490046466967303E-2</v>
+      </c>
+      <c r="H14">
+        <v>1472</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5239622091527924E-2</v>
+      </c>
+      <c r="J14">
+        <v>58321</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="4"/>
+        <v>0.91400764794383149</v>
+      </c>
+      <c r="L14">
+        <v>63808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>59</v>
       </c>
-      <c r="C2">
-        <v>141159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B15">
+        <v>24029</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2955960142698979</v>
+      </c>
+      <c r="D15">
+        <v>52842</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.65004305572641163</v>
+      </c>
+      <c r="F15">
+        <v>1216</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4958789519006028E-2</v>
+      </c>
+      <c r="H15">
+        <v>1060</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3039734284659859E-2</v>
+      </c>
+      <c r="J15">
+        <v>81290</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="4"/>
+        <v>0.89197344598672301</v>
+      </c>
+      <c r="L15">
+        <v>91135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16">
+        <v>43398</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45184599046290319</v>
+      </c>
+      <c r="D16">
+        <v>48240</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.50225933406909185</v>
+      </c>
+      <c r="F16">
+        <v>1448</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5076109364262957E-2</v>
+      </c>
+      <c r="H16">
+        <v>1279</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3316535826583096E-2</v>
+      </c>
+      <c r="J16">
+        <v>96046</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="4"/>
+        <v>0.90850272893235839</v>
+      </c>
+      <c r="L16">
+        <v>105719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>60</v>
       </c>
-      <c r="C3">
-        <v>119859</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4">
-        <v>44598</v>
+      <c r="B17">
+        <v>35178</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.44281919915408918</v>
+      </c>
+      <c r="D17">
+        <v>40247</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.50662756007603127</v>
+      </c>
+      <c r="F17">
+        <v>1323</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="2"/>
+        <v>1.665386890900165E-2</v>
+      </c>
+      <c r="H17">
+        <v>1649</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0757543334046651E-2</v>
+      </c>
+      <c r="J17">
+        <v>79441</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="4"/>
+        <v>0.92746398300137767</v>
+      </c>
+      <c r="L17">
+        <v>85654</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18">
+        <v>30453</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.44107295453557926</v>
+      </c>
+      <c r="D18">
+        <v>34318</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.49705256144721405</v>
+      </c>
+      <c r="F18">
+        <v>1027</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4874788175484844E-2</v>
+      </c>
+      <c r="H18">
+        <v>1454</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1059339831699084E-2</v>
+      </c>
+      <c r="J18">
+        <v>69043</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="4"/>
+        <v>0.91184394727805806</v>
+      </c>
+      <c r="L18">
+        <v>75718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19">
+        <v>26179</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.34982761846219634</v>
+      </c>
+      <c r="D19">
+        <v>44092</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.58919742363096983</v>
+      </c>
+      <c r="F19">
+        <v>1206</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6115669348157256E-2</v>
+      </c>
+      <c r="H19">
+        <v>1209</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6155758077879039E-2</v>
+      </c>
+      <c r="J19">
+        <v>74834</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="4"/>
+        <v>0.92171449685921913</v>
+      </c>
+      <c r="L19">
+        <v>81190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <v>14155</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.34927332395686828</v>
+      </c>
+      <c r="D20">
+        <v>23702</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.58484467145359886</v>
+      </c>
+      <c r="F20">
+        <v>626</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.544649246181558E-2</v>
+      </c>
+      <c r="H20">
+        <v>885</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1837293656081131E-2</v>
+      </c>
+      <c r="J20">
+        <v>40527</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="4"/>
+        <v>0.91775176068298647</v>
+      </c>
+      <c r="L20">
+        <v>44159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21">
+        <f>SUM(B2:B20)</f>
+        <v>1152271</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.4668790358622204</v>
+      </c>
+      <c r="D21">
+        <f>SUM(D2:D20)</f>
+        <v>1189313</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.48188777360395685</v>
+      </c>
+      <c r="F21">
+        <f>SUM(F2:F20)</f>
+        <v>38024</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5406626097181192E-2</v>
+      </c>
+      <c r="H21">
+        <f>SUM(H2:H20)</f>
+        <v>53193</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1552826162091289E-2</v>
+      </c>
+      <c r="J21">
+        <f>SUM(J2:J20)</f>
+        <v>2468029</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="4"/>
+        <v>0.90244890601295225</v>
+      </c>
+      <c r="L21">
+        <f>SUM(L2:L20)</f>
+        <v>2734813</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fede/Desktop/PAPERS/Proyecto libro/Anexo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30592666-15AD-FF4B-9E82-E8B0F5CF5DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3D702A-E3FD-134D-AECF-D115D3BDE639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internas-General" sheetId="13" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="108">
-  <si>
-    <t>DEPARTAMENTO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="110">
   <si>
     <t>Anulados</t>
   </si>
@@ -162,9 +159,6 @@
     <t>TERCERA VÍA</t>
   </si>
   <si>
-    <t>VotosSI</t>
-  </si>
-  <si>
     <t>Hablitados</t>
   </si>
   <si>
@@ -234,9 +228,6 @@
     <t>Partido</t>
   </si>
   <si>
-    <t>% dentro Lema</t>
-  </si>
-  <si>
     <t>Oscar Andrade</t>
   </si>
   <si>
@@ -291,18 +282,6 @@
     <t>% SI</t>
   </si>
   <si>
-    <t>Martínez-Villar</t>
-  </si>
-  <si>
-    <t>Lacalle-Argimón</t>
-  </si>
-  <si>
-    <t>% Martinez-Villar</t>
-  </si>
-  <si>
-    <t>% Lacalle-Argimón</t>
-  </si>
-  <si>
     <t>% Blanco</t>
   </si>
   <si>
@@ -355,6 +334,33 @@
   </si>
   <si>
     <t>Tercera Vía</t>
+  </si>
+  <si>
+    <t>P.E.R.I.</t>
+  </si>
+  <si>
+    <t>En blanco y anulados</t>
+  </si>
+  <si>
+    <t>Votos SI</t>
+  </si>
+  <si>
+    <t>Martínez - Villar</t>
+  </si>
+  <si>
+    <t>% Martinez - Villar</t>
+  </si>
+  <si>
+    <t>Lacalle - Argimón</t>
+  </si>
+  <si>
+    <t>% Lacalle - Argimón</t>
+  </si>
+  <si>
+    <t>% En blanco y anulados</t>
+  </si>
+  <si>
+    <t>% en el Lema</t>
   </si>
 </sst>
 </file>
@@ -403,25 +409,37 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
@@ -740,80 +758,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3476E4-AE28-304F-9212-EDE14D2C0DBA}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="20" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
       <c r="Q1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
         <v>1</v>
-      </c>
-      <c r="T1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -875,7 +894,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -937,7 +956,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -999,7 +1018,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1061,7 +1080,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -1123,7 +1142,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1185,7 +1204,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1247,7 +1266,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1309,7 +1328,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1371,7 +1390,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>124</v>
@@ -1433,7 +1452,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1495,7 +1514,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1557,7 +1576,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1619,7 +1638,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1681,7 +1700,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1743,7 +1762,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1805,7 +1824,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1867,7 +1886,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1929,7 +1948,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1991,7 +2010,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21">
         <f>SUM(B2:B20)</f>
@@ -2090,21 +2109,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>309307</v>
@@ -2112,10 +2131,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>234909</v>
@@ -2123,10 +2142,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>172471</v>
@@ -2134,10 +2153,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>123520</v>
@@ -2145,10 +2164,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>96391</v>
@@ -2156,10 +2175,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>41836</v>
@@ -2180,21 +2199,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
       </c>
       <c r="C2">
         <v>471975</v>
@@ -2202,10 +2221,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>143532</v>
@@ -2213,10 +2232,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>108750</v>
@@ -2237,21 +2256,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
       </c>
       <c r="C2">
         <v>141159</v>
@@ -2259,10 +2278,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>119859</v>
@@ -2270,10 +2289,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>44598</v>
@@ -2289,7 +2308,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2297,161 +2316,161 @@
     <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>4145</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>49485</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>256006</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>455327</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>182841</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>486</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>6751</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>566</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>605</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2604</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>2073</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>3075</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <v>2698588</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18">
         <v>1099317</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19">
         <v>7478</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <v>5436</v>
@@ -2467,7 +2486,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2485,87 +2504,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="7" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>2644</v>
       </c>
       <c r="C3" s="1">
-        <f>B3/J3</f>
+        <f t="shared" ref="C3:C22" si="0">B3/J3</f>
         <v>0.62698600901114532</v>
       </c>
       <c r="D3">
         <v>579</v>
       </c>
       <c r="E3" s="1">
-        <f>D3/J3</f>
+        <f t="shared" ref="E3:E22" si="1">D3/J3</f>
         <v>0.13730139909888547</v>
       </c>
       <c r="F3">
         <v>664</v>
       </c>
       <c r="G3" s="1">
-        <f>F3/J3</f>
+        <f t="shared" ref="G3:G22" si="2">F3/J3</f>
         <v>0.15745790846573393</v>
       </c>
       <c r="H3">
         <v>330</v>
       </c>
       <c r="I3" s="1">
-        <f>H3/J3</f>
+        <f t="shared" ref="I3:I22" si="3">H3/J3</f>
         <v>7.8254683424235236E-2</v>
       </c>
       <c r="J3">
@@ -2574,34 +2593,34 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>14527</v>
       </c>
       <c r="C4" s="1">
-        <f>B4/J4</f>
+        <f t="shared" si="0"/>
         <v>0.36227836105638545</v>
       </c>
       <c r="D4">
         <v>10625</v>
       </c>
       <c r="E4" s="1">
-        <f>D4/J4</f>
+        <f t="shared" si="1"/>
         <v>0.26496920122696327</v>
       </c>
       <c r="F4">
         <v>12012</v>
       </c>
       <c r="G4" s="1">
-        <f>F4/J4</f>
+        <f t="shared" si="2"/>
         <v>0.29955859248360306</v>
       </c>
       <c r="H4">
         <v>2935</v>
       </c>
       <c r="I4" s="1">
-        <f>H4/J4</f>
+        <f t="shared" si="3"/>
         <v>7.3193845233048199E-2</v>
       </c>
       <c r="J4">
@@ -2610,34 +2629,34 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>2169</v>
       </c>
       <c r="C5" s="1">
-        <f>B5/J5</f>
+        <f t="shared" si="0"/>
         <v>0.57244655581947745</v>
       </c>
       <c r="D5">
         <v>687</v>
       </c>
       <c r="E5" s="1">
-        <f>D5/J5</f>
+        <f t="shared" si="1"/>
         <v>0.18131433095803642</v>
       </c>
       <c r="F5">
         <v>764</v>
       </c>
       <c r="G5" s="1">
-        <f>F5/J5</f>
+        <f t="shared" si="2"/>
         <v>0.20163631565056744</v>
       </c>
       <c r="H5">
         <v>169</v>
       </c>
       <c r="I5" s="1">
-        <f>H5/J5</f>
+        <f t="shared" si="3"/>
         <v>4.4602797571918713E-2</v>
       </c>
       <c r="J5">
@@ -2646,34 +2665,34 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>4585</v>
       </c>
       <c r="C6" s="1">
-        <f>B6/J6</f>
+        <f t="shared" si="0"/>
         <v>0.50356946732564523</v>
       </c>
       <c r="D6">
         <v>2083</v>
       </c>
       <c r="E6" s="1">
-        <f>D6/J6</f>
+        <f t="shared" si="1"/>
         <v>0.22877539813289402</v>
       </c>
       <c r="F6">
         <v>2003</v>
       </c>
       <c r="G6" s="1">
-        <f>F6/J6</f>
+        <f t="shared" si="2"/>
         <v>0.2199890170236134</v>
       </c>
       <c r="H6">
         <v>434</v>
       </c>
       <c r="I6" s="1">
-        <f>H6/J6</f>
+        <f t="shared" si="3"/>
         <v>4.7666117517847335E-2</v>
       </c>
       <c r="J6">
@@ -2682,34 +2701,34 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>1598</v>
       </c>
       <c r="C7" s="1">
-        <f>B7/J7</f>
+        <f t="shared" si="0"/>
         <v>0.54243041412084181</v>
       </c>
       <c r="D7">
         <v>456</v>
       </c>
       <c r="E7" s="1">
-        <f>D7/J7</f>
+        <f t="shared" si="1"/>
         <v>0.15478615071283094</v>
       </c>
       <c r="F7">
         <v>741</v>
       </c>
       <c r="G7" s="1">
-        <f>F7/J7</f>
+        <f t="shared" si="2"/>
         <v>0.2515274949083503</v>
       </c>
       <c r="H7">
         <v>151</v>
       </c>
       <c r="I7" s="1">
-        <f>H7/J7</f>
+        <f t="shared" si="3"/>
         <v>5.1255940257976917E-2</v>
       </c>
       <c r="J7">
@@ -2718,34 +2737,34 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>2069</v>
       </c>
       <c r="C8" s="1">
-        <f>B8/J8</f>
+        <f t="shared" si="0"/>
         <v>0.5210274490052883</v>
       </c>
       <c r="D8">
         <v>625</v>
       </c>
       <c r="E8" s="1">
-        <f>D8/J8</f>
+        <f t="shared" si="1"/>
         <v>0.15739108536892471</v>
       </c>
       <c r="F8">
         <v>966</v>
       </c>
       <c r="G8" s="1">
-        <f>F8/J8</f>
+        <f t="shared" si="2"/>
         <v>0.24326366154621001</v>
       </c>
       <c r="H8">
         <v>311</v>
       </c>
       <c r="I8" s="1">
-        <f>H8/J8</f>
+        <f t="shared" si="3"/>
         <v>7.8317804079576933E-2</v>
       </c>
       <c r="J8">
@@ -2754,34 +2773,34 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>616</v>
       </c>
       <c r="C9" s="1">
-        <f>B9/J9</f>
+        <f t="shared" si="0"/>
         <v>0.47022900763358777</v>
       </c>
       <c r="D9">
         <v>284</v>
       </c>
       <c r="E9" s="1">
-        <f>D9/J9</f>
+        <f t="shared" si="1"/>
         <v>0.21679389312977099</v>
       </c>
       <c r="F9">
         <v>354</v>
       </c>
       <c r="G9" s="1">
-        <f>F9/J9</f>
+        <f t="shared" si="2"/>
         <v>0.27022900763358776</v>
       </c>
       <c r="H9">
         <v>56</v>
       </c>
       <c r="I9" s="1">
-        <f>H9/J9</f>
+        <f t="shared" si="3"/>
         <v>4.2748091603053436E-2</v>
       </c>
       <c r="J9">
@@ -2790,34 +2809,34 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>1466</v>
       </c>
       <c r="C10" s="1">
-        <f>B10/J10</f>
+        <f t="shared" si="0"/>
         <v>0.50761772853185594</v>
       </c>
       <c r="D10">
         <v>531</v>
       </c>
       <c r="E10" s="1">
-        <f>D10/J10</f>
+        <f t="shared" si="1"/>
         <v>0.18386426592797783</v>
       </c>
       <c r="F10">
         <v>688</v>
       </c>
       <c r="G10" s="1">
-        <f>F10/J10</f>
+        <f t="shared" si="2"/>
         <v>0.23822714681440443</v>
       </c>
       <c r="H10">
         <v>203</v>
       </c>
       <c r="I10" s="1">
-        <f>H10/J10</f>
+        <f t="shared" si="3"/>
         <v>7.0290858725761768E-2</v>
       </c>
       <c r="J10">
@@ -2826,34 +2845,34 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>5332</v>
       </c>
       <c r="C11" s="1">
-        <f>B11/J11</f>
+        <f t="shared" si="0"/>
         <v>0.5181226314255174</v>
       </c>
       <c r="D11">
         <v>2152</v>
       </c>
       <c r="E11" s="1">
-        <f>D11/J11</f>
+        <f t="shared" si="1"/>
         <v>0.20911476047031385</v>
       </c>
       <c r="F11">
         <v>2103</v>
       </c>
       <c r="G11" s="1">
-        <f>F11/J11</f>
+        <f t="shared" si="2"/>
         <v>0.20435331843358273</v>
       </c>
       <c r="H11">
         <v>704</v>
       </c>
       <c r="I11" s="1">
-        <f>H11/J11</f>
+        <f t="shared" si="3"/>
         <v>6.8409289670585946E-2</v>
       </c>
       <c r="J11">
@@ -2862,34 +2881,34 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>44930</v>
       </c>
       <c r="C12" s="1">
-        <f>B12/J12</f>
+        <f t="shared" si="0"/>
         <v>0.35852790500965542</v>
       </c>
       <c r="D12">
         <v>29836</v>
       </c>
       <c r="E12" s="1">
-        <f>D12/J12</f>
+        <f t="shared" si="1"/>
         <v>0.23808231858152859</v>
       </c>
       <c r="F12">
         <v>34529</v>
       </c>
       <c r="G12" s="1">
-        <f>F12/J12</f>
+        <f t="shared" si="2"/>
         <v>0.2755310490113152</v>
       </c>
       <c r="H12">
         <v>16023</v>
       </c>
       <c r="I12" s="1">
-        <f>H12/J12</f>
+        <f t="shared" si="3"/>
         <v>0.12785872739750076</v>
       </c>
       <c r="J12">
@@ -2898,34 +2917,34 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>4463</v>
       </c>
       <c r="C13" s="1">
-        <f>B13/J13</f>
+        <f t="shared" si="0"/>
         <v>0.4774283269148481</v>
       </c>
       <c r="D13">
         <v>2301</v>
       </c>
       <c r="E13" s="1">
-        <f>D13/J13</f>
+        <f t="shared" si="1"/>
         <v>0.24614890885750962</v>
       </c>
       <c r="F13">
         <v>2283</v>
       </c>
       <c r="G13" s="1">
-        <f>F13/J13</f>
+        <f t="shared" si="2"/>
         <v>0.24422336328626446</v>
       </c>
       <c r="H13">
         <v>301</v>
       </c>
       <c r="I13" s="1">
-        <f>H13/J13</f>
+        <f t="shared" si="3"/>
         <v>3.2199400941377833E-2</v>
       </c>
       <c r="J13">
@@ -2934,34 +2953,34 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>2369</v>
       </c>
       <c r="C14" s="1">
-        <f>B14/J14</f>
+        <f t="shared" si="0"/>
         <v>0.54623011298132351</v>
       </c>
       <c r="D14">
         <v>1051</v>
       </c>
       <c r="E14" s="1">
-        <f>D14/J14</f>
+        <f t="shared" si="1"/>
         <v>0.24233341019137652</v>
       </c>
       <c r="F14">
         <v>673</v>
       </c>
       <c r="G14" s="1">
-        <f>F14/J14</f>
+        <f t="shared" si="2"/>
         <v>0.15517638920913074</v>
       </c>
       <c r="H14">
         <v>244</v>
       </c>
       <c r="I14" s="1">
-        <f>H14/J14</f>
+        <f t="shared" si="3"/>
         <v>5.6260087618169238E-2</v>
       </c>
       <c r="J14">
@@ -2970,34 +2989,34 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>2322</v>
       </c>
       <c r="C15" s="1">
-        <f>B15/J15</f>
+        <f t="shared" si="0"/>
         <v>0.49849720910261913</v>
       </c>
       <c r="D15">
         <v>900</v>
       </c>
       <c r="E15" s="1">
-        <f>D15/J15</f>
+        <f t="shared" si="1"/>
         <v>0.19321597252039502</v>
       </c>
       <c r="F15">
         <v>1231</v>
       </c>
       <c r="G15" s="1">
-        <f>F15/J15</f>
+        <f t="shared" si="2"/>
         <v>0.26427651352511805</v>
       </c>
       <c r="H15">
         <v>205</v>
       </c>
       <c r="I15" s="1">
-        <f>H15/J15</f>
+        <f t="shared" si="3"/>
         <v>4.4010304851867757E-2</v>
       </c>
       <c r="J15">
@@ -3006,34 +3025,34 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>1619</v>
       </c>
       <c r="C16" s="1">
-        <f>B16/J16</f>
+        <f t="shared" si="0"/>
         <v>0.47366881217086015</v>
       </c>
       <c r="D16">
         <v>929</v>
       </c>
       <c r="E16" s="1">
-        <f>D16/J16</f>
+        <f t="shared" si="1"/>
         <v>0.27179637214745467</v>
       </c>
       <c r="F16">
         <v>733</v>
       </c>
       <c r="G16" s="1">
-        <f>F16/J16</f>
+        <f t="shared" si="2"/>
         <v>0.21445289643066121</v>
       </c>
       <c r="H16">
         <v>137</v>
       </c>
       <c r="I16" s="1">
-        <f>H16/J16</f>
+        <f t="shared" si="3"/>
         <v>4.0081919251023994E-2</v>
       </c>
       <c r="J16">
@@ -3042,34 +3061,34 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <v>6928</v>
       </c>
       <c r="C17" s="1">
-        <f>B17/J17</f>
+        <f t="shared" si="0"/>
         <v>0.66911338613096383</v>
       </c>
       <c r="D17">
         <v>1801</v>
       </c>
       <c r="E17" s="1">
-        <f>D17/J17</f>
+        <f t="shared" si="1"/>
         <v>0.17394243770523468</v>
       </c>
       <c r="F17">
         <v>1358</v>
       </c>
       <c r="G17" s="1">
-        <f>F17/J17</f>
+        <f t="shared" si="2"/>
         <v>0.13115704075719528</v>
       </c>
       <c r="H17">
         <v>267</v>
       </c>
       <c r="I17" s="1">
-        <f>H17/J17</f>
+        <f t="shared" si="3"/>
         <v>2.5787135406606144E-2</v>
       </c>
       <c r="J17">
@@ -3078,34 +3097,34 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>3665</v>
       </c>
       <c r="C18" s="1">
-        <f>B18/J18</f>
+        <f t="shared" si="0"/>
         <v>0.50530814835240589</v>
       </c>
       <c r="D18">
         <v>1581</v>
       </c>
       <c r="E18" s="1">
-        <f>D18/J18</f>
+        <f t="shared" si="1"/>
         <v>0.21797876740659039</v>
       </c>
       <c r="F18">
         <v>1569</v>
       </c>
       <c r="G18" s="1">
-        <f>F18/J18</f>
+        <f t="shared" si="2"/>
         <v>0.21632427960843789</v>
       </c>
       <c r="H18">
         <v>438</v>
       </c>
       <c r="I18" s="1">
-        <f>H18/J18</f>
+        <f t="shared" si="3"/>
         <v>6.0388804632565837E-2</v>
       </c>
       <c r="J18">
@@ -3114,34 +3133,34 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19">
         <v>2842</v>
       </c>
       <c r="C19" s="1">
-        <f>B19/J19</f>
+        <f t="shared" si="0"/>
         <v>0.56931089743589747</v>
       </c>
       <c r="D19">
         <v>896</v>
       </c>
       <c r="E19" s="1">
-        <f>D19/J19</f>
+        <f t="shared" si="1"/>
         <v>0.17948717948717949</v>
       </c>
       <c r="F19">
         <v>999</v>
       </c>
       <c r="G19" s="1">
-        <f>F19/J19</f>
+        <f t="shared" si="2"/>
         <v>0.20012019230769232</v>
       </c>
       <c r="H19">
         <v>255</v>
       </c>
       <c r="I19" s="1">
-        <f>H19/J19</f>
+        <f t="shared" si="3"/>
         <v>5.1081730769230768E-2</v>
       </c>
       <c r="J19">
@@ -3150,34 +3169,34 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <v>2459</v>
       </c>
       <c r="C20" s="1">
-        <f>B20/J20</f>
+        <f t="shared" si="0"/>
         <v>0.46766831494864969</v>
       </c>
       <c r="D20">
         <v>1204</v>
       </c>
       <c r="E20" s="1">
-        <f>D20/J20</f>
+        <f t="shared" si="1"/>
         <v>0.22898440471662229</v>
       </c>
       <c r="F20">
         <v>1163</v>
       </c>
       <c r="G20" s="1">
-        <f>F20/J20</f>
+        <f t="shared" si="2"/>
         <v>0.22118676302776721</v>
       </c>
       <c r="H20">
         <v>432</v>
       </c>
       <c r="I20" s="1">
-        <f>H20/J20</f>
+        <f t="shared" si="3"/>
         <v>8.216051730696082E-2</v>
       </c>
       <c r="J20">
@@ -3186,34 +3205,34 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <v>1520</v>
       </c>
       <c r="C21" s="1">
-        <f>B21/J21</f>
+        <f t="shared" si="0"/>
         <v>0.61939690301548489</v>
       </c>
       <c r="D21">
         <v>369</v>
       </c>
       <c r="E21" s="1">
-        <f>D21/J21</f>
+        <f t="shared" si="1"/>
         <v>0.15036674816625917</v>
       </c>
       <c r="F21">
         <v>446</v>
       </c>
       <c r="G21" s="1">
-        <f>F21/J21</f>
+        <f t="shared" si="2"/>
         <v>0.18174409127954361</v>
       </c>
       <c r="H21">
         <v>119</v>
       </c>
       <c r="I21" s="1">
-        <f>H21/J21</f>
+        <f t="shared" si="3"/>
         <v>4.8492257538712308E-2</v>
       </c>
       <c r="J21">
@@ -3222,14 +3241,14 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22">
         <f>SUM(B3:B21)</f>
         <v>108123</v>
       </c>
       <c r="C22" s="1">
-        <f>B22/J22</f>
+        <f t="shared" si="0"/>
         <v>0.4223455700257025</v>
       </c>
       <c r="D22">
@@ -3237,7 +3256,7 @@
         <v>58890</v>
       </c>
       <c r="E22" s="1">
-        <f>D22/J22</f>
+        <f t="shared" si="1"/>
         <v>0.23003367108583392</v>
       </c>
       <c r="F22">
@@ -3245,7 +3264,7 @@
         <v>65279</v>
       </c>
       <c r="G22" s="1">
-        <f>F22/J22</f>
+        <f t="shared" si="2"/>
         <v>0.25499011741912297</v>
       </c>
       <c r="H22">
@@ -3253,7 +3272,7 @@
         <v>23714</v>
       </c>
       <c r="I22" s="1">
-        <f>H22/J22</f>
+        <f t="shared" si="3"/>
         <v>9.2630641469340566E-2</v>
       </c>
       <c r="J22">
@@ -3263,12 +3282,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3279,7 +3298,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3291,109 +3310,109 @@
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
     <col min="9" max="9" width="12" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12" style="8" customWidth="1"/>
+    <col min="11" max="11" width="12" style="5" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="7" t="s">
-        <v>72</v>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>8708</v>
       </c>
       <c r="C3" s="3">
-        <f>B3/L3</f>
+        <f t="shared" ref="C3:C22" si="0">B3/L3</f>
         <v>0.55788327247101033</v>
       </c>
       <c r="D3">
         <v>1944</v>
       </c>
       <c r="E3" s="3">
-        <f>D3/L3</f>
+        <f t="shared" ref="E3:E22" si="1">D3/L3</f>
         <v>0.12454353257735921</v>
       </c>
       <c r="F3">
         <v>4823</v>
       </c>
       <c r="G3" s="3">
-        <f>F3/L3</f>
+        <f t="shared" ref="G3:G22" si="2">F3/L3</f>
         <v>0.30898840412582484</v>
       </c>
       <c r="H3">
         <v>112</v>
       </c>
       <c r="I3" s="3">
-        <f>H3/L3</f>
+        <f t="shared" ref="I3:I22" si="3">H3/L3</f>
         <v>7.1753475558972392E-3</v>
       </c>
       <c r="J3">
         <v>22</v>
       </c>
-      <c r="K3" s="8">
-        <f>J3/L3</f>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:K22" si="4">J3/L3</f>
         <v>1.4094432699083862E-3</v>
       </c>
       <c r="L3">
@@ -3402,41 +3421,41 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>40844</v>
       </c>
       <c r="C4" s="3">
-        <f>B4/L4</f>
+        <f t="shared" si="0"/>
         <v>0.65568612341873755</v>
       </c>
       <c r="D4">
         <v>13073</v>
       </c>
       <c r="E4" s="3">
-        <f>D4/L4</f>
+        <f t="shared" si="1"/>
         <v>0.20986643549733514</v>
       </c>
       <c r="F4">
         <v>6981</v>
       </c>
       <c r="G4" s="3">
-        <f>F4/L4</f>
+        <f t="shared" si="2"/>
         <v>0.11206896551724138</v>
       </c>
       <c r="H4">
         <v>1257</v>
       </c>
       <c r="I4" s="3">
-        <f>H4/L4</f>
+        <f t="shared" si="3"/>
         <v>2.0179156231939895E-2</v>
       </c>
       <c r="J4">
         <v>137</v>
       </c>
-      <c r="K4" s="8">
-        <f>J4/L4</f>
+      <c r="K4" s="5">
+        <f t="shared" si="4"/>
         <v>2.1993193347460346E-3</v>
       </c>
       <c r="L4">
@@ -3445,41 +3464,41 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>5430</v>
       </c>
       <c r="C5" s="3">
-        <f>B5/L5</f>
+        <f t="shared" si="0"/>
         <v>0.21235823230348064</v>
       </c>
       <c r="D5">
         <v>4185</v>
       </c>
       <c r="E5" s="3">
-        <f>D5/L5</f>
+        <f t="shared" si="1"/>
         <v>0.16366836136096988</v>
       </c>
       <c r="F5">
         <v>1213</v>
       </c>
       <c r="G5" s="3">
-        <f>F5/L5</f>
+        <f t="shared" si="2"/>
         <v>4.743840438013297E-2</v>
       </c>
       <c r="H5">
         <v>14737</v>
       </c>
       <c r="I5" s="3">
-        <f>H5/L5</f>
+        <f t="shared" si="3"/>
         <v>0.57633946030504501</v>
       </c>
       <c r="J5">
         <v>5</v>
       </c>
-      <c r="K5" s="8">
-        <f>J5/L5</f>
+      <c r="K5" s="5">
+        <f t="shared" si="4"/>
         <v>1.9554165037152912E-4</v>
       </c>
       <c r="L5">
@@ -3488,41 +3507,41 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>12140</v>
       </c>
       <c r="C6" s="3">
-        <f>B6/L6</f>
+        <f t="shared" si="0"/>
         <v>0.53697806086341116</v>
       </c>
       <c r="D6">
         <v>3416</v>
       </c>
       <c r="E6" s="3">
-        <f>D6/L6</f>
+        <f t="shared" si="1"/>
         <v>0.15109695682944091</v>
       </c>
       <c r="F6">
         <v>5391</v>
       </c>
       <c r="G6" s="3">
-        <f>F6/L6</f>
+        <f t="shared" si="2"/>
         <v>0.23845541401273884</v>
       </c>
       <c r="H6">
         <v>1485</v>
       </c>
       <c r="I6" s="3">
-        <f>H6/L6</f>
+        <f t="shared" si="3"/>
         <v>6.5684713375796178E-2</v>
       </c>
       <c r="J6">
         <v>176</v>
       </c>
-      <c r="K6" s="8">
-        <f>J6/L6</f>
+      <c r="K6" s="5">
+        <f t="shared" si="4"/>
         <v>7.7848549186128801E-3</v>
       </c>
       <c r="L6">
@@ -3531,41 +3550,41 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>9026</v>
       </c>
       <c r="C7" s="3">
-        <f>B7/L7</f>
+        <f t="shared" si="0"/>
         <v>0.59043631844050504</v>
       </c>
       <c r="D7">
         <v>4217</v>
       </c>
       <c r="E7" s="3">
-        <f>D7/L7</f>
+        <f t="shared" si="1"/>
         <v>0.27585530189049517</v>
       </c>
       <c r="F7">
         <v>1838</v>
       </c>
       <c r="G7" s="3">
-        <f>F7/L7</f>
+        <f t="shared" si="2"/>
         <v>0.12023287760842546</v>
       </c>
       <c r="H7">
         <v>190</v>
       </c>
       <c r="I7" s="3">
-        <f>H7/L7</f>
+        <f t="shared" si="3"/>
         <v>1.2428861123830705E-2</v>
       </c>
       <c r="J7">
         <v>16</v>
       </c>
-      <c r="K7" s="8">
-        <f>J7/L7</f>
+      <c r="K7" s="5">
+        <f t="shared" si="4"/>
         <v>1.0466409367436383E-3</v>
       </c>
       <c r="L7">
@@ -3574,41 +3593,41 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>10207</v>
       </c>
       <c r="C8" s="3">
-        <f>B8/L8</f>
+        <f t="shared" si="0"/>
         <v>0.70112652836928147</v>
       </c>
       <c r="D8">
         <v>3422</v>
       </c>
       <c r="E8" s="3">
-        <f>D8/L8</f>
+        <f t="shared" si="1"/>
         <v>0.23505976095617531</v>
       </c>
       <c r="F8">
         <v>815</v>
       </c>
       <c r="G8" s="3">
-        <f>F8/L8</f>
+        <f t="shared" si="2"/>
         <v>5.5982964692952331E-2</v>
       </c>
       <c r="H8">
         <v>36</v>
       </c>
       <c r="I8" s="3">
-        <f>H8/L8</f>
+        <f t="shared" si="3"/>
         <v>2.4728671520813299E-3</v>
       </c>
       <c r="J8">
         <v>78</v>
       </c>
-      <c r="K8" s="8">
-        <f>J8/L8</f>
+      <c r="K8" s="5">
+        <f t="shared" si="4"/>
         <v>5.3578788295095478E-3</v>
       </c>
       <c r="L8">
@@ -3617,41 +3636,41 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>3617</v>
       </c>
       <c r="C9" s="3">
-        <f>B9/L9</f>
+        <f t="shared" si="0"/>
         <v>0.57816496163682862</v>
       </c>
       <c r="D9">
         <v>1731</v>
       </c>
       <c r="E9" s="3">
-        <f>D9/L9</f>
+        <f t="shared" si="1"/>
         <v>0.27669437340153452</v>
       </c>
       <c r="F9">
         <v>825</v>
       </c>
       <c r="G9" s="3">
-        <f>F9/L9</f>
+        <f t="shared" si="2"/>
         <v>0.13187340153452684</v>
       </c>
       <c r="H9">
         <v>78</v>
       </c>
       <c r="I9" s="3">
-        <f>H9/L9</f>
+        <f t="shared" si="3"/>
         <v>1.2468030690537084E-2</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" s="8">
-        <f>J9/L9</f>
+      <c r="K9" s="5">
+        <f t="shared" si="4"/>
         <v>7.9923273657289001E-4</v>
       </c>
       <c r="L9">
@@ -3660,41 +3679,41 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>7247</v>
       </c>
       <c r="C10" s="3">
-        <f>B10/L10</f>
+        <f t="shared" si="0"/>
         <v>0.562087954704103</v>
       </c>
       <c r="D10">
         <v>2523</v>
       </c>
       <c r="E10" s="3">
-        <f>D10/L10</f>
+        <f t="shared" si="1"/>
         <v>0.19568758240905917</v>
       </c>
       <c r="F10">
         <v>2877</v>
       </c>
       <c r="G10" s="3">
-        <f>F10/L10</f>
+        <f t="shared" si="2"/>
         <v>0.22314434189094859</v>
       </c>
       <c r="H10">
         <v>218</v>
       </c>
       <c r="I10" s="3">
-        <f>H10/L10</f>
+        <f t="shared" si="3"/>
         <v>1.690839990692624E-2</v>
       </c>
       <c r="J10">
         <v>28</v>
       </c>
-      <c r="K10" s="8">
-        <f>J10/L10</f>
+      <c r="K10" s="5">
+        <f t="shared" si="4"/>
         <v>2.1717210889630034E-3</v>
       </c>
       <c r="L10">
@@ -3703,41 +3722,41 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>14396</v>
       </c>
       <c r="C11" s="3">
-        <f>B11/L11</f>
+        <f t="shared" si="0"/>
         <v>0.44160863830178843</v>
       </c>
       <c r="D11">
         <v>5460</v>
       </c>
       <c r="E11" s="3">
-        <f>D11/L11</f>
+        <f t="shared" si="1"/>
         <v>0.16748980030062272</v>
       </c>
       <c r="F11">
         <v>1655</v>
       </c>
       <c r="G11" s="3">
-        <f>F11/L11</f>
+        <f t="shared" si="2"/>
         <v>5.0768428479401211E-2</v>
       </c>
       <c r="H11">
         <v>10990</v>
       </c>
       <c r="I11" s="3">
-        <f>H11/L11</f>
+        <f t="shared" si="3"/>
         <v>0.33712690573330473</v>
       </c>
       <c r="J11">
         <v>98</v>
       </c>
-      <c r="K11" s="8">
-        <f>J11/L11</f>
+      <c r="K11" s="5">
+        <f t="shared" si="4"/>
         <v>3.006227184882972E-3</v>
       </c>
       <c r="L11">
@@ -3746,41 +3765,41 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>71723</v>
       </c>
       <c r="C12" s="3">
-        <f>B12/L12</f>
+        <f t="shared" si="0"/>
         <v>0.62804178597385307</v>
       </c>
       <c r="D12">
         <v>24468</v>
       </c>
       <c r="E12" s="3">
-        <f>D12/L12</f>
+        <f t="shared" si="1"/>
         <v>0.21425381564084378</v>
       </c>
       <c r="F12">
         <v>15827</v>
       </c>
       <c r="G12" s="3">
-        <f>F12/L12</f>
+        <f t="shared" si="2"/>
         <v>0.13858897908074361</v>
       </c>
       <c r="H12">
         <v>1456</v>
       </c>
       <c r="I12" s="3">
-        <f>H12/L12</f>
+        <f t="shared" si="3"/>
         <v>1.2749450530205516E-2</v>
       </c>
       <c r="J12">
         <v>727</v>
       </c>
-      <c r="K12" s="8">
-        <f>J12/L12</f>
+      <c r="K12" s="5">
+        <f t="shared" si="4"/>
         <v>6.3659687743539903E-3</v>
       </c>
       <c r="L12">
@@ -3789,41 +3808,41 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>5686</v>
       </c>
       <c r="C13" s="3">
-        <f>B13/L13</f>
+        <f t="shared" si="0"/>
         <v>0.25355629877369007</v>
       </c>
       <c r="D13">
         <v>3451</v>
       </c>
       <c r="E13" s="3">
-        <f>D13/L13</f>
+        <f t="shared" si="1"/>
         <v>0.15389074693422519</v>
       </c>
       <c r="F13">
         <v>13164</v>
       </c>
       <c r="G13" s="3">
-        <f>F13/L13</f>
+        <f t="shared" si="2"/>
         <v>0.58702341137123748</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13" s="3">
-        <f>H13/L13</f>
+        <f t="shared" si="3"/>
         <v>4.4593088071348942E-4</v>
       </c>
       <c r="J13">
         <v>114</v>
       </c>
-      <c r="K13" s="8">
-        <f>J13/L13</f>
+      <c r="K13" s="5">
+        <f t="shared" si="4"/>
         <v>5.0836120401337795E-3</v>
       </c>
       <c r="L13">
@@ -3832,41 +3851,41 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>4056</v>
       </c>
       <c r="C14" s="3">
-        <f>B14/L14</f>
+        <f t="shared" si="0"/>
         <v>0.45192200557103063</v>
       </c>
       <c r="D14">
         <v>2111</v>
       </c>
       <c r="E14" s="3">
-        <f>D14/L14</f>
+        <f t="shared" si="1"/>
         <v>0.23520891364902508</v>
       </c>
       <c r="F14">
         <v>2768</v>
       </c>
       <c r="G14" s="3">
-        <f>F14/L14</f>
+        <f t="shared" si="2"/>
         <v>0.30841225626740948</v>
       </c>
       <c r="H14">
         <v>25</v>
       </c>
       <c r="I14" s="3">
-        <f>H14/L14</f>
+        <f t="shared" si="3"/>
         <v>2.7855153203342618E-3</v>
       </c>
       <c r="J14">
         <v>15</v>
       </c>
-      <c r="K14" s="8">
-        <f>J14/L14</f>
+      <c r="K14" s="5">
+        <f t="shared" si="4"/>
         <v>1.6713091922005571E-3</v>
       </c>
       <c r="L14">
@@ -3875,41 +3894,41 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>7275</v>
       </c>
       <c r="C15" s="3">
-        <f>B15/L15</f>
+        <f t="shared" si="0"/>
         <v>0.63877425586091841</v>
       </c>
       <c r="D15">
         <v>2472</v>
       </c>
       <c r="E15" s="3">
-        <f>D15/L15</f>
+        <f t="shared" si="1"/>
         <v>0.21705154096057599</v>
       </c>
       <c r="F15">
         <v>1539</v>
       </c>
       <c r="G15" s="3">
-        <f>F15/L15</f>
+        <f t="shared" si="2"/>
         <v>0.1351303889718149</v>
       </c>
       <c r="H15">
         <v>80</v>
       </c>
       <c r="I15" s="3">
-        <f>H15/L15</f>
+        <f t="shared" si="3"/>
         <v>7.0243217139344984E-3</v>
       </c>
       <c r="J15">
         <v>23</v>
       </c>
-      <c r="K15" s="8">
-        <f>J15/L15</f>
+      <c r="K15" s="5">
+        <f t="shared" si="4"/>
         <v>2.0194924927561682E-3</v>
       </c>
       <c r="L15">
@@ -3918,41 +3937,41 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>6411</v>
       </c>
       <c r="C16" s="3">
-        <f>B16/L16</f>
+        <f t="shared" si="0"/>
         <v>0.48804811205846527</v>
       </c>
       <c r="D16">
         <v>4740</v>
       </c>
       <c r="E16" s="3">
-        <f>D16/L16</f>
+        <f t="shared" si="1"/>
         <v>0.36084043848964675</v>
       </c>
       <c r="F16">
         <v>1396</v>
       </c>
       <c r="G16" s="3">
-        <f>F16/L16</f>
+        <f t="shared" si="2"/>
         <v>0.10627283800243606</v>
       </c>
       <c r="H16">
         <v>524</v>
       </c>
       <c r="I16" s="3">
-        <f>H16/L16</f>
+        <f t="shared" si="3"/>
         <v>3.9890377588306943E-2</v>
       </c>
       <c r="J16">
         <v>65</v>
       </c>
-      <c r="K16" s="8">
-        <f>J16/L16</f>
+      <c r="K16" s="5">
+        <f t="shared" si="4"/>
         <v>4.9482338611449451E-3</v>
       </c>
       <c r="L16">
@@ -3961,41 +3980,41 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <v>7088</v>
       </c>
       <c r="C17" s="3">
-        <f>B17/L17</f>
+        <f t="shared" si="0"/>
         <v>0.52903418420659798</v>
       </c>
       <c r="D17">
         <v>3673</v>
       </c>
       <c r="E17" s="3">
-        <f>D17/L17</f>
+        <f t="shared" si="1"/>
         <v>0.27414539483505002</v>
       </c>
       <c r="F17">
         <v>2322</v>
       </c>
       <c r="G17" s="3">
-        <f>F17/L17</f>
+        <f t="shared" si="2"/>
         <v>0.17330944917151814</v>
       </c>
       <c r="H17">
         <v>233</v>
       </c>
       <c r="I17" s="3">
-        <f>H17/L17</f>
+        <f t="shared" si="3"/>
         <v>1.7390655321689805E-2</v>
       </c>
       <c r="J17">
         <v>82</v>
       </c>
-      <c r="K17" s="8">
-        <f>J17/L17</f>
+      <c r="K17" s="5">
+        <f t="shared" si="4"/>
         <v>6.1203164651440515E-3</v>
       </c>
       <c r="L17">
@@ -4004,41 +4023,41 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>11106</v>
       </c>
       <c r="C18" s="3">
-        <f>B18/L18</f>
+        <f t="shared" si="0"/>
         <v>0.64920792657976267</v>
       </c>
       <c r="D18">
         <v>2738</v>
       </c>
       <c r="E18" s="3">
-        <f>D18/L18</f>
+        <f t="shared" si="1"/>
         <v>0.16005144093061319</v>
       </c>
       <c r="F18">
         <v>2915</v>
       </c>
       <c r="G18" s="3">
-        <f>F18/L18</f>
+        <f t="shared" si="2"/>
         <v>0.17039808265622261</v>
       </c>
       <c r="H18">
         <v>327</v>
       </c>
       <c r="I18" s="3">
-        <f>H18/L18</f>
+        <f t="shared" si="3"/>
         <v>1.9114982171041094E-2</v>
       </c>
       <c r="J18">
         <v>21</v>
       </c>
-      <c r="K18" s="8">
-        <f>J18/L18</f>
+      <c r="K18" s="5">
+        <f t="shared" si="4"/>
         <v>1.2275676623604373E-3</v>
       </c>
       <c r="L18">
@@ -4047,41 +4066,41 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19">
         <v>6047</v>
       </c>
       <c r="C19" s="3">
-        <f>B19/L19</f>
+        <f t="shared" si="0"/>
         <v>0.38592124577190628</v>
       </c>
       <c r="D19">
         <v>4540</v>
       </c>
       <c r="E19" s="3">
-        <f>D19/L19</f>
+        <f t="shared" si="1"/>
         <v>0.28974408066883656</v>
       </c>
       <c r="F19">
         <v>4803</v>
       </c>
       <c r="G19" s="3">
-        <f>F19/L19</f>
+        <f t="shared" si="2"/>
         <v>0.30652881485736166</v>
       </c>
       <c r="H19">
         <v>253</v>
       </c>
       <c r="I19" s="3">
-        <f>H19/L19</f>
+        <f t="shared" si="3"/>
         <v>1.6146531367668644E-2</v>
       </c>
       <c r="J19">
         <v>26</v>
       </c>
-      <c r="K19" s="8">
-        <f>J19/L19</f>
+      <c r="K19" s="5">
+        <f t="shared" si="4"/>
         <v>1.6593273342268174E-3</v>
       </c>
       <c r="L19">
@@ -4090,41 +4109,41 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <v>8701</v>
       </c>
       <c r="C20" s="3">
-        <f>B20/L20</f>
+        <f t="shared" si="0"/>
         <v>0.45602725366876312</v>
       </c>
       <c r="D20">
         <v>4158</v>
       </c>
       <c r="E20" s="3">
-        <f>D20/L20</f>
+        <f t="shared" si="1"/>
         <v>0.2179245283018868</v>
       </c>
       <c r="F20">
         <v>4716</v>
       </c>
       <c r="G20" s="3">
-        <f>F20/L20</f>
+        <f t="shared" si="2"/>
         <v>0.24716981132075472</v>
       </c>
       <c r="H20">
         <v>1468</v>
       </c>
       <c r="I20" s="3">
-        <f>H20/L20</f>
+        <f t="shared" si="3"/>
         <v>7.69392033542977E-2</v>
       </c>
       <c r="J20">
         <v>37</v>
       </c>
-      <c r="K20" s="8">
-        <f>J20/L20</f>
+      <c r="K20" s="5">
+        <f t="shared" si="4"/>
         <v>1.9392033542976939E-3</v>
       </c>
       <c r="L20">
@@ -4133,41 +4152,41 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <v>4940</v>
       </c>
       <c r="C21" s="3">
-        <f>B21/L21</f>
+        <f t="shared" si="0"/>
         <v>0.40244399185336049</v>
       </c>
       <c r="D21">
         <v>2076</v>
       </c>
       <c r="E21" s="3">
-        <f>D21/L21</f>
+        <f t="shared" si="1"/>
         <v>0.16912423625254583</v>
       </c>
       <c r="F21">
         <v>4394</v>
       </c>
       <c r="G21" s="3">
-        <f>F21/L21</f>
+        <f t="shared" si="2"/>
         <v>0.3579633401221996</v>
       </c>
       <c r="H21">
         <v>835</v>
       </c>
       <c r="I21" s="3">
-        <f>H21/L21</f>
+        <f t="shared" si="3"/>
         <v>6.8024439918533602E-2</v>
       </c>
       <c r="J21">
         <v>30</v>
       </c>
-      <c r="K21" s="8">
-        <f>J21/L21</f>
+      <c r="K21" s="5">
+        <f t="shared" si="4"/>
         <v>2.443991853360489E-3</v>
       </c>
       <c r="L21">
@@ -4176,14 +4195,14 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22">
         <f>SUM(B3:B21)</f>
         <v>244648</v>
       </c>
       <c r="C22" s="3">
-        <f>B22/L22</f>
+        <f t="shared" si="0"/>
         <v>0.53730176334809931</v>
       </c>
       <c r="D22">
@@ -4191,7 +4210,7 @@
         <v>94398</v>
       </c>
       <c r="E22" s="3">
-        <f>D22/L22</f>
+        <f t="shared" si="1"/>
         <v>0.20731913547845834</v>
       </c>
       <c r="F22">
@@ -4199,7 +4218,7 @@
         <v>80262</v>
       </c>
       <c r="G22" s="3">
-        <f>F22/L22</f>
+        <f t="shared" si="2"/>
         <v>0.17627331566105239</v>
       </c>
       <c r="H22">
@@ -4207,15 +4226,15 @@
         <v>34314</v>
       </c>
       <c r="I22" s="3">
-        <f>H22/L22</f>
+        <f t="shared" si="3"/>
         <v>7.5361223911606379E-2</v>
       </c>
       <c r="J22">
         <f>SUM(J3:J21)</f>
         <v>1705</v>
       </c>
-      <c r="K22" s="8">
-        <f>J22/L22</f>
+      <c r="K22" s="5">
+        <f t="shared" si="4"/>
         <v>3.7445616007836125E-3</v>
       </c>
       <c r="L22">
@@ -4225,13 +4244,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4242,7 +4261,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4260,80 +4279,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="7" t="s">
-        <v>72</v>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>820</v>
       </c>
       <c r="C3" s="3">
-        <f>B3/J3</f>
+        <f t="shared" ref="C3:C22" si="0">B3/J3</f>
         <v>0.29528267915016204</v>
       </c>
       <c r="D3">
         <v>1360</v>
       </c>
       <c r="E3" s="3">
-        <f>D3/J3</f>
+        <f t="shared" ref="E3:E22" si="1">D3/J3</f>
         <v>0.48973712639539069</v>
       </c>
       <c r="F3">
         <v>597</v>
       </c>
       <c r="G3" s="3">
-        <f>F3/J3</f>
+        <f t="shared" ref="G3:G22" si="2">F3/J3</f>
         <v>0.21498019445444724</v>
       </c>
       <c r="H3">
@@ -4349,34 +4368,34 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>11678</v>
       </c>
       <c r="C4" s="3">
-        <f>B4/J4</f>
+        <f t="shared" si="0"/>
         <v>0.55025208500212031</v>
       </c>
       <c r="D4">
         <v>6513</v>
       </c>
       <c r="E4" s="3">
-        <f>D4/J4</f>
+        <f t="shared" si="1"/>
         <v>0.30688404089902466</v>
       </c>
       <c r="F4">
         <v>3002</v>
       </c>
       <c r="G4" s="3">
-        <f>F4/J4</f>
+        <f t="shared" si="2"/>
         <v>0.14145031333930169</v>
       </c>
       <c r="H4">
         <v>30</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" ref="I4:I22" si="0">H4/J4</f>
+        <f t="shared" ref="I4:I22" si="3">H4/J4</f>
         <v>1.4135607595533149E-3</v>
       </c>
       <c r="J4">
@@ -4385,34 +4404,34 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>857</v>
       </c>
       <c r="C5" s="3">
-        <f>B5/J5</f>
+        <f t="shared" si="0"/>
         <v>0.46199460916442048</v>
       </c>
       <c r="D5">
         <v>944</v>
       </c>
       <c r="E5" s="3">
-        <f>D5/J5</f>
+        <f t="shared" si="1"/>
         <v>0.50889487870619943</v>
       </c>
       <c r="F5">
         <v>54</v>
       </c>
       <c r="G5" s="3">
-        <f>F5/J5</f>
+        <f t="shared" si="2"/>
         <v>2.9110512129380053E-2</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J5">
@@ -4421,34 +4440,34 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>5078</v>
       </c>
       <c r="C6" s="3">
-        <f>B6/J6</f>
+        <f t="shared" si="0"/>
         <v>0.63104262458058902</v>
       </c>
       <c r="D6">
         <v>1714</v>
       </c>
       <c r="E6" s="3">
-        <f>D6/J6</f>
+        <f t="shared" si="1"/>
         <v>0.21299863303094321</v>
       </c>
       <c r="F6">
         <v>1247</v>
       </c>
       <c r="G6" s="3">
-        <f>F6/J6</f>
+        <f t="shared" si="2"/>
         <v>0.15496458307443767</v>
       </c>
       <c r="H6">
         <v>8</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9415931403007331E-4</v>
       </c>
       <c r="J6">
@@ -4457,34 +4476,34 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>1556</v>
       </c>
       <c r="C7" s="3">
-        <f>B7/J7</f>
+        <f t="shared" si="0"/>
         <v>0.47935921133703019</v>
       </c>
       <c r="D7">
         <v>1487</v>
       </c>
       <c r="E7" s="3">
-        <f>D7/J7</f>
+        <f t="shared" si="1"/>
         <v>0.45810227972889711</v>
       </c>
       <c r="F7">
         <v>203</v>
       </c>
       <c r="G7" s="3">
-        <f>F7/J7</f>
+        <f t="shared" si="2"/>
         <v>6.2538508934072701E-2</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J7">
@@ -4493,34 +4512,34 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>2426</v>
       </c>
       <c r="C8" s="3">
-        <f>B8/J8</f>
+        <f t="shared" si="0"/>
         <v>0.6257415527469693</v>
       </c>
       <c r="D8">
         <v>732</v>
       </c>
       <c r="E8" s="3">
-        <f>D8/J8</f>
+        <f t="shared" si="1"/>
         <v>0.18880577766314161</v>
       </c>
       <c r="F8">
         <v>719</v>
       </c>
       <c r="G8" s="3">
-        <f>F8/J8</f>
+        <f t="shared" si="2"/>
         <v>0.1854526695898891</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J8">
@@ -4529,34 +4548,34 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>1023</v>
       </c>
       <c r="C9" s="3">
-        <f>B9/J9</f>
+        <f t="shared" si="0"/>
         <v>0.48414576431613821</v>
       </c>
       <c r="D9">
         <v>648</v>
       </c>
       <c r="E9" s="3">
-        <f>D9/J9</f>
+        <f t="shared" si="1"/>
         <v>0.30667297681022243</v>
       </c>
       <c r="F9">
         <v>442</v>
       </c>
       <c r="G9" s="3">
-        <f>F9/J9</f>
+        <f t="shared" si="2"/>
         <v>0.20918125887363936</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9">
@@ -4565,34 +4584,34 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>1970</v>
       </c>
       <c r="C10" s="3">
-        <f>B10/J10</f>
+        <f t="shared" si="0"/>
         <v>0.46748932130991933</v>
       </c>
       <c r="D10">
         <v>2038</v>
       </c>
       <c r="E10" s="3">
-        <f>D10/J10</f>
+        <f t="shared" si="1"/>
         <v>0.48362600854295207</v>
       </c>
       <c r="F10">
         <v>206</v>
       </c>
       <c r="G10" s="3">
-        <f>F10/J10</f>
+        <f t="shared" si="2"/>
         <v>4.888467014712862E-2</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J10">
@@ -4601,34 +4620,34 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>4037</v>
       </c>
       <c r="C11" s="3">
-        <f>B11/J11</f>
+        <f t="shared" si="0"/>
         <v>0.50443583656128954</v>
       </c>
       <c r="D11">
         <v>3502</v>
       </c>
       <c r="E11" s="3">
-        <f>D11/J11</f>
+        <f t="shared" si="1"/>
         <v>0.43758590528551794</v>
       </c>
       <c r="F11">
         <v>464</v>
       </c>
       <c r="G11" s="3">
-        <f>F11/J11</f>
+        <f t="shared" si="2"/>
         <v>5.7978258153192554E-2</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11">
@@ -4637,34 +4656,34 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>46704</v>
       </c>
       <c r="C12" s="3">
-        <f>B12/J12</f>
+        <f t="shared" si="0"/>
         <v>0.68608699484377067</v>
       </c>
       <c r="D12">
         <v>18216</v>
       </c>
       <c r="E12" s="3">
-        <f>D12/J12</f>
+        <f t="shared" si="1"/>
         <v>0.26759508175047375</v>
       </c>
       <c r="F12">
         <v>3036</v>
       </c>
       <c r="G12" s="3">
-        <f>F12/J12</f>
+        <f t="shared" si="2"/>
         <v>4.4599180291745623E-2</v>
       </c>
       <c r="H12">
         <v>117</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.7187431140099599E-3</v>
       </c>
       <c r="J12">
@@ -4673,34 +4692,34 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>2381</v>
       </c>
       <c r="C13" s="3">
-        <f>B13/J13</f>
+        <f t="shared" si="0"/>
         <v>0.48731068358575524</v>
       </c>
       <c r="D13">
         <v>2192</v>
       </c>
       <c r="E13" s="3">
-        <f>D13/J13</f>
+        <f t="shared" si="1"/>
         <v>0.44862873516168644</v>
       </c>
       <c r="F13">
         <v>313</v>
       </c>
       <c r="G13" s="3">
-        <f>F13/J13</f>
+        <f t="shared" si="2"/>
         <v>6.4060581252558327E-2</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
@@ -4709,34 +4728,34 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>2714</v>
       </c>
       <c r="C14" s="3">
-        <f>B14/J14</f>
+        <f t="shared" si="0"/>
         <v>0.69625448948178548</v>
       </c>
       <c r="D14">
         <v>979</v>
       </c>
       <c r="E14" s="3">
-        <f>D14/J14</f>
+        <f t="shared" si="1"/>
         <v>0.25115443817342226</v>
       </c>
       <c r="F14">
         <v>201</v>
       </c>
       <c r="G14" s="3">
-        <f>F14/J14</f>
+        <f t="shared" si="2"/>
         <v>5.1564905079527962E-2</v>
       </c>
       <c r="H14">
         <v>4</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.026167265264238E-3</v>
       </c>
       <c r="J14">
@@ -4745,34 +4764,34 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>1650</v>
       </c>
       <c r="C15" s="3">
-        <f>B15/J15</f>
+        <f t="shared" si="0"/>
         <v>0.53886348791639449</v>
       </c>
       <c r="D15">
         <v>1229</v>
       </c>
       <c r="E15" s="3">
-        <f>D15/J15</f>
+        <f t="shared" si="1"/>
         <v>0.40137165251469625</v>
       </c>
       <c r="F15">
         <v>183</v>
       </c>
       <c r="G15" s="3">
-        <f>F15/J15</f>
+        <f t="shared" si="2"/>
         <v>5.9764859568909208E-2</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J15">
@@ -4781,34 +4800,34 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>1785</v>
       </c>
       <c r="C16" s="3">
-        <f>B16/J16</f>
+        <f t="shared" si="0"/>
         <v>0.12247838616714697</v>
       </c>
       <c r="D16">
         <v>8907</v>
       </c>
       <c r="E16" s="3">
-        <f>D16/J16</f>
+        <f t="shared" si="1"/>
         <v>0.61115685467270486</v>
       </c>
       <c r="F16">
         <v>3882</v>
       </c>
       <c r="G16" s="3">
-        <f>F16/J16</f>
+        <f t="shared" si="2"/>
         <v>0.26636475916014823</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J16">
@@ -4817,34 +4836,34 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <v>3350</v>
       </c>
       <c r="C17" s="3">
-        <f>B17/J17</f>
+        <f t="shared" si="0"/>
         <v>0.22065604004742459</v>
       </c>
       <c r="D17">
         <v>2364</v>
       </c>
       <c r="E17" s="3">
-        <f>D17/J17</f>
+        <f t="shared" si="1"/>
         <v>0.15571071005137663</v>
       </c>
       <c r="F17">
         <v>9454</v>
       </c>
       <c r="G17" s="3">
-        <f>F17/J17</f>
+        <f t="shared" si="2"/>
         <v>0.62271110525622453</v>
       </c>
       <c r="H17">
         <v>14</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.2214464497431166E-4</v>
       </c>
       <c r="J17">
@@ -4853,34 +4872,34 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>3145</v>
       </c>
       <c r="C18" s="3">
-        <f>B18/J18</f>
+        <f t="shared" si="0"/>
         <v>0.68399304045237064</v>
       </c>
       <c r="D18">
         <v>1296</v>
       </c>
       <c r="E18" s="3">
-        <f>D18/J18</f>
+        <f t="shared" si="1"/>
         <v>0.28186167899086562</v>
       </c>
       <c r="F18">
         <v>157</v>
       </c>
       <c r="G18" s="3">
-        <f>F18/J18</f>
+        <f t="shared" si="2"/>
         <v>3.4145280556763809E-2</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J18">
@@ -4889,34 +4908,34 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19">
         <v>2889</v>
       </c>
       <c r="C19" s="3">
-        <f>B19/J19</f>
+        <f t="shared" si="0"/>
         <v>0.56591576885406469</v>
       </c>
       <c r="D19">
         <v>2015</v>
       </c>
       <c r="E19" s="3">
-        <f>D19/J19</f>
+        <f t="shared" si="1"/>
         <v>0.39471106758080315</v>
       </c>
       <c r="F19">
         <v>137</v>
       </c>
       <c r="G19" s="3">
-        <f>F19/J19</f>
+        <f t="shared" si="2"/>
         <v>2.683643486777669E-2</v>
       </c>
       <c r="H19">
         <v>64</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2536728697355533E-2</v>
       </c>
       <c r="J19">
@@ -4925,34 +4944,34 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <v>2921</v>
       </c>
       <c r="C20" s="3">
-        <f>B20/J20</f>
+        <f t="shared" si="0"/>
         <v>0.46438791732909379</v>
       </c>
       <c r="D20">
         <v>3257</v>
       </c>
       <c r="E20" s="3">
-        <f>D20/J20</f>
+        <f t="shared" si="1"/>
         <v>0.51780604133545305</v>
       </c>
       <c r="F20">
         <v>112</v>
       </c>
       <c r="G20" s="3">
-        <f>F20/J20</f>
+        <f t="shared" si="2"/>
         <v>1.7806041335453101E-2</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J20">
@@ -4961,34 +4980,34 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <v>744</v>
       </c>
       <c r="C21" s="3">
-        <f>B21/J21</f>
+        <f t="shared" si="0"/>
         <v>0.40924092409240925</v>
       </c>
       <c r="D21">
         <v>1034</v>
       </c>
       <c r="E21" s="3">
-        <f>D21/J21</f>
+        <f t="shared" si="1"/>
         <v>0.56875687568756872</v>
       </c>
       <c r="F21">
         <v>40</v>
       </c>
       <c r="G21" s="3">
-        <f>F21/J21</f>
+        <f t="shared" si="2"/>
         <v>2.2002200220022004E-2</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J21">
@@ -4997,14 +5016,14 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22">
         <f>SUM(B3:B21)</f>
         <v>97728</v>
       </c>
       <c r="C22" s="3">
-        <f>B22/J22</f>
+        <f t="shared" si="0"/>
         <v>0.53449718607970864</v>
       </c>
       <c r="D22">
@@ -5012,7 +5031,7 @@
         <v>60427</v>
       </c>
       <c r="E22" s="3">
-        <f>D22/J22</f>
+        <f t="shared" si="1"/>
         <v>0.33048933226136368</v>
       </c>
       <c r="F22">
@@ -5020,7 +5039,7 @@
         <v>24449</v>
       </c>
       <c r="G22" s="3">
-        <f>F22/J22</f>
+        <f t="shared" si="2"/>
         <v>0.13371727347804924</v>
       </c>
       <c r="H22">
@@ -5028,22 +5047,22 @@
         <v>237</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2962081808784681E-3</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22" si="1">SUM(J3:J21)</f>
+        <f t="shared" ref="J22" si="4">SUM(J3:J21)</f>
         <v>182841</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5053,13 +5072,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7D0C7A-41FB-EF49-814D-F7088EB65B84}">
   <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="AT20" sqref="AT20"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
@@ -5091,235 +5110,236 @@
     <col min="34" max="34" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" s="5"/>
-      <c r="AF1" t="s">
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>15046</v>
       </c>
       <c r="C3" s="2">
-        <f>B3/$AF3</f>
+        <f t="shared" ref="C3:C22" si="0">B3/$AF3</f>
         <v>0.25862009694386195</v>
       </c>
       <c r="D3">
         <v>24224</v>
       </c>
       <c r="E3" s="2">
-        <f>D3/$AF3</f>
+        <f t="shared" ref="E3:E22" si="1">D3/$AF3</f>
         <v>0.41637732476193751</v>
       </c>
       <c r="F3">
         <v>4813</v>
       </c>
       <c r="G3" s="2">
-        <f>F3/$AF3</f>
+        <f t="shared" ref="G3:G22" si="2">F3/$AF3</f>
         <v>8.272886658186944E-2</v>
       </c>
       <c r="H3">
         <v>10084</v>
       </c>
       <c r="I3" s="2">
-        <f>H3/$AF3</f>
+        <f t="shared" ref="I3:I22" si="3">H3/$AF3</f>
         <v>0.17333012478943929</v>
       </c>
       <c r="J3">
         <v>185</v>
       </c>
       <c r="K3" s="2">
-        <f>J3/$AF3</f>
+        <f t="shared" ref="K3:K22" si="4">J3/$AF3</f>
         <v>3.1798961806868576E-3</v>
       </c>
       <c r="L3">
         <v>139</v>
       </c>
       <c r="M3" s="2">
-        <f>L3/$AF3</f>
+        <f t="shared" ref="M3:M22" si="5">L3/$AF3</f>
         <v>2.3892192925160714E-3</v>
       </c>
       <c r="N3">
         <v>151</v>
       </c>
       <c r="O3" s="2">
-        <f>N3/$AF3</f>
+        <f t="shared" ref="O3:O22" si="6">N3/$AF3</f>
         <v>2.5954828285606243E-3</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="6">
         <f>SUM(T3,V3,X3,Z3)</f>
         <v>358</v>
       </c>
@@ -5327,7 +5347,7 @@
         <f>SUM(U3,W3,Y3,AA3)</f>
         <v>6.1535288253291628E-3</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="6">
         <f>SUM(AB3,AD3)</f>
         <v>1182</v>
       </c>
@@ -5339,21 +5359,21 @@
         <v>15</v>
       </c>
       <c r="U3" s="2">
-        <f>T3/$AF3</f>
+        <f t="shared" ref="U3:U22" si="7">T3/$AF3</f>
         <v>2.5782942005569113E-4</v>
       </c>
       <c r="V3">
         <v>54</v>
       </c>
       <c r="W3" s="2">
-        <f>V3/$AF3</f>
+        <f t="shared" ref="W3:W22" si="8">V3/$AF3</f>
         <v>9.2818591220048821E-4</v>
       </c>
       <c r="X3">
         <v>152</v>
       </c>
       <c r="Y3" s="2">
-        <f>X3/$AF3</f>
+        <f t="shared" ref="Y3:Y22" si="9">X3/$AF3</f>
         <v>2.6126714565643371E-3</v>
       </c>
       <c r="Z3">
@@ -5390,120 +5410,120 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>158221</v>
       </c>
       <c r="C4" s="2">
-        <f>B4/$AF4</f>
+        <f t="shared" si="0"/>
         <v>0.42534470661293661</v>
       </c>
       <c r="D4">
         <v>101417</v>
       </c>
       <c r="E4" s="2">
-        <f>D4/$AF4</f>
+        <f t="shared" si="1"/>
         <v>0.27263880338617624</v>
       </c>
       <c r="F4">
         <v>35177</v>
       </c>
       <c r="G4" s="2">
-        <f>F4/$AF4</f>
+        <f t="shared" si="2"/>
         <v>9.4566149528338667E-2</v>
       </c>
       <c r="H4">
         <v>35202</v>
       </c>
       <c r="I4" s="2">
-        <f>H4/$AF4</f>
+        <f t="shared" si="3"/>
         <v>9.4633356900718585E-2</v>
       </c>
       <c r="J4">
         <v>6409</v>
       </c>
       <c r="K4" s="2">
-        <f>J4/$AF4</f>
+        <f t="shared" si="4"/>
         <v>1.7229281983316441E-2</v>
       </c>
       <c r="L4">
         <v>5347</v>
       </c>
       <c r="M4" s="2">
-        <f>L4/$AF4</f>
+        <f t="shared" si="5"/>
         <v>1.4374312804617415E-2</v>
       </c>
       <c r="N4">
         <v>3601</v>
       </c>
       <c r="O4" s="2">
-        <f>N4/$AF4</f>
+        <f t="shared" si="6"/>
         <v>9.6805499176037622E-3</v>
       </c>
-      <c r="P4" s="9">
-        <f t="shared" ref="P4:P22" si="0">SUM(T4,V4,X4,Z4)</f>
+      <c r="P4" s="6">
+        <f t="shared" ref="P4:P22" si="10">SUM(T4,V4,X4,Z4)</f>
         <v>7557</v>
       </c>
       <c r="Q4" s="3">
-        <f t="shared" ref="Q4:Q22" si="1">SUM(U4,W4,Y4,AA4)</f>
+        <f t="shared" ref="Q4:Q22" si="11">SUM(U4,W4,Y4,AA4)</f>
         <v>2.0315444523002393E-2</v>
       </c>
-      <c r="R4" s="9">
-        <f t="shared" ref="R4:R22" si="2">SUM(AB4,AD4)</f>
+      <c r="R4" s="6">
+        <f t="shared" ref="R4:R22" si="12">SUM(AB4,AD4)</f>
         <v>14213</v>
       </c>
       <c r="S4" s="3">
-        <f t="shared" ref="S4:S22" si="3">SUM(AC4,AE4)</f>
+        <f t="shared" ref="S4:S22" si="13">SUM(AC4,AE4)</f>
         <v>3.8208735345432454E-2</v>
       </c>
       <c r="T4">
         <v>219</v>
       </c>
       <c r="U4" s="2">
-        <f>T4/$AF4</f>
+        <f t="shared" si="7"/>
         <v>5.8873658204810434E-4</v>
       </c>
       <c r="V4">
         <v>1093</v>
       </c>
       <c r="W4" s="2">
-        <f>V4/$AF4</f>
+        <f t="shared" si="8"/>
         <v>2.9383063204501281E-3</v>
       </c>
       <c r="X4">
         <v>3139</v>
       </c>
       <c r="Y4" s="2">
-        <f>X4/$AF4</f>
+        <f t="shared" si="9"/>
         <v>8.438557676022829E-3</v>
       </c>
       <c r="Z4">
         <v>3106</v>
       </c>
       <c r="AA4" s="2">
-        <f t="shared" ref="AA4:AA22" si="4">Z4/$AF4</f>
+        <f t="shared" ref="AA4:AA22" si="14">Z4/$AF4</f>
         <v>8.3498439444813343E-3</v>
       </c>
       <c r="AB4">
         <v>8596</v>
       </c>
       <c r="AC4" s="2">
-        <f t="shared" ref="AC4:AC22" si="5">AB4/$AF4</f>
+        <f t="shared" ref="AC4:AC22" si="15">AB4/$AF4</f>
         <v>2.3108582919111893E-2</v>
       </c>
       <c r="AD4">
         <v>5617</v>
       </c>
       <c r="AE4" s="2">
-        <f t="shared" ref="AE4:AE22" si="6">AD4/$AF4</f>
+        <f t="shared" ref="AE4:AE22" si="16">AD4/$AF4</f>
         <v>1.5100152426320557E-2</v>
       </c>
       <c r="AF4">
         <v>371983</v>
       </c>
       <c r="AG4" s="2">
-        <f t="shared" ref="AG4:AG22" si="7">AF4/AH4</f>
+        <f t="shared" ref="AG4:AG22" si="17">AF4/AH4</f>
         <v>0.90487658330231802</v>
       </c>
       <c r="AH4">
@@ -5512,120 +5532,120 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>19895</v>
       </c>
       <c r="C5" s="2">
-        <f>B5/$AF5</f>
+        <f t="shared" si="0"/>
         <v>0.28765380333415264</v>
       </c>
       <c r="D5">
         <v>26215</v>
       </c>
       <c r="E5" s="2">
-        <f>D5/$AF5</f>
+        <f t="shared" si="1"/>
         <v>0.37903214146292091</v>
       </c>
       <c r="F5">
         <v>5257</v>
       </c>
       <c r="G5" s="2">
-        <f>F5/$AF5</f>
+        <f t="shared" si="2"/>
         <v>7.6008848661856768E-2</v>
       </c>
       <c r="H5">
         <v>12232</v>
       </c>
       <c r="I5" s="2">
-        <f>H5/$AF5</f>
+        <f t="shared" si="3"/>
         <v>0.17685756835302113</v>
       </c>
       <c r="J5">
         <v>317</v>
       </c>
       <c r="K5" s="2">
-        <f>J5/$AF5</f>
+        <f t="shared" si="4"/>
         <v>4.583375504243598E-3</v>
       </c>
       <c r="L5">
         <v>401</v>
       </c>
       <c r="M5" s="2">
-        <f>L5/$AF5</f>
+        <f t="shared" si="5"/>
         <v>5.7978977198791257E-3</v>
       </c>
       <c r="N5">
         <v>259</v>
       </c>
       <c r="O5" s="2">
-        <f>N5/$AF5</f>
+        <f t="shared" si="6"/>
         <v>3.7447768315428771E-3</v>
       </c>
-      <c r="P5" s="9">
-        <f t="shared" si="0"/>
+      <c r="P5" s="6">
+        <f t="shared" si="10"/>
         <v>647</v>
       </c>
       <c r="Q5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>9.3547127799546003E-3</v>
       </c>
-      <c r="R5" s="9">
-        <f t="shared" si="2"/>
+      <c r="R5" s="6">
+        <f t="shared" si="12"/>
         <v>1670</v>
       </c>
       <c r="S5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.4145858334658703E-2</v>
       </c>
       <c r="T5">
         <v>18</v>
       </c>
       <c r="U5" s="2">
-        <f>T5/$AF5</f>
+        <f t="shared" si="7"/>
         <v>2.6025476049332735E-4</v>
       </c>
       <c r="V5">
         <v>64</v>
       </c>
       <c r="W5" s="2">
-        <f>V5/$AF5</f>
+        <f t="shared" si="8"/>
         <v>9.2535025953183062E-4</v>
       </c>
       <c r="X5">
         <v>215</v>
       </c>
       <c r="Y5" s="2">
-        <f>X5/$AF5</f>
+        <f t="shared" si="9"/>
         <v>3.1085985281147435E-3</v>
       </c>
       <c r="Z5">
         <v>350</v>
       </c>
       <c r="AA5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>5.0605092318146989E-3</v>
       </c>
       <c r="AB5">
         <v>826</v>
       </c>
       <c r="AC5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.1942801787082688E-2</v>
       </c>
       <c r="AD5">
         <v>844</v>
       </c>
       <c r="AE5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.2203056547576016E-2</v>
       </c>
       <c r="AF5">
         <v>69163</v>
       </c>
       <c r="AG5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.92308410965485943</v>
       </c>
       <c r="AH5">
@@ -5634,120 +5654,120 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>34068</v>
       </c>
       <c r="C6" s="2">
-        <f>B6/$AF6</f>
+        <f t="shared" si="0"/>
         <v>0.34479687468372366</v>
       </c>
       <c r="D6">
         <v>32691</v>
       </c>
       <c r="E6" s="2">
-        <f>D6/$AF6</f>
+        <f t="shared" si="1"/>
         <v>0.33086047406027974</v>
       </c>
       <c r="F6">
         <v>15750</v>
       </c>
       <c r="G6" s="2">
-        <f>F6/$AF6</f>
+        <f t="shared" si="2"/>
         <v>0.15940327510475072</v>
       </c>
       <c r="H6">
         <v>7099</v>
       </c>
       <c r="I6" s="2">
-        <f>H6/$AF6</f>
+        <f t="shared" si="3"/>
         <v>7.1847863490071454E-2</v>
       </c>
       <c r="J6">
         <v>958</v>
       </c>
       <c r="K6" s="2">
-        <f>J6/$AF6</f>
+        <f t="shared" si="4"/>
         <v>9.6957674635143615E-3</v>
       </c>
       <c r="L6">
         <v>1104</v>
       </c>
       <c r="M6" s="2">
-        <f>L6/$AF6</f>
+        <f t="shared" si="5"/>
         <v>1.1173410521628241E-2</v>
       </c>
       <c r="N6">
         <v>879</v>
       </c>
       <c r="O6" s="2">
-        <f>N6/$AF6</f>
+        <f t="shared" si="6"/>
         <v>8.896220877274659E-3</v>
       </c>
-      <c r="P6" s="9">
-        <f t="shared" si="0"/>
+      <c r="P6" s="6">
+        <f t="shared" si="10"/>
         <v>1098</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1.1112685464445479E-2</v>
       </c>
-      <c r="R6" s="9">
-        <f t="shared" si="2"/>
+      <c r="R6" s="6">
+        <f t="shared" si="12"/>
         <v>3135</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>3.1728842377993241E-2</v>
       </c>
       <c r="T6">
         <v>47</v>
       </c>
       <c r="U6" s="2">
-        <f>T6/$AF6</f>
+        <f t="shared" si="7"/>
         <v>4.7567961459830374E-4</v>
       </c>
       <c r="V6">
         <v>160</v>
       </c>
       <c r="W6" s="2">
-        <f>V6/$AF6</f>
+        <f t="shared" si="8"/>
         <v>1.6193348582069914E-3</v>
       </c>
       <c r="X6">
         <v>482</v>
       </c>
       <c r="Y6" s="2">
-        <f>X6/$AF6</f>
+        <f t="shared" si="9"/>
         <v>4.8782462603485614E-3</v>
       </c>
       <c r="Z6">
         <v>409</v>
       </c>
       <c r="AA6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>4.1394247312916219E-3</v>
       </c>
       <c r="AB6">
         <v>1907</v>
       </c>
       <c r="AC6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.9300447341254579E-2</v>
       </c>
       <c r="AD6">
         <v>1228</v>
       </c>
       <c r="AE6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.2428395036738659E-2</v>
       </c>
       <c r="AF6">
         <v>98806</v>
       </c>
       <c r="AG6" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.9167803293899327</v>
       </c>
       <c r="AH6">
@@ -5756,120 +5776,120 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>13087</v>
       </c>
       <c r="C7" s="2">
-        <f>B7/$AF7</f>
+        <f t="shared" si="0"/>
         <v>0.27233378420559773</v>
       </c>
       <c r="D7">
         <v>16577</v>
       </c>
       <c r="E7" s="2">
-        <f>D7/$AF7</f>
+        <f t="shared" si="1"/>
         <v>0.3449589012589741</v>
       </c>
       <c r="F7">
         <v>5852</v>
       </c>
       <c r="G7" s="2">
-        <f>F7/$AF7</f>
+        <f t="shared" si="2"/>
         <v>0.12177713037144938</v>
       </c>
       <c r="H7">
         <v>8135</v>
       </c>
       <c r="I7" s="2">
-        <f>H7/$AF7</f>
+        <f t="shared" si="3"/>
         <v>0.1692851940484861</v>
       </c>
       <c r="J7">
         <v>275</v>
       </c>
       <c r="K7" s="2">
-        <f>J7/$AF7</f>
+        <f t="shared" si="4"/>
         <v>5.7226095099365314E-3</v>
       </c>
       <c r="L7">
         <v>258</v>
       </c>
       <c r="M7" s="2">
-        <f>L7/$AF7</f>
+        <f t="shared" si="5"/>
         <v>5.3688481947768187E-3</v>
       </c>
       <c r="N7">
         <v>325</v>
       </c>
       <c r="O7" s="2">
-        <f>N7/$AF7</f>
+        <f t="shared" si="6"/>
         <v>6.7630839662886277E-3</v>
       </c>
-      <c r="P7" s="9">
-        <f t="shared" si="0"/>
+      <c r="P7" s="6">
+        <f t="shared" si="10"/>
         <v>703</v>
       </c>
       <c r="Q7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1.4629070856310478E-2</v>
       </c>
-      <c r="R7" s="9">
-        <f t="shared" si="2"/>
+      <c r="R7" s="6">
+        <f t="shared" si="12"/>
         <v>1058</v>
       </c>
       <c r="S7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.2016439496410363E-2</v>
       </c>
       <c r="T7">
         <v>21</v>
       </c>
       <c r="U7" s="2">
-        <f>T7/$AF7</f>
+        <f t="shared" si="7"/>
         <v>4.3699927166788056E-4</v>
       </c>
       <c r="V7">
         <v>243</v>
       </c>
       <c r="W7" s="2">
-        <f>V7/$AF7</f>
+        <f t="shared" si="8"/>
         <v>5.0567058578711889E-3</v>
       </c>
       <c r="X7">
         <v>307</v>
       </c>
       <c r="Y7" s="2">
-        <f>X7/$AF7</f>
+        <f t="shared" si="9"/>
         <v>6.388513162001873E-3</v>
       </c>
       <c r="Z7">
         <v>132</v>
       </c>
       <c r="AA7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>2.7468525647695351E-3</v>
       </c>
       <c r="AB7">
         <v>605</v>
       </c>
       <c r="AC7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.2589740921860368E-2</v>
       </c>
       <c r="AD7">
         <v>453</v>
       </c>
       <c r="AE7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>9.4266985745499951E-3</v>
       </c>
       <c r="AF7">
         <v>48055</v>
       </c>
       <c r="AG7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.92793558228899142</v>
       </c>
       <c r="AH7">
@@ -5878,120 +5898,120 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>17267</v>
       </c>
       <c r="C8" s="2">
-        <f>B8/$AF8</f>
+        <f t="shared" si="0"/>
         <v>0.31222537656185018</v>
       </c>
       <c r="D8">
         <v>18809</v>
       </c>
       <c r="E8" s="2">
-        <f>D8/$AF8</f>
+        <f t="shared" si="1"/>
         <v>0.34010813156609948</v>
       </c>
       <c r="F8">
         <v>7919</v>
       </c>
       <c r="G8" s="2">
-        <f>F8/$AF8</f>
+        <f t="shared" si="2"/>
         <v>0.14319295517422201</v>
       </c>
       <c r="H8">
         <v>5611</v>
       </c>
       <c r="I8" s="2">
-        <f>H8/$AF8</f>
+        <f t="shared" si="3"/>
         <v>0.10145923367629242</v>
       </c>
       <c r="J8">
         <v>359</v>
       </c>
       <c r="K8" s="2">
-        <f>J8/$AF8</f>
+        <f t="shared" si="4"/>
         <v>6.491510406307072E-3</v>
       </c>
       <c r="L8">
         <v>454</v>
       </c>
       <c r="M8" s="2">
-        <f>L8/$AF8</f>
+        <f t="shared" si="5"/>
         <v>8.2093195667504483E-3</v>
       </c>
       <c r="N8">
         <v>405</v>
       </c>
       <c r="O8" s="2">
-        <f>N8/$AF8</f>
+        <f t="shared" si="6"/>
         <v>7.3232916839954436E-3</v>
       </c>
-      <c r="P8" s="9">
-        <f t="shared" si="0"/>
+      <c r="P8" s="6">
+        <f t="shared" si="10"/>
         <v>930</v>
       </c>
       <c r="Q8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1.6816447570656201E-2</v>
       </c>
-      <c r="R8" s="9">
-        <f t="shared" si="2"/>
+      <c r="R8" s="6">
+        <f t="shared" si="12"/>
         <v>1619</v>
       </c>
       <c r="S8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.9275084534292894E-2</v>
       </c>
       <c r="T8">
         <v>29</v>
       </c>
       <c r="U8" s="2">
-        <f>T8/$AF8</f>
+        <f t="shared" si="7"/>
         <v>5.243838489774515E-4</v>
       </c>
       <c r="V8">
         <v>89</v>
       </c>
       <c r="W8" s="2">
-        <f>V8/$AF8</f>
+        <f t="shared" si="8"/>
         <v>1.6093159503101097E-3</v>
       </c>
       <c r="X8">
         <v>266</v>
       </c>
       <c r="Y8" s="2">
-        <f>X8/$AF8</f>
+        <f t="shared" si="9"/>
         <v>4.8098656492414514E-3</v>
       </c>
       <c r="Z8">
         <v>546</v>
       </c>
       <c r="AA8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>9.8728821221271898E-3</v>
       </c>
       <c r="AB8">
         <v>990</v>
       </c>
       <c r="AC8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.7901379671988862E-2</v>
       </c>
       <c r="AD8">
         <v>629</v>
       </c>
       <c r="AE8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.1373704862304034E-2</v>
       </c>
       <c r="AF8">
         <v>55303</v>
       </c>
       <c r="AG8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.92830765098868639</v>
       </c>
       <c r="AH8">
@@ -6000,120 +6020,120 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>5308</v>
       </c>
       <c r="C9" s="2">
-        <f>B9/$AF9</f>
+        <f t="shared" si="0"/>
         <v>0.25121870415069336</v>
       </c>
       <c r="D9">
         <v>7357</v>
       </c>
       <c r="E9" s="2">
-        <f>D9/$AF9</f>
+        <f t="shared" si="1"/>
         <v>0.34819442472431256</v>
       </c>
       <c r="F9">
         <v>4055</v>
       </c>
       <c r="G9" s="2">
-        <f>F9/$AF9</f>
+        <f t="shared" si="2"/>
         <v>0.19191632353637181</v>
       </c>
       <c r="H9">
         <v>2874</v>
       </c>
       <c r="I9" s="2">
-        <f>H9/$AF9</f>
+        <f t="shared" si="3"/>
         <v>0.1360215817123385</v>
       </c>
       <c r="J9">
         <v>134</v>
       </c>
       <c r="K9" s="2">
-        <f>J9/$AF9</f>
+        <f t="shared" si="4"/>
         <v>6.3419944152586496E-3</v>
       </c>
       <c r="L9">
         <v>204</v>
       </c>
       <c r="M9" s="2">
-        <f>L9/$AF9</f>
+        <f t="shared" si="5"/>
         <v>9.6549765724833168E-3</v>
       </c>
       <c r="N9">
         <v>116</v>
       </c>
       <c r="O9" s="2">
-        <f>N9/$AF9</f>
+        <f t="shared" si="6"/>
         <v>5.4900847176865917E-3</v>
       </c>
-      <c r="P9" s="9">
-        <f t="shared" si="0"/>
+      <c r="P9" s="6">
+        <f t="shared" si="10"/>
         <v>187</v>
       </c>
       <c r="Q9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>8.8503951914430407E-3</v>
       </c>
-      <c r="R9" s="9">
-        <f t="shared" si="2"/>
+      <c r="R9" s="6">
+        <f t="shared" si="12"/>
         <v>512</v>
       </c>
       <c r="S9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.4232098064271852E-2</v>
       </c>
       <c r="T9">
         <v>7</v>
       </c>
       <c r="U9" s="2">
-        <f>T9/$AF9</f>
+        <f t="shared" si="7"/>
         <v>3.3129821572246674E-4</v>
       </c>
       <c r="V9">
         <v>39</v>
       </c>
       <c r="W9" s="2">
-        <f>V9/$AF9</f>
+        <f t="shared" si="8"/>
         <v>1.8458043447394576E-3</v>
       </c>
       <c r="X9">
         <v>70</v>
       </c>
       <c r="Y9" s="2">
-        <f>X9/$AF9</f>
+        <f t="shared" si="9"/>
         <v>3.3129821572246677E-3</v>
       </c>
       <c r="Z9">
         <v>71</v>
       </c>
       <c r="AA9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>3.3603104737564486E-3</v>
       </c>
       <c r="AB9">
         <v>294</v>
       </c>
       <c r="AC9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.3914525060343604E-2</v>
       </c>
       <c r="AD9">
         <v>218</v>
       </c>
       <c r="AE9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.031757300392825E-2</v>
       </c>
       <c r="AF9">
         <v>21129</v>
       </c>
       <c r="AG9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.92516857868464841</v>
       </c>
       <c r="AH9">
@@ -6122,120 +6142,120 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>11856</v>
       </c>
       <c r="C10" s="2">
-        <f>B10/$AF10</f>
+        <f t="shared" si="0"/>
         <v>0.24336473920807933</v>
       </c>
       <c r="D10">
         <v>17608</v>
       </c>
       <c r="E10" s="2">
-        <f>D10/$AF10</f>
+        <f t="shared" si="1"/>
         <v>0.36143440688055506</v>
       </c>
       <c r="F10">
         <v>8198</v>
       </c>
       <c r="G10" s="2">
-        <f>F10/$AF10</f>
+        <f t="shared" si="2"/>
         <v>0.16827801383500626</v>
       </c>
       <c r="H10">
         <v>7024</v>
       </c>
       <c r="I10" s="2">
-        <f>H10/$AF10</f>
+        <f t="shared" si="3"/>
         <v>0.14417964981423323</v>
       </c>
       <c r="J10">
         <v>491</v>
       </c>
       <c r="K10" s="2">
-        <f>J10/$AF10</f>
+        <f t="shared" si="4"/>
         <v>1.0078617320442556E-2</v>
       </c>
       <c r="L10">
         <v>325</v>
       </c>
       <c r="M10" s="2">
-        <f>L10/$AF10</f>
+        <f t="shared" si="5"/>
         <v>6.6711825440811216E-3</v>
       </c>
       <c r="N10">
         <v>377</v>
       </c>
       <c r="O10" s="2">
-        <f>N10/$AF10</f>
+        <f t="shared" si="6"/>
         <v>7.7385717511341007E-3</v>
       </c>
-      <c r="P10" s="9">
-        <f t="shared" si="0"/>
+      <c r="P10" s="6">
+        <f t="shared" si="10"/>
         <v>478</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>9.8117700186793125E-3</v>
       </c>
-      <c r="R10" s="9">
-        <f t="shared" si="2"/>
+      <c r="R10" s="6">
+        <f t="shared" si="12"/>
         <v>1263</v>
       </c>
       <c r="S10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.592524170207525E-2</v>
       </c>
       <c r="T10">
         <v>21</v>
       </c>
       <c r="U10" s="2">
-        <f>T10/$AF10</f>
+        <f t="shared" si="7"/>
         <v>4.3106102592524172E-4</v>
       </c>
       <c r="V10">
         <v>83</v>
       </c>
       <c r="W10" s="2">
-        <f>V10/$AF10</f>
+        <f t="shared" si="8"/>
         <v>1.7037173881807172E-3</v>
       </c>
       <c r="X10">
         <v>158</v>
       </c>
       <c r="Y10" s="2">
-        <f>X10/$AF10</f>
+        <f t="shared" si="9"/>
         <v>3.2432210521994376E-3</v>
       </c>
       <c r="Z10">
         <v>216</v>
       </c>
       <c r="AA10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>4.4337705523739149E-3</v>
       </c>
       <c r="AB10">
         <v>688</v>
       </c>
       <c r="AC10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.4122380277931728E-2</v>
       </c>
       <c r="AD10">
         <v>575</v>
       </c>
       <c r="AE10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.1802861424143522E-2</v>
       </c>
       <c r="AF10">
         <v>48717</v>
       </c>
       <c r="AG10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.92728933894207888</v>
       </c>
       <c r="AH10">
@@ -6244,120 +6264,120 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>37496</v>
       </c>
       <c r="C11" s="2">
-        <f>B11/$AF11</f>
+        <f t="shared" si="0"/>
         <v>0.28822457780203392</v>
       </c>
       <c r="D11">
         <v>47339</v>
       </c>
       <c r="E11" s="2">
-        <f>D11/$AF11</f>
+        <f t="shared" si="1"/>
         <v>0.36388583551766812</v>
       </c>
       <c r="F11">
         <v>15281</v>
       </c>
       <c r="G11" s="2">
-        <f>F11/$AF11</f>
+        <f t="shared" si="2"/>
         <v>0.11746212325029018</v>
       </c>
       <c r="H11">
         <v>15751</v>
       </c>
       <c r="I11" s="2">
-        <f>H11/$AF11</f>
+        <f t="shared" si="3"/>
         <v>0.12107492332408354</v>
       </c>
       <c r="J11">
         <v>2782</v>
       </c>
       <c r="K11" s="2">
-        <f>J11/$AF11</f>
+        <f t="shared" si="4"/>
         <v>2.1384701713389652E-2</v>
       </c>
       <c r="L11">
         <v>1229</v>
       </c>
       <c r="M11" s="2">
-        <f>L11/$AF11</f>
+        <f t="shared" si="5"/>
         <v>9.4470878525362619E-3</v>
       </c>
       <c r="N11">
         <v>1437</v>
       </c>
       <c r="O11" s="2">
-        <f>N11/$AF11</f>
+        <f t="shared" si="6"/>
         <v>1.1045944055406516E-2</v>
       </c>
-      <c r="P11" s="9">
-        <f t="shared" si="0"/>
+      <c r="P11" s="6">
+        <f t="shared" si="10"/>
         <v>2648</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>2.0354669351925161E-2</v>
       </c>
-      <c r="R11" s="9">
-        <f t="shared" si="2"/>
+      <c r="R11" s="6">
+        <f t="shared" si="12"/>
         <v>3992</v>
       </c>
       <c r="S11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>3.0685740201240652E-2</v>
       </c>
       <c r="T11">
         <v>61</v>
       </c>
       <c r="U11" s="2">
-        <f>T11/$AF11</f>
+        <f t="shared" si="7"/>
         <v>4.6889532872637266E-4</v>
       </c>
       <c r="V11">
         <v>413</v>
       </c>
       <c r="W11" s="2">
-        <f>V11/$AF11</f>
+        <f t="shared" si="8"/>
         <v>3.1746519797375724E-3</v>
       </c>
       <c r="X11">
         <v>737</v>
       </c>
       <c r="Y11" s="2">
-        <f>X11/$AF11</f>
+        <f t="shared" si="9"/>
         <v>5.6651779880546992E-3</v>
       </c>
       <c r="Z11">
         <v>1437</v>
       </c>
       <c r="AA11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1.1045944055406516E-2</v>
       </c>
       <c r="AB11">
         <v>2534</v>
       </c>
       <c r="AC11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.9478373163813581E-2</v>
       </c>
       <c r="AD11">
         <v>1458</v>
       </c>
       <c r="AE11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.1207367037427071E-2</v>
       </c>
       <c r="AF11">
         <v>130093</v>
       </c>
       <c r="AG11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.91191582725239906</v>
       </c>
       <c r="AH11">
@@ -6366,120 +6386,120 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>438839</v>
       </c>
       <c r="C12" s="2">
-        <f>B12/$AF12</f>
+        <f t="shared" si="0"/>
         <v>0.47025333343334796</v>
       </c>
       <c r="D12">
         <v>214675</v>
       </c>
       <c r="E12" s="2">
-        <f>D12/$AF12</f>
+        <f t="shared" si="1"/>
         <v>0.23004253121259499</v>
       </c>
       <c r="F12">
         <v>98559</v>
       </c>
       <c r="G12" s="2">
-        <f>F12/$AF12</f>
+        <f t="shared" si="2"/>
         <v>0.10561435581125957</v>
       </c>
       <c r="H12">
         <v>76410</v>
       </c>
       <c r="I12" s="2">
-        <f>H12/$AF12</f>
+        <f t="shared" si="3"/>
         <v>8.187981744476247E-2</v>
       </c>
       <c r="J12">
         <v>15978</v>
       </c>
       <c r="K12" s="2">
-        <f>J12/$AF12</f>
+        <f t="shared" si="4"/>
         <v>1.7121786718131329E-2</v>
       </c>
       <c r="L12">
         <v>11715</v>
       </c>
       <c r="M12" s="2">
-        <f>L12/$AF12</f>
+        <f t="shared" si="5"/>
         <v>1.2553619439410971E-2</v>
       </c>
       <c r="N12">
         <v>12415</v>
       </c>
       <c r="O12" s="2">
-        <f>N12/$AF12</f>
+        <f t="shared" si="6"/>
         <v>1.3303729008987384E-2</v>
       </c>
-      <c r="P12" s="9">
-        <f t="shared" si="0"/>
+      <c r="P12" s="6">
+        <f t="shared" si="10"/>
         <v>24768</v>
       </c>
       <c r="Q12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>2.6541019741812284E-2</v>
       </c>
-      <c r="R12" s="9">
-        <f t="shared" si="2"/>
+      <c r="R12" s="6">
+        <f t="shared" si="12"/>
         <v>27885</v>
       </c>
       <c r="S12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.9881150496626114E-2</v>
       </c>
       <c r="T12">
         <v>720</v>
       </c>
       <c r="U12" s="2">
-        <f>T12/$AF12</f>
+        <f t="shared" si="7"/>
         <v>7.7154127156431069E-4</v>
       </c>
       <c r="V12">
         <v>3079</v>
       </c>
       <c r="W12" s="2">
-        <f>V12/$AF12</f>
+        <f t="shared" si="8"/>
         <v>3.2994105210368231E-3</v>
       </c>
       <c r="X12">
         <v>10888</v>
       </c>
       <c r="Y12" s="2">
-        <f>X12/$AF12</f>
+        <f t="shared" si="9"/>
         <v>1.1667418562211408E-2</v>
       </c>
       <c r="Z12">
         <v>10081</v>
       </c>
       <c r="AA12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1.0802649386999744E-2</v>
       </c>
       <c r="AB12">
         <v>18358</v>
       </c>
       <c r="AC12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.9672159254691131E-2</v>
       </c>
       <c r="AD12">
         <v>9527</v>
       </c>
       <c r="AE12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.0208991241934983E-2</v>
       </c>
       <c r="AF12">
         <v>933197</v>
       </c>
       <c r="AG12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.88617142705205565</v>
       </c>
       <c r="AH12">
@@ -6488,120 +6508,120 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>32698</v>
       </c>
       <c r="C13" s="2">
-        <f>B13/$AF13</f>
+        <f t="shared" si="0"/>
         <v>0.36649144240576559</v>
       </c>
       <c r="D13">
         <v>28971</v>
       </c>
       <c r="E13" s="2">
-        <f>D13/$AF13</f>
+        <f t="shared" si="1"/>
         <v>0.3247178291619498</v>
       </c>
       <c r="F13">
         <v>11378</v>
       </c>
       <c r="G13" s="2">
-        <f>F13/$AF13</f>
+        <f t="shared" si="2"/>
         <v>0.12752888958629888</v>
       </c>
       <c r="H13">
         <v>6919</v>
       </c>
       <c r="I13" s="2">
-        <f>H13/$AF13</f>
+        <f t="shared" si="3"/>
         <v>7.7550745917349437E-2</v>
       </c>
       <c r="J13">
         <v>1154</v>
       </c>
       <c r="K13" s="2">
-        <f>J13/$AF13</f>
+        <f t="shared" si="4"/>
         <v>1.293446463197301E-2</v>
       </c>
       <c r="L13">
         <v>701</v>
       </c>
       <c r="M13" s="2">
-        <f>L13/$AF13</f>
+        <f t="shared" si="5"/>
         <v>7.8570708033042294E-3</v>
       </c>
       <c r="N13">
         <v>509</v>
       </c>
       <c r="O13" s="2">
-        <f>N13/$AF13</f>
+        <f t="shared" si="6"/>
         <v>5.7050628229413014E-3</v>
       </c>
-      <c r="P13" s="9">
-        <f t="shared" si="0"/>
+      <c r="P13" s="6">
+        <f t="shared" si="10"/>
         <v>1309</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1.4671762741120167E-2</v>
       </c>
-      <c r="R13" s="9">
-        <f t="shared" si="2"/>
+      <c r="R13" s="6">
+        <f t="shared" si="12"/>
         <v>2273</v>
       </c>
       <c r="S13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.5476636142525697E-2</v>
       </c>
       <c r="T13">
         <v>32</v>
       </c>
       <c r="U13" s="2">
-        <f>T13/$AF13</f>
+        <f t="shared" si="7"/>
         <v>3.5866799672715455E-4</v>
       </c>
       <c r="V13">
         <v>158</v>
       </c>
       <c r="W13" s="2">
-        <f>V13/$AF13</f>
+        <f t="shared" si="8"/>
         <v>1.7709232338403256E-3</v>
       </c>
       <c r="X13">
         <v>677</v>
       </c>
       <c r="Y13" s="2">
-        <f>X13/$AF13</f>
+        <f t="shared" si="9"/>
         <v>7.5880698057588626E-3</v>
       </c>
       <c r="Z13">
         <v>442</v>
       </c>
       <c r="AA13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>4.9541017047938221E-3</v>
       </c>
       <c r="AB13">
         <v>1276</v>
       </c>
       <c r="AC13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.4301886369495287E-2</v>
       </c>
       <c r="AD13">
         <v>997</v>
       </c>
       <c r="AE13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.1174749773030408E-2</v>
       </c>
       <c r="AF13">
         <v>89219</v>
       </c>
       <c r="AG13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.90820159410405443</v>
       </c>
       <c r="AH13">
@@ -6610,120 +6630,120 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>14263</v>
       </c>
       <c r="C14" s="2">
-        <f>B14/$AF14</f>
+        <f t="shared" si="0"/>
         <v>0.33551316129942838</v>
       </c>
       <c r="D14">
         <v>13546</v>
       </c>
       <c r="E14" s="2">
-        <f>D14/$AF14</f>
+        <f t="shared" si="1"/>
         <v>0.31864693843946273</v>
       </c>
       <c r="F14">
         <v>6816</v>
       </c>
       <c r="G14" s="2">
-        <f>F14/$AF14</f>
+        <f t="shared" si="2"/>
         <v>0.16033497212486181</v>
       </c>
       <c r="H14">
         <v>4604</v>
       </c>
       <c r="I14" s="2">
-        <f>H14/$AF14</f>
+        <f t="shared" si="3"/>
         <v>0.10830138081908212</v>
       </c>
       <c r="J14">
         <v>325</v>
       </c>
       <c r="K14" s="2">
-        <f>J14/$AF14</f>
+        <f t="shared" si="4"/>
         <v>7.6450800969160926E-3</v>
       </c>
       <c r="L14">
         <v>224</v>
       </c>
       <c r="M14" s="2">
-        <f>L14/$AF14</f>
+        <f t="shared" si="5"/>
         <v>5.2692244360283223E-3</v>
       </c>
       <c r="N14">
         <v>286</v>
       </c>
       <c r="O14" s="2">
-        <f>N14/$AF14</f>
+        <f t="shared" si="6"/>
         <v>6.7276704852861609E-3</v>
       </c>
-      <c r="P14" s="9">
-        <f t="shared" si="0"/>
+      <c r="P14" s="6">
+        <f t="shared" si="10"/>
         <v>439</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1.0326738961680506E-2</v>
       </c>
-      <c r="R14" s="9">
-        <f t="shared" si="2"/>
+      <c r="R14" s="6">
+        <f t="shared" si="12"/>
         <v>1147</v>
       </c>
       <c r="S14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.6981251911270022E-2</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14" s="2">
-        <f>T14/$AF14</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V14">
         <v>89</v>
       </c>
       <c r="W14" s="2">
-        <f>V14/$AF14</f>
+        <f t="shared" si="8"/>
         <v>2.0935757803862529E-3</v>
       </c>
       <c r="X14">
         <v>163</v>
       </c>
       <c r="Y14" s="2">
-        <f>X14/$AF14</f>
+        <f t="shared" si="9"/>
         <v>3.8343017101456094E-3</v>
       </c>
       <c r="Z14">
         <v>187</v>
       </c>
       <c r="AA14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>4.398861471148644E-3</v>
       </c>
       <c r="AB14">
         <v>614</v>
       </c>
       <c r="AC14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.4443320552327632E-2</v>
       </c>
       <c r="AD14">
         <v>533</v>
       </c>
       <c r="AE14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.2537931358942392E-2</v>
       </c>
       <c r="AF14">
         <v>42511</v>
       </c>
       <c r="AG14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.90184140184140182</v>
       </c>
       <c r="AH14">
@@ -6732,120 +6752,120 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>18903</v>
       </c>
       <c r="C15" s="2">
-        <f>B15/$AF15</f>
+        <f t="shared" si="0"/>
         <v>0.32410328509704411</v>
       </c>
       <c r="D15">
         <v>17317</v>
       </c>
       <c r="E15" s="2">
-        <f>D15/$AF15</f>
+        <f t="shared" si="1"/>
         <v>0.29691036280090527</v>
       </c>
       <c r="F15">
         <v>5788</v>
       </c>
       <c r="G15" s="2">
-        <f>F15/$AF15</f>
+        <f t="shared" si="2"/>
         <v>9.9238735340511627E-2</v>
       </c>
       <c r="H15">
         <v>10553</v>
       </c>
       <c r="I15" s="2">
-        <f>H15/$AF15</f>
+        <f t="shared" si="3"/>
         <v>0.18093752143200054</v>
       </c>
       <c r="J15">
         <v>919</v>
       </c>
       <c r="K15" s="2">
-        <f>J15/$AF15</f>
+        <f t="shared" si="4"/>
         <v>1.5756806803374254E-2</v>
       </c>
       <c r="L15">
         <v>348</v>
       </c>
       <c r="M15" s="2">
-        <f>L15/$AF15</f>
+        <f t="shared" si="5"/>
         <v>5.9666689527467249E-3</v>
       </c>
       <c r="N15">
         <v>310</v>
       </c>
       <c r="O15" s="2">
-        <f>N15/$AF15</f>
+        <f t="shared" si="6"/>
         <v>5.3151361360674852E-3</v>
       </c>
-      <c r="P15" s="9">
-        <f t="shared" si="0"/>
+      <c r="P15" s="6">
+        <f t="shared" si="10"/>
         <v>1055</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1.8088608463068378E-2</v>
       </c>
-      <c r="R15" s="9">
-        <f t="shared" si="2"/>
+      <c r="R15" s="6">
+        <f t="shared" si="12"/>
         <v>1913</v>
       </c>
       <c r="S15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>3.279953363966806E-2</v>
       </c>
       <c r="T15">
         <v>38</v>
       </c>
       <c r="U15" s="2">
-        <f>T15/$AF15</f>
+        <f t="shared" si="7"/>
         <v>6.515328166792401E-4</v>
       </c>
       <c r="V15">
         <v>85</v>
       </c>
       <c r="W15" s="2">
-        <f>V15/$AF15</f>
+        <f t="shared" si="8"/>
         <v>1.4573760373088266E-3</v>
       </c>
       <c r="X15">
         <v>502</v>
       </c>
       <c r="Y15" s="2">
-        <f>X15/$AF15</f>
+        <f t="shared" si="9"/>
         <v>8.6070914203415401E-3</v>
       </c>
       <c r="Z15">
         <v>430</v>
       </c>
       <c r="AA15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>7.3726081887387695E-3</v>
       </c>
       <c r="AB15">
         <v>1093</v>
       </c>
       <c r="AC15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.8740141279747616E-2</v>
       </c>
       <c r="AD15">
         <v>820</v>
       </c>
       <c r="AE15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.4059392359920445E-2</v>
       </c>
       <c r="AF15">
         <v>58324</v>
       </c>
       <c r="AG15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.91468540242142904</v>
       </c>
       <c r="AH15">
@@ -6854,120 +6874,120 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>15274</v>
       </c>
       <c r="C16" s="2">
-        <f>B16/$AF16</f>
+        <f t="shared" si="0"/>
         <v>0.1872295566260925</v>
       </c>
       <c r="D16">
         <v>20419</v>
       </c>
       <c r="E16" s="2">
-        <f>D16/$AF16</f>
+        <f t="shared" si="1"/>
         <v>0.25029725787273688</v>
       </c>
       <c r="F16">
         <v>21256</v>
       </c>
       <c r="G16" s="2">
-        <f>F16/$AF16</f>
+        <f t="shared" si="2"/>
         <v>0.2605572512533863</v>
       </c>
       <c r="H16">
         <v>18948</v>
       </c>
       <c r="I16" s="2">
-        <f>H16/$AF16</f>
+        <f t="shared" si="3"/>
         <v>0.23226565660280218</v>
       </c>
       <c r="J16">
         <v>181</v>
       </c>
       <c r="K16" s="2">
-        <f>J16/$AF16</f>
+        <f t="shared" si="4"/>
         <v>2.2187082459946801E-3</v>
       </c>
       <c r="L16">
         <v>231</v>
       </c>
       <c r="M16" s="2">
-        <f>L16/$AF16</f>
+        <f t="shared" si="5"/>
         <v>2.8316110763799509E-3</v>
       </c>
       <c r="N16">
         <v>261</v>
       </c>
       <c r="O16" s="2">
-        <f>N16/$AF16</f>
+        <f t="shared" si="6"/>
         <v>3.199352774611113E-3</v>
       </c>
-      <c r="P16" s="9">
-        <f t="shared" si="0"/>
+      <c r="P16" s="6">
+        <f t="shared" si="10"/>
         <v>717</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>8.7890265877247822E-3</v>
       </c>
-      <c r="R16" s="9">
-        <f t="shared" si="2"/>
+      <c r="R16" s="6">
+        <f t="shared" si="12"/>
         <v>1736</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.12799862709766E-2</v>
       </c>
       <c r="T16">
         <v>52</v>
       </c>
       <c r="U16" s="2">
-        <f>T16/$AF16</f>
+        <f t="shared" si="7"/>
         <v>6.3741894360068159E-4</v>
       </c>
       <c r="V16">
         <v>86</v>
       </c>
       <c r="W16" s="2">
-        <f>V16/$AF16</f>
+        <f t="shared" si="8"/>
         <v>1.0541928682626656E-3</v>
       </c>
       <c r="X16">
         <v>318</v>
       </c>
       <c r="Y16" s="2">
-        <f>X16/$AF16</f>
+        <f t="shared" si="9"/>
         <v>3.8980620012503218E-3</v>
       </c>
       <c r="Z16">
         <v>261</v>
       </c>
       <c r="AA16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>3.199352774611113E-3</v>
       </c>
       <c r="AB16">
         <v>927</v>
       </c>
       <c r="AC16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.1363218475342919E-2</v>
       </c>
       <c r="AD16">
         <v>809</v>
       </c>
       <c r="AE16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>9.9167677956336804E-3</v>
       </c>
       <c r="AF16">
         <v>81579</v>
       </c>
       <c r="AG16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.89559661430029969</v>
       </c>
       <c r="AH16">
@@ -6976,120 +6996,120 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <v>33720</v>
       </c>
       <c r="C17" s="2">
-        <f>B17/$AF17</f>
+        <f t="shared" si="0"/>
         <v>0.35055254649603396</v>
       </c>
       <c r="D17">
         <v>21681</v>
       </c>
       <c r="E17" s="2">
-        <f>D17/$AF17</f>
+        <f t="shared" si="1"/>
         <v>0.22539530725327733</v>
       </c>
       <c r="F17">
         <v>22001</v>
       </c>
       <c r="G17" s="2">
-        <f>F17/$AF17</f>
+        <f t="shared" si="2"/>
         <v>0.22872202181077231</v>
       </c>
       <c r="H17">
         <v>11474</v>
       </c>
       <c r="I17" s="2">
-        <f>H17/$AF17</f>
+        <f t="shared" si="3"/>
         <v>0.11928350885217952</v>
       </c>
       <c r="J17">
         <v>506</v>
       </c>
       <c r="K17" s="2">
-        <f>J17/$AF17</f>
+        <f t="shared" si="4"/>
         <v>5.2603673940389431E-3</v>
       </c>
       <c r="L17">
         <v>1080</v>
       </c>
       <c r="M17" s="2">
-        <f>L17/$AF17</f>
+        <f t="shared" si="5"/>
         <v>1.1227661631545571E-2</v>
       </c>
       <c r="N17">
         <v>561</v>
       </c>
       <c r="O17" s="2">
-        <f>N17/$AF17</f>
+        <f t="shared" si="6"/>
         <v>5.8321464586083933E-3</v>
       </c>
-      <c r="P17" s="9">
-        <f t="shared" si="0"/>
+      <c r="P17" s="6">
+        <f t="shared" si="10"/>
         <v>747</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>7.7657992951523525E-3</v>
       </c>
-      <c r="R17" s="9">
-        <f t="shared" si="2"/>
+      <c r="R17" s="6">
+        <f t="shared" si="12"/>
         <v>2181</v>
       </c>
       <c r="S17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.267363890592675E-2</v>
       </c>
       <c r="T17">
         <v>29</v>
       </c>
       <c r="U17" s="2">
-        <f>T17/$AF17</f>
+        <f t="shared" si="7"/>
         <v>3.0148350677298291E-4</v>
       </c>
       <c r="V17">
         <v>171</v>
       </c>
       <c r="W17" s="2">
-        <f>V17/$AF17</f>
+        <f t="shared" si="8"/>
         <v>1.777713091661382E-3</v>
       </c>
       <c r="X17">
         <v>276</v>
       </c>
       <c r="Y17" s="2">
-        <f>X17/$AF17</f>
+        <f t="shared" si="9"/>
         <v>2.8692913058394236E-3</v>
       </c>
       <c r="Z17">
         <v>271</v>
       </c>
       <c r="AA17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>2.8173113908785646E-3</v>
       </c>
       <c r="AB17">
         <v>1081</v>
       </c>
       <c r="AC17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.1238057614537743E-2</v>
       </c>
       <c r="AD17">
         <v>1100</v>
       </c>
       <c r="AE17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.1435581291389007E-2</v>
       </c>
       <c r="AF17">
         <v>96191</v>
       </c>
       <c r="AG17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.9105374756252248</v>
       </c>
       <c r="AH17">
@@ -7098,120 +7118,120 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>29257</v>
       </c>
       <c r="C18" s="2">
-        <f>B18/$AF18</f>
+        <f t="shared" si="0"/>
         <v>0.36796629354798138</v>
       </c>
       <c r="D18">
         <v>26360</v>
       </c>
       <c r="E18" s="2">
-        <f>D18/$AF18</f>
+        <f t="shared" si="1"/>
         <v>0.33153062507860648</v>
       </c>
       <c r="F18">
         <v>8140</v>
       </c>
       <c r="G18" s="2">
-        <f>F18/$AF18</f>
+        <f t="shared" si="2"/>
         <v>0.10237705948937241</v>
       </c>
       <c r="H18">
         <v>8022</v>
       </c>
       <c r="I18" s="2">
-        <f>H18/$AF18</f>
+        <f t="shared" si="3"/>
         <v>0.10089296943780657</v>
       </c>
       <c r="J18">
         <v>897</v>
       </c>
       <c r="K18" s="2">
-        <f>J18/$AF18</f>
+        <f t="shared" si="4"/>
         <v>1.1281599798767451E-2</v>
       </c>
       <c r="L18">
         <v>792</v>
       </c>
       <c r="M18" s="2">
-        <f>L18/$AF18</f>
+        <f t="shared" si="5"/>
         <v>9.9610111935605587E-3</v>
       </c>
       <c r="N18">
         <v>748</v>
       </c>
       <c r="O18" s="2">
-        <f>N18/$AF18</f>
+        <f t="shared" si="6"/>
         <v>9.4076216828071942E-3</v>
       </c>
-      <c r="P18" s="9">
-        <f t="shared" si="0"/>
+      <c r="P18" s="6">
+        <f t="shared" si="10"/>
         <v>1135</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1.4274933970569739E-2</v>
       </c>
-      <c r="R18" s="9">
-        <f t="shared" si="2"/>
+      <c r="R18" s="6">
+        <f t="shared" si="12"/>
         <v>2548</v>
       </c>
       <c r="S18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>3.2046283486353917E-2</v>
       </c>
       <c r="T18">
         <v>42</v>
       </c>
       <c r="U18" s="2">
-        <f>T18/$AF18</f>
+        <f t="shared" si="7"/>
         <v>5.2823544208275685E-4</v>
       </c>
       <c r="V18">
         <v>161</v>
       </c>
       <c r="W18" s="2">
-        <f>V18/$AF18</f>
+        <f t="shared" si="8"/>
         <v>2.0249025279839013E-3</v>
       </c>
       <c r="X18">
         <v>520</v>
       </c>
       <c r="Y18" s="2">
-        <f>X18/$AF18</f>
+        <f t="shared" si="9"/>
         <v>6.5400578543579422E-3</v>
       </c>
       <c r="Z18">
         <v>412</v>
       </c>
       <c r="AA18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>5.1817381461451394E-3</v>
       </c>
       <c r="AB18">
         <v>1515</v>
       </c>
       <c r="AC18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.9054207017985159E-2</v>
       </c>
       <c r="AD18">
         <v>1033</v>
       </c>
       <c r="AE18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.2992076468368759E-2</v>
       </c>
       <c r="AF18">
         <v>79510</v>
       </c>
       <c r="AG18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.92897451775344964</v>
       </c>
       <c r="AH18">
@@ -7220,120 +7240,120 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19">
         <v>23386</v>
       </c>
       <c r="C19" s="2">
-        <f>B19/$AF19</f>
+        <f t="shared" si="0"/>
         <v>0.33882441575752309</v>
       </c>
       <c r="D19">
         <v>20951</v>
       </c>
       <c r="E19" s="2">
-        <f>D19/$AF19</f>
+        <f t="shared" si="1"/>
         <v>0.30354529780791356</v>
       </c>
       <c r="F19">
         <v>10454</v>
       </c>
       <c r="G19" s="2">
-        <f>F19/$AF19</f>
+        <f t="shared" si="2"/>
         <v>0.15146114950522305</v>
       </c>
       <c r="H19">
         <v>7620</v>
       </c>
       <c r="I19" s="2">
-        <f>H19/$AF19</f>
+        <f t="shared" si="3"/>
         <v>0.11040118224888078</v>
       </c>
       <c r="J19">
         <v>877</v>
       </c>
       <c r="K19" s="2">
-        <f>J19/$AF19</f>
+        <f t="shared" si="4"/>
         <v>1.2706277799510293E-2</v>
       </c>
       <c r="L19">
         <v>476</v>
       </c>
       <c r="M19" s="2">
-        <f>L19/$AF19</f>
+        <f t="shared" si="5"/>
         <v>6.896451804523261E-3</v>
       </c>
       <c r="N19">
         <v>310</v>
       </c>
       <c r="O19" s="2">
-        <f>N19/$AF19</f>
+        <f t="shared" si="6"/>
         <v>4.4913866794164094E-3</v>
       </c>
-      <c r="P19" s="9">
-        <f t="shared" si="0"/>
+      <c r="P19" s="6">
+        <f t="shared" si="10"/>
         <v>809</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1.1721070398864112E-2</v>
       </c>
-      <c r="R19" s="9">
-        <f t="shared" si="2"/>
+      <c r="R19" s="6">
+        <f t="shared" si="12"/>
         <v>1975</v>
       </c>
       <c r="S19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.8614479651120676E-2</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
       <c r="U19" s="2">
-        <f>T19/$AF19</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V19">
         <v>141</v>
       </c>
       <c r="W19" s="2">
-        <f>V19/$AF19</f>
+        <f t="shared" si="8"/>
         <v>2.0428565219281088E-3</v>
       </c>
       <c r="X19">
         <v>381</v>
       </c>
       <c r="Y19" s="2">
-        <f>X19/$AF19</f>
+        <f t="shared" si="9"/>
         <v>5.5200591124440384E-3</v>
       </c>
       <c r="Z19">
         <v>287</v>
       </c>
       <c r="AA19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>4.1581547644919661E-3</v>
       </c>
       <c r="AB19">
         <v>1099</v>
       </c>
       <c r="AC19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.592269019573753E-2</v>
       </c>
       <c r="AD19">
         <v>876</v>
       </c>
       <c r="AE19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.2691789455383145E-2</v>
       </c>
       <c r="AF19">
         <v>69021</v>
       </c>
       <c r="AG19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.91274679644004819</v>
       </c>
       <c r="AH19">
@@ -7342,120 +7362,120 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <v>20239</v>
       </c>
       <c r="C20" s="2">
-        <f>B20/$AF20</f>
+        <f t="shared" si="0"/>
         <v>0.26999012833168806</v>
       </c>
       <c r="D20">
         <v>25221</v>
       </c>
       <c r="E20" s="2">
-        <f>D20/$AF20</f>
+        <f t="shared" si="1"/>
         <v>0.33645046823724017</v>
       </c>
       <c r="F20">
         <v>10198</v>
       </c>
       <c r="G20" s="2">
-        <f>F20/$AF20</f>
+        <f t="shared" si="2"/>
         <v>0.13604226141244896</v>
       </c>
       <c r="H20">
         <v>12252</v>
       </c>
       <c r="I20" s="2">
-        <f>H20/$AF20</f>
+        <f t="shared" si="3"/>
         <v>0.16344281102425229</v>
       </c>
       <c r="J20">
         <v>516</v>
       </c>
       <c r="K20" s="2">
-        <f>J20/$AF20</f>
+        <f t="shared" si="4"/>
         <v>6.8834876337344258E-3</v>
       </c>
       <c r="L20">
         <v>969</v>
       </c>
       <c r="M20" s="2">
-        <f>L20/$AF20</f>
+        <f t="shared" si="5"/>
         <v>1.2926549451722205E-2</v>
       </c>
       <c r="N20">
         <v>487</v>
       </c>
       <c r="O20" s="2">
-        <f>N20/$AF20</f>
+        <f t="shared" si="6"/>
         <v>6.4966249566447004E-3</v>
       </c>
-      <c r="P20" s="9">
-        <f t="shared" si="0"/>
+      <c r="P20" s="6">
+        <f t="shared" si="10"/>
         <v>772</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1.0298551265974759E-2</v>
       </c>
-      <c r="R20" s="9">
-        <f t="shared" si="2"/>
+      <c r="R20" s="6">
+        <f t="shared" si="12"/>
         <v>1806</v>
       </c>
       <c r="S20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.409220671807049E-2</v>
       </c>
       <c r="T20">
         <v>15</v>
       </c>
       <c r="U20" s="2">
-        <f>T20/$AF20</f>
+        <f t="shared" si="7"/>
         <v>2.0010138470158214E-4</v>
       </c>
       <c r="V20">
         <v>80</v>
       </c>
       <c r="W20" s="2">
-        <f>V20/$AF20</f>
+        <f t="shared" si="8"/>
         <v>1.0672073850751048E-3</v>
       </c>
       <c r="X20">
         <v>313</v>
       </c>
       <c r="Y20" s="2">
-        <f>X20/$AF20</f>
+        <f t="shared" si="9"/>
         <v>4.1754488941063471E-3</v>
       </c>
       <c r="Z20">
         <v>364</v>
       </c>
       <c r="AA20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>4.855793602091726E-3</v>
       </c>
       <c r="AB20">
         <v>877</v>
       </c>
       <c r="AC20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.1699260958885835E-2</v>
       </c>
       <c r="AD20">
         <v>929</v>
       </c>
       <c r="AE20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.2392945759184653E-2</v>
       </c>
       <c r="AF20">
         <v>74962</v>
       </c>
       <c r="AG20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.92460067838421212</v>
       </c>
       <c r="AH20">
@@ -7464,120 +7484,120 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <v>10553</v>
       </c>
       <c r="C21" s="2">
-        <f>B21/$AF21</f>
+        <f t="shared" si="0"/>
         <v>0.26011831402514174</v>
       </c>
       <c r="D21">
         <v>15074</v>
       </c>
       <c r="E21" s="2">
-        <f>D21/$AF21</f>
+        <f t="shared" si="1"/>
         <v>0.37155533645550898</v>
       </c>
       <c r="F21">
         <v>3285</v>
       </c>
       <c r="G21" s="2">
-        <f>F21/$AF21</f>
+        <f t="shared" si="2"/>
         <v>8.0971160956371704E-2</v>
       </c>
       <c r="H21">
         <v>7922</v>
       </c>
       <c r="I21" s="2">
-        <f>H21/$AF21</f>
+        <f t="shared" si="3"/>
         <v>0.1952674389943308</v>
       </c>
       <c r="J21">
         <v>198</v>
       </c>
       <c r="K21" s="2">
-        <f>J21/$AF21</f>
+        <f t="shared" si="4"/>
         <v>4.8804535370963768E-3</v>
       </c>
       <c r="L21">
         <v>316</v>
       </c>
       <c r="M21" s="2">
-        <f>L21/$AF21</f>
+        <f t="shared" si="5"/>
         <v>7.7890066551639138E-3</v>
       </c>
       <c r="N21">
         <v>143</v>
       </c>
       <c r="O21" s="2">
-        <f>N21/$AF21</f>
+        <f t="shared" si="6"/>
         <v>3.5247719990140498E-3</v>
       </c>
-      <c r="P21" s="9">
-        <f t="shared" si="0"/>
+      <c r="P21" s="6">
+        <f t="shared" si="10"/>
         <v>513</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1.2644811437022431E-2</v>
       </c>
-      <c r="R21" s="9">
-        <f t="shared" si="2"/>
+      <c r="R21" s="6">
+        <f t="shared" si="12"/>
         <v>1180</v>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.9085531180675375E-2</v>
       </c>
       <c r="T21">
         <v>21</v>
       </c>
       <c r="U21" s="2">
-        <f>T21/$AF21</f>
+        <f t="shared" si="7"/>
         <v>5.1762385999507021E-4</v>
       </c>
       <c r="V21">
         <v>75</v>
       </c>
       <c r="W21" s="2">
-        <f>V21/$AF21</f>
+        <f t="shared" si="8"/>
         <v>1.8486566428395365E-3</v>
       </c>
       <c r="X21">
         <v>164</v>
       </c>
       <c r="Y21" s="2">
-        <f>X21/$AF21</f>
+        <f t="shared" si="9"/>
         <v>4.0423958590091198E-3</v>
       </c>
       <c r="Z21">
         <v>253</v>
       </c>
       <c r="AA21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>6.2361350751787038E-3</v>
       </c>
       <c r="AB21">
         <v>648</v>
       </c>
       <c r="AC21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.5972393394133595E-2</v>
       </c>
       <c r="AD21">
         <v>532</v>
       </c>
       <c r="AE21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.311313778654178E-2</v>
       </c>
       <c r="AF21">
         <v>40570</v>
       </c>
       <c r="AG21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.92030941632828978</v>
       </c>
       <c r="AH21">
@@ -7586,120 +7606,120 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22">
         <v>949376</v>
       </c>
       <c r="C22" s="2">
-        <f>B22/$AF22</f>
+        <f t="shared" si="0"/>
         <v>0.38490645288020203</v>
       </c>
       <c r="D22">
         <v>696452</v>
       </c>
       <c r="E22" s="2">
-        <f>D22/$AF22</f>
+        <f t="shared" si="1"/>
         <v>0.28236322481432274</v>
       </c>
       <c r="F22">
         <v>300177</v>
       </c>
       <c r="G22" s="2">
-        <f>F22/$AF22</f>
+        <f t="shared" si="2"/>
         <v>0.12170105870194781</v>
       </c>
       <c r="H22">
         <v>268736</v>
       </c>
       <c r="I22" s="2">
-        <f>H22/$AF22</f>
+        <f t="shared" si="3"/>
         <v>0.10895390290171014</v>
       </c>
       <c r="J22">
         <v>33461</v>
       </c>
       <c r="K22" s="2">
-        <f>J22/$AF22</f>
+        <f t="shared" si="4"/>
         <v>1.3566126402841909E-2</v>
       </c>
       <c r="L22">
         <v>26313</v>
       </c>
       <c r="M22" s="2">
-        <f>L22/$AF22</f>
+        <f t="shared" si="5"/>
         <v>1.0668105676398768E-2</v>
       </c>
       <c r="N22">
         <v>23580</v>
       </c>
       <c r="O22" s="2">
-        <f>N22/$AF22</f>
+        <f t="shared" si="6"/>
         <v>9.5600627769347069E-3</v>
       </c>
-      <c r="P22" s="9">
-        <f t="shared" si="0"/>
+      <c r="P22" s="6">
+        <f t="shared" si="10"/>
         <v>46870</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1.9002550566366821E-2</v>
       </c>
-      <c r="R22" s="9">
-        <f t="shared" si="2"/>
+      <c r="R22" s="6">
+        <f t="shared" si="12"/>
         <v>73288</v>
       </c>
       <c r="S22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.9713226496861353E-2</v>
       </c>
       <c r="T22">
         <v>1387</v>
       </c>
       <c r="U22" s="2">
-        <f>T22/$AF22</f>
+        <f t="shared" si="7"/>
         <v>5.6233278505548928E-4</v>
       </c>
       <c r="V22">
         <v>6363</v>
       </c>
       <c r="W22" s="2">
-        <f>V22/$AF22</f>
+        <f t="shared" si="8"/>
         <v>2.5797573982033733E-3</v>
       </c>
       <c r="X22">
         <v>19728</v>
       </c>
       <c r="Y22" s="2">
-        <f>X22/$AF22</f>
+        <f t="shared" si="9"/>
         <v>7.9983425981072047E-3</v>
       </c>
       <c r="Z22">
         <v>19392</v>
       </c>
       <c r="AA22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>7.8621177850007554E-3</v>
       </c>
       <c r="AB22">
         <v>44597</v>
       </c>
       <c r="AC22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.8081005922941353E-2</v>
       </c>
       <c r="AD22">
         <v>28691</v>
       </c>
       <c r="AE22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.1632220573920002E-2</v>
       </c>
       <c r="AF22">
         <v>2466511</v>
       </c>
       <c r="AG22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.90245085753487309</v>
       </c>
       <c r="AH22">
@@ -7707,22 +7727,23 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7747,27 +7768,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>8</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>309307</v>
@@ -7775,14 +7796,14 @@
       <c r="D2" s="3">
         <v>0.32580031515437508</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="9">
         <v>0.38490000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C3">
         <v>234909</v>
@@ -7790,12 +7811,12 @@
       <c r="D3" s="3">
         <v>0.24743515740865579</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C4">
         <v>172471</v>
@@ -7803,12 +7824,12 @@
       <c r="D4" s="3">
         <v>0.18166774807873803</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>123520</v>
@@ -7816,12 +7837,12 @@
       <c r="D5" s="3">
         <v>0.1301065120668734</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>96391</v>
@@ -7829,12 +7850,12 @@
       <c r="D6" s="3">
         <v>0.10153090029661588</v>
       </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>41836</v>
@@ -7842,14 +7863,14 @@
       <c r="D7" s="3">
         <v>4.4066839692598087E-2</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>35</v>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C8">
         <v>471975</v>
@@ -7857,14 +7878,14 @@
       <c r="D8" s="3">
         <v>0.67768489429278689</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="9">
         <v>0.2823</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C9">
         <v>143532</v>
@@ -7872,12 +7893,12 @@
       <c r="D9" s="3">
         <v>0.20609029768024215</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C10">
         <v>108750</v>
@@ -7885,14 +7906,14 @@
       <c r="D10" s="3">
         <v>0.15614859315502003</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>39</v>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C11">
         <v>141159</v>
@@ -7900,14 +7921,14 @@
       <c r="D11" s="3">
         <v>0.47025255099491298</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="9">
         <v>0.1217</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C12">
         <v>119859</v>
@@ -7915,12 +7936,12 @@
       <c r="D12" s="3">
         <v>0.39929441629438633</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C13">
         <v>44598</v>
@@ -7928,7 +7949,7 @@
       <c r="D13" s="3">
         <v>0.14857234231803237</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7945,50 +7966,53 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6B12CA-3570-7149-A147-2D29312251E5}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="8" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>34752</v>
       </c>
       <c r="C2" s="1">
-        <f>B2/E2</f>
+        <f t="shared" ref="C2:C21" si="0">B2/E2</f>
         <v>0.5973392003850253</v>
       </c>
       <c r="D2">
@@ -8003,16 +8027,20 @@
       <c r="G2">
         <v>669</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <f>SUM(F1:G2)</f>
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>164260</v>
       </c>
       <c r="C3" s="1">
-        <f>B3/E3</f>
+        <f t="shared" si="0"/>
         <v>0.44157931948503021</v>
       </c>
       <c r="D3">
@@ -8027,16 +8055,20 @@
       <c r="G3">
         <v>8596</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <f t="shared" ref="H3:H21" si="1">SUM(F2:G3)</f>
+        <v>15395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>37155</v>
       </c>
       <c r="C4" s="1">
-        <f>B4/E4</f>
+        <f t="shared" si="0"/>
         <v>0.53720920145164319</v>
       </c>
       <c r="D4">
@@ -8051,16 +8083,20 @@
       <c r="G4">
         <v>826</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>15883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>48307</v>
       </c>
       <c r="C5" s="1">
-        <f>B5/E5</f>
+        <f t="shared" si="0"/>
         <v>0.48890755622128212</v>
       </c>
       <c r="D5">
@@ -8075,16 +8111,20 @@
       <c r="G5">
         <v>1907</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>4805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>27331</v>
       </c>
       <c r="C6" s="1">
-        <f>B6/E6</f>
+        <f t="shared" si="0"/>
         <v>0.56874414733118306</v>
       </c>
       <c r="D6">
@@ -8099,16 +8139,20 @@
       <c r="G6">
         <v>605</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>12083</v>
       </c>
       <c r="C7" s="1">
-        <f>B7/E7</f>
+        <f t="shared" si="0"/>
         <v>0.57186804865350938</v>
       </c>
       <c r="D7">
@@ -8123,16 +8167,20 @@
       <c r="G7">
         <v>294</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>28523</v>
       </c>
       <c r="C8" s="1">
-        <f>B8/E8</f>
+        <f t="shared" si="0"/>
         <v>0.5157586387718569</v>
       </c>
       <c r="D8">
@@ -8147,16 +8195,20 @@
       <c r="G8">
         <v>990</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>29528</v>
       </c>
       <c r="C9" s="1">
-        <f>B9/E9</f>
+        <f t="shared" si="0"/>
         <v>0.60611285588193031</v>
       </c>
       <c r="D9">
@@ -8171,16 +8223,20 @@
       <c r="G9">
         <v>688</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>72059</v>
       </c>
       <c r="C10" s="1">
-        <f>B10/E10</f>
+        <f t="shared" si="0"/>
         <v>0.55390374578186374</v>
       </c>
       <c r="D10">
@@ -8195,16 +8251,20 @@
       <c r="G10">
         <v>2534</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>364405</v>
       </c>
       <c r="C11" s="1">
-        <f>B11/E11</f>
+        <f t="shared" si="0"/>
         <v>0.39049096814498974</v>
       </c>
       <c r="D11">
@@ -8219,16 +8279,20 @@
       <c r="G11">
         <v>18358</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>31877</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12">
         <v>44536</v>
       </c>
       <c r="C12" s="1">
-        <f>B12/E12</f>
+        <f t="shared" si="0"/>
         <v>0.49917618444501732</v>
       </c>
       <c r="D12">
@@ -8243,16 +8307,20 @@
       <c r="G12">
         <v>1276</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>30158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>22126</v>
       </c>
       <c r="C13" s="1">
-        <f>B13/E13</f>
+        <f t="shared" si="0"/>
         <v>0.52047705299804758</v>
       </c>
       <c r="D13">
@@ -8267,16 +8335,20 @@
       <c r="G13">
         <v>614</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>49783</v>
       </c>
       <c r="C14" s="1">
-        <f>B14/E14</f>
+        <f t="shared" si="0"/>
         <v>0.61024283210139862</v>
       </c>
       <c r="D14">
@@ -8291,16 +8363,20 @@
       <c r="G14">
         <v>927</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>29727</v>
       </c>
       <c r="C15" s="1">
-        <f>B15/E15</f>
+        <f t="shared" si="0"/>
         <v>0.50968726424799393</v>
       </c>
       <c r="D15">
@@ -8315,16 +8391,20 @@
       <c r="G15">
         <v>1093</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16">
         <v>51458</v>
       </c>
       <c r="C16" s="1">
-        <f>B16/E16</f>
+        <f t="shared" si="0"/>
         <v>0.53495649281117774</v>
       </c>
       <c r="D16">
@@ -8339,16 +8419,20 @@
       <c r="G16">
         <v>1081</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>39725</v>
       </c>
       <c r="C17" s="1">
-        <f>B17/E17</f>
+        <f t="shared" si="0"/>
         <v>0.49962268896994089</v>
       </c>
       <c r="D17">
@@ -8363,16 +8447,20 @@
       <c r="G17">
         <v>1515</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>4729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>33896</v>
       </c>
       <c r="C18" s="1">
-        <f>B18/E18</f>
+        <f t="shared" si="0"/>
         <v>0.4910969125338665</v>
       </c>
       <c r="D18">
@@ -8387,16 +8475,20 @@
       <c r="G18">
         <v>1099</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19">
         <v>41685</v>
       </c>
       <c r="C19" s="1">
-        <f>B19/E19</f>
+        <f t="shared" si="0"/>
         <v>0.55608174808569677</v>
       </c>
       <c r="D19">
@@ -8411,16 +8503,20 @@
       <c r="G19">
         <v>877</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20">
         <v>23000</v>
       </c>
       <c r="C20" s="1">
-        <f>B20/E20</f>
+        <f t="shared" si="0"/>
         <v>0.56692137047079127</v>
       </c>
       <c r="D20">
@@ -8435,17 +8531,21 @@
       <c r="G20">
         <v>648</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21">
-        <f t="shared" ref="B21" si="0">SUM(B2:B20)</f>
+        <f t="shared" ref="B21" si="2">SUM(B2:B20)</f>
         <v>1154339</v>
       </c>
       <c r="C21" s="1">
-        <f>B21/E21</f>
+        <f t="shared" si="0"/>
         <v>0.46800480516810994</v>
       </c>
       <c r="D21">
@@ -8463,6 +8563,10 @@
       <c r="G21">
         <f>SUM(G2:G20)</f>
         <v>44597</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>74468</v>
       </c>
     </row>
   </sheetData>
@@ -8472,10 +8576,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C4D943-BE71-4448-9C66-01B0201E982A}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8485,140 +8589,165 @@
     <col min="3" max="3" width="17" style="3" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="17" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="3"/>
-    <col min="9" max="9" width="8.83203125" style="3"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="6" max="7" width="13.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>46</v>
       </c>
       <c r="B2">
         <v>19800</v>
       </c>
       <c r="C2" s="3">
-        <f>B2/J2</f>
+        <f>B2/L2</f>
         <v>0.34202798410779062</v>
       </c>
       <c r="D2">
         <v>34958</v>
       </c>
       <c r="E2" s="3">
-        <f>D2/J2</f>
+        <f>D2/L2</f>
         <v>0.60386940749697704</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
+        <f>SUM(H2,J2)</f>
+        <v>1417</v>
+      </c>
+      <c r="G2" s="3">
+        <f>SUM(I2,K2)</f>
+        <v>2.4477457246501987E-2</v>
+      </c>
+      <c r="H2">
         <v>671</v>
       </c>
-      <c r="G2" s="3">
-        <f>F2/J2</f>
+      <c r="I2" s="3">
+        <f>H2/L2</f>
         <v>1.1590948350319572E-2</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>746</v>
-      </c>
-      <c r="I2" s="3">
-        <f>H2/J2</f>
-        <v>1.2886508896182414E-2</v>
-      </c>
-      <c r="J2">
-        <v>57890</v>
       </c>
       <c r="K2" s="3">
         <f>J2/L2</f>
+        <v>1.2886508896182414E-2</v>
+      </c>
+      <c r="L2">
+        <v>57890</v>
+      </c>
+      <c r="M2" s="3">
+        <f>L2/N2</f>
         <v>0.89534002505529175</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>64657</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>189577</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C21" si="0">B3/J3</f>
+        <f t="shared" ref="C3:C21" si="0">B3/L3</f>
         <v>0.50906410528379198</v>
       </c>
       <c r="D3">
         <v>165350</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E21" si="1">D3/J3</f>
+        <f t="shared" ref="E3:E21" si="1">D3/L3</f>
         <v>0.44400823838690878</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F21" si="2">SUM(H3,J3)</f>
+        <v>14692</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G21" si="3">SUM(I3,K3)</f>
+        <v>3.9451884114789629E-2</v>
+      </c>
+      <c r="H3">
         <v>6006</v>
       </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G21" si="2">F3/J3</f>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I21" si="4">H3/L3</f>
         <v>1.6127689626560474E-2</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>8686</v>
       </c>
-      <c r="I3" s="3">
-        <f t="shared" ref="I3:I21" si="3">H3/J3</f>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K21" si="5">J3/L3</f>
         <v>2.3324194488229151E-2</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>372403</v>
       </c>
-      <c r="K3" s="3">
-        <f t="shared" ref="K3:K21" si="4">J3/L3</f>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M21" si="6">L3/N3</f>
         <v>0.90522444475234143</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>411393</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>26466</v>
@@ -8634,34 +8763,42 @@
         <f t="shared" si="1"/>
         <v>0.55942637792424132</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
+        <f t="shared" si="2"/>
+        <v>2135</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="3"/>
+        <v>3.0926341710726446E-2</v>
+      </c>
+      <c r="H4">
         <v>1052</v>
       </c>
-      <c r="G4" s="3">
-        <f t="shared" si="2"/>
+      <c r="I4" s="3">
+        <f t="shared" si="4"/>
         <v>1.5238647063083944E-2</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>1083</v>
       </c>
-      <c r="I4" s="3">
-        <f t="shared" si="3"/>
+      <c r="K4" s="3">
+        <f t="shared" si="5"/>
         <v>1.5687694647642501E-2</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>69035</v>
       </c>
-      <c r="K4" s="3">
-        <f t="shared" si="4"/>
+      <c r="M4" s="3">
+        <f t="shared" si="6"/>
         <v>0.92033168468624604</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>75011</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>41946</v>
@@ -8677,34 +8814,42 @@
         <f t="shared" si="1"/>
         <v>0.52767426789258376</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
+        <f t="shared" si="2"/>
+        <v>3319</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="3"/>
+        <v>3.3608084572076632E-2</v>
+      </c>
+      <c r="H5">
         <v>1425</v>
       </c>
-      <c r="G5" s="3">
-        <f t="shared" si="2"/>
+      <c r="I5" s="3">
+        <f t="shared" si="4"/>
         <v>1.4429503017538176E-2</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>1894</v>
       </c>
-      <c r="I5" s="3">
-        <f t="shared" si="3"/>
+      <c r="K5" s="3">
+        <f t="shared" si="5"/>
         <v>1.9178581554538457E-2</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>98756</v>
       </c>
-      <c r="K5" s="3">
-        <f t="shared" si="4"/>
+      <c r="M5" s="3">
+        <f t="shared" si="6"/>
         <v>0.91594245912130512</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>107819</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>17905</v>
@@ -8720,34 +8865,42 @@
         <f t="shared" si="1"/>
         <v>0.56019124831098643</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
+        <f t="shared" si="2"/>
+        <v>1683</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="3"/>
+        <v>3.4985968194574363E-2</v>
+      </c>
+      <c r="H6">
         <v>768</v>
       </c>
-      <c r="G6" s="3">
-        <f t="shared" si="2"/>
+      <c r="I6" s="3">
+        <f t="shared" si="4"/>
         <v>1.5965076395385094E-2</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>915</v>
       </c>
-      <c r="I6" s="3">
-        <f t="shared" si="3"/>
+      <c r="K6" s="3">
+        <f t="shared" si="5"/>
         <v>1.9020891799189272E-2</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>48105</v>
       </c>
-      <c r="K6" s="3">
-        <f t="shared" si="4"/>
+      <c r="M6" s="3">
+        <f t="shared" si="6"/>
         <v>0.92580831408775976</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>51960</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>22419</v>
@@ -8763,34 +8916,42 @@
         <f t="shared" si="1"/>
         <v>0.52779982681483617</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
+        <f t="shared" si="2"/>
+        <v>2109</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="3"/>
+        <v>3.8046615673257324E-2</v>
+      </c>
+      <c r="H7">
         <v>878</v>
       </c>
-      <c r="G7" s="3">
-        <f t="shared" si="2"/>
+      <c r="I7" s="3">
+        <f t="shared" si="4"/>
         <v>1.5839226439601672E-2</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>1231</v>
       </c>
-      <c r="I7" s="3">
-        <f t="shared" si="3"/>
+      <c r="K7" s="3">
+        <f t="shared" si="5"/>
         <v>2.2207389233655651E-2</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>55432</v>
       </c>
-      <c r="K7" s="3">
-        <f t="shared" si="4"/>
+      <c r="M7" s="3">
+        <f t="shared" si="6"/>
         <v>0.9288515030664567</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>59678</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>6990</v>
@@ -8806,34 +8967,42 @@
         <f t="shared" si="1"/>
         <v>0.62136014417148822</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
+        <f t="shared" si="2"/>
+        <v>728</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="3"/>
+        <v>3.4525277435265109E-2</v>
+      </c>
+      <c r="H8">
         <v>356</v>
       </c>
-      <c r="G8" s="3">
-        <f t="shared" si="2"/>
+      <c r="I8" s="3">
+        <f t="shared" si="4"/>
         <v>1.6883240064497772E-2</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>372</v>
       </c>
-      <c r="I8" s="3">
-        <f t="shared" si="3"/>
+      <c r="K8" s="3">
+        <f t="shared" si="5"/>
         <v>1.7642037370767333E-2</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>21086</v>
       </c>
-      <c r="K8" s="3">
-        <f t="shared" si="4"/>
+      <c r="M8" s="3">
+        <f t="shared" si="6"/>
         <v>0.92312406969617367</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>22842</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>15934</v>
@@ -8849,34 +9018,42 @@
         <f t="shared" si="1"/>
         <v>0.62141008258350794</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
+        <f t="shared" si="2"/>
+        <v>1720</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="3"/>
+        <v>3.5334237232425326E-2</v>
+      </c>
+      <c r="H9">
         <v>792</v>
       </c>
-      <c r="G9" s="3">
-        <f t="shared" si="2"/>
+      <c r="I9" s="3">
+        <f t="shared" si="4"/>
         <v>1.6270183655860963E-2</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>928</v>
       </c>
-      <c r="I9" s="3">
-        <f t="shared" si="3"/>
+      <c r="K9" s="3">
+        <f t="shared" si="5"/>
         <v>1.9064053576564363E-2</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>48678</v>
       </c>
-      <c r="K9" s="3">
-        <f t="shared" si="4"/>
+      <c r="M9" s="3">
+        <f t="shared" si="6"/>
         <v>0.92584209825589137</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>52577</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>48768</v>
@@ -8892,34 +9069,42 @@
         <f t="shared" si="1"/>
         <v>0.56998317545921773</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
+        <f t="shared" si="2"/>
+        <v>5769</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="3"/>
+        <v>4.4319988937288252E-2</v>
+      </c>
+      <c r="H10">
         <v>2193</v>
       </c>
-      <c r="G10" s="3">
-        <f t="shared" si="2"/>
+      <c r="I10" s="3">
+        <f t="shared" si="4"/>
         <v>1.6847588098365944E-2</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>3576</v>
       </c>
-      <c r="I10" s="3">
-        <f t="shared" si="3"/>
+      <c r="K10" s="3">
+        <f t="shared" si="5"/>
         <v>2.7472400838922308E-2</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>130167</v>
       </c>
-      <c r="K10" s="3">
-        <f t="shared" si="4"/>
+      <c r="M10" s="3">
+        <f t="shared" si="6"/>
         <v>0.91141872873167251</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>142818</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>507346</v>
@@ -8935,34 +9120,42 @@
         <f t="shared" si="1"/>
         <v>0.41061090496914998</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
+        <f t="shared" si="2"/>
+        <v>36164</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="3"/>
+        <v>3.8671043767443354E-2</v>
+      </c>
+      <c r="H11">
         <v>13924</v>
       </c>
-      <c r="G11" s="3">
-        <f t="shared" si="2"/>
+      <c r="I11" s="3">
+        <f t="shared" si="4"/>
         <v>1.4889271469358513E-2</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>22240</v>
       </c>
-      <c r="I11" s="3">
-        <f t="shared" si="3"/>
+      <c r="K11" s="3">
+        <f t="shared" si="5"/>
         <v>2.3781772298084841E-2</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>935170</v>
       </c>
-      <c r="K11" s="3">
-        <f t="shared" si="4"/>
+      <c r="M11" s="3">
+        <f t="shared" si="6"/>
         <v>0.88800284109252925</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>1053116</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12">
         <v>40114</v>
@@ -8978,34 +9171,42 @@
         <f t="shared" si="1"/>
         <v>0.48534591687260287</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
+        <f t="shared" si="2"/>
+        <v>3072</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="3"/>
+        <v>3.4351273076966081E-2</v>
+      </c>
+      <c r="H12">
         <v>1305</v>
       </c>
-      <c r="G12" s="3">
-        <f t="shared" si="2"/>
+      <c r="I12" s="3">
+        <f t="shared" si="4"/>
         <v>1.459258182468774E-2</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>1767</v>
       </c>
-      <c r="I12" s="3">
-        <f t="shared" si="3"/>
+      <c r="K12" s="3">
+        <f t="shared" si="5"/>
         <v>1.9758691252278342E-2</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>89429</v>
       </c>
-      <c r="K12" s="3">
-        <f t="shared" si="4"/>
+      <c r="M12" s="3">
+        <f t="shared" si="6"/>
         <v>0.90876665277876578</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>98407</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>17485</v>
@@ -9021,34 +9222,42 @@
         <f t="shared" si="1"/>
         <v>0.54165093449122148</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
+        <f t="shared" si="2"/>
+        <v>1360</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="3"/>
+        <v>3.2093637908249956E-2</v>
+      </c>
+      <c r="H13">
         <v>613</v>
       </c>
-      <c r="G13" s="3">
-        <f t="shared" si="2"/>
+      <c r="I13" s="3">
+        <f t="shared" si="4"/>
         <v>1.4465735321880309E-2</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>747</v>
       </c>
-      <c r="I13" s="3">
-        <f t="shared" si="3"/>
+      <c r="K13" s="3">
+        <f t="shared" si="5"/>
         <v>1.7627902586369645E-2</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>42376</v>
       </c>
-      <c r="K13" s="3">
-        <f t="shared" si="4"/>
+      <c r="M13" s="3">
+        <f t="shared" si="6"/>
         <v>0.89871055310485237</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>47152</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>24129</v>
@@ -9064,34 +9273,42 @@
         <f t="shared" si="1"/>
         <v>0.52701428301983844</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
+        <f t="shared" si="2"/>
+        <v>2667</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="3"/>
+        <v>4.5729668558495223E-2</v>
+      </c>
+      <c r="H14">
         <v>1195</v>
       </c>
-      <c r="G14" s="3">
-        <f t="shared" si="2"/>
+      <c r="I14" s="3">
+        <f t="shared" si="4"/>
         <v>2.0490046466967303E-2</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>1472</v>
       </c>
-      <c r="I14" s="3">
-        <f t="shared" si="3"/>
+      <c r="K14" s="3">
+        <f t="shared" si="5"/>
         <v>2.5239622091527924E-2</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>58321</v>
       </c>
-      <c r="K14" s="3">
-        <f t="shared" si="4"/>
+      <c r="M14" s="3">
+        <f t="shared" si="6"/>
         <v>0.91400764794383149</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>63808</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>24029</v>
@@ -9107,34 +9324,42 @@
         <f t="shared" si="1"/>
         <v>0.65004305572641163</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
+        <f t="shared" si="2"/>
+        <v>2276</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="3"/>
+        <v>2.7998523803665888E-2</v>
+      </c>
+      <c r="H15">
         <v>1216</v>
       </c>
-      <c r="G15" s="3">
-        <f t="shared" si="2"/>
+      <c r="I15" s="3">
+        <f t="shared" si="4"/>
         <v>1.4958789519006028E-2</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>1060</v>
       </c>
-      <c r="I15" s="3">
-        <f t="shared" si="3"/>
+      <c r="K15" s="3">
+        <f t="shared" si="5"/>
         <v>1.3039734284659859E-2</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>81290</v>
       </c>
-      <c r="K15" s="3">
-        <f t="shared" si="4"/>
+      <c r="M15" s="3">
+        <f t="shared" si="6"/>
         <v>0.89197344598672301</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>91135</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16">
         <v>43398</v>
@@ -9150,34 +9375,42 @@
         <f t="shared" si="1"/>
         <v>0.50225933406909185</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
+        <f t="shared" si="2"/>
+        <v>2727</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>2.8392645190846055E-2</v>
+      </c>
+      <c r="H16">
         <v>1448</v>
       </c>
-      <c r="G16" s="3">
-        <f t="shared" si="2"/>
+      <c r="I16" s="3">
+        <f t="shared" si="4"/>
         <v>1.5076109364262957E-2</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>1279</v>
       </c>
-      <c r="I16" s="3">
-        <f t="shared" si="3"/>
+      <c r="K16" s="3">
+        <f t="shared" si="5"/>
         <v>1.3316535826583096E-2</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>96046</v>
       </c>
-      <c r="K16" s="3">
-        <f t="shared" si="4"/>
+      <c r="M16" s="3">
+        <f t="shared" si="6"/>
         <v>0.90850272893235839</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>105719</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>35178</v>
@@ -9193,34 +9426,42 @@
         <f t="shared" si="1"/>
         <v>0.50662756007603127</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
+        <f t="shared" si="2"/>
+        <v>2972</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="3"/>
+        <v>3.7411412243048302E-2</v>
+      </c>
+      <c r="H17">
         <v>1323</v>
       </c>
-      <c r="G17" s="3">
-        <f t="shared" si="2"/>
+      <c r="I17" s="3">
+        <f t="shared" si="4"/>
         <v>1.665386890900165E-2</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>1649</v>
       </c>
-      <c r="I17" s="3">
-        <f t="shared" si="3"/>
+      <c r="K17" s="3">
+        <f t="shared" si="5"/>
         <v>2.0757543334046651E-2</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>79441</v>
       </c>
-      <c r="K17" s="3">
-        <f t="shared" si="4"/>
+      <c r="M17" s="3">
+        <f t="shared" si="6"/>
         <v>0.92746398300137767</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>85654</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>30453</v>
@@ -9236,34 +9477,42 @@
         <f t="shared" si="1"/>
         <v>0.49705256144721405</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
+        <f t="shared" si="2"/>
+        <v>2481</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="3"/>
+        <v>3.593412800718393E-2</v>
+      </c>
+      <c r="H18">
         <v>1027</v>
       </c>
-      <c r="G18" s="3">
-        <f t="shared" si="2"/>
+      <c r="I18" s="3">
+        <f t="shared" si="4"/>
         <v>1.4874788175484844E-2</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>1454</v>
       </c>
-      <c r="I18" s="3">
-        <f t="shared" si="3"/>
+      <c r="K18" s="3">
+        <f t="shared" si="5"/>
         <v>2.1059339831699084E-2</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>69043</v>
       </c>
-      <c r="K18" s="3">
-        <f t="shared" si="4"/>
+      <c r="M18" s="3">
+        <f t="shared" si="6"/>
         <v>0.91184394727805806</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>75718</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19">
         <v>26179</v>
@@ -9279,34 +9528,42 @@
         <f t="shared" si="1"/>
         <v>0.58919742363096983</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
+        <f t="shared" si="2"/>
+        <v>2415</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="3"/>
+        <v>3.2271427426036295E-2</v>
+      </c>
+      <c r="H19">
         <v>1206</v>
       </c>
-      <c r="G19" s="3">
-        <f t="shared" si="2"/>
+      <c r="I19" s="3">
+        <f t="shared" si="4"/>
         <v>1.6115669348157256E-2</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>1209</v>
       </c>
-      <c r="I19" s="3">
-        <f t="shared" si="3"/>
+      <c r="K19" s="3">
+        <f t="shared" si="5"/>
         <v>1.6155758077879039E-2</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>74834</v>
       </c>
-      <c r="K19" s="3">
-        <f t="shared" si="4"/>
+      <c r="M19" s="3">
+        <f t="shared" si="6"/>
         <v>0.92171449685921913</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>81190</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20">
         <v>14155</v>
@@ -9322,34 +9579,42 @@
         <f t="shared" si="1"/>
         <v>0.58484467145359886</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
+        <f t="shared" si="2"/>
+        <v>1511</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="3"/>
+        <v>3.7283786117896713E-2</v>
+      </c>
+      <c r="H20">
         <v>626</v>
       </c>
-      <c r="G20" s="3">
-        <f t="shared" si="2"/>
+      <c r="I20" s="3">
+        <f t="shared" si="4"/>
         <v>1.544649246181558E-2</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>885</v>
       </c>
-      <c r="I20" s="3">
-        <f t="shared" si="3"/>
+      <c r="K20" s="3">
+        <f t="shared" si="5"/>
         <v>2.1837293656081131E-2</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>40527</v>
       </c>
-      <c r="K20" s="3">
-        <f t="shared" si="4"/>
+      <c r="M20" s="3">
+        <f t="shared" si="6"/>
         <v>0.91775176068298647</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>44159</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21">
         <f>SUM(B2:B20)</f>
@@ -9367,32 +9632,40 @@
         <f t="shared" si="1"/>
         <v>0.48188777360395685</v>
       </c>
-      <c r="F21">
-        <f>SUM(F2:F20)</f>
-        <v>38024</v>
+      <c r="F21" s="6">
+        <f t="shared" si="2"/>
+        <v>91217</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="2"/>
-        <v>1.5406626097181192E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.6959452259272482E-2</v>
       </c>
       <c r="H21">
         <f>SUM(H2:H20)</f>
-        <v>53193</v>
+        <v>38024</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="3"/>
-        <v>2.1552826162091289E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.5406626097181192E-2</v>
       </c>
       <c r="J21">
         <f>SUM(J2:J20)</f>
-        <v>2468029</v>
+        <v>53193</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="4"/>
-        <v>0.90244890601295225</v>
+        <f t="shared" si="5"/>
+        <v>2.1552826162091289E-2</v>
       </c>
       <c r="L21">
         <f>SUM(L2:L20)</f>
+        <v>2468029</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="6"/>
+        <v>0.90244890601295225</v>
+      </c>
+      <c r="N21">
+        <f>SUM(N2:N20)</f>
         <v>2734813</v>
       </c>
     </row>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fede/Desktop/PAPERS/Proyecto libro/Anexo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3D702A-E3FD-134D-AECF-D115D3BDE639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50FA453-C252-1148-A866-B08B07230358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="10000" windowHeight="14260" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internas-General" sheetId="13" r:id="rId1"/>
@@ -22,16 +22,17 @@
     <sheet name="Nacional-SUBLEMAS" sheetId="9" r:id="rId7"/>
     <sheet name="Reforma" sheetId="10" r:id="rId8"/>
     <sheet name="Balotaje" sheetId="11" r:id="rId9"/>
-    <sheet name="Nacional-FA" sheetId="6" state="hidden" r:id="rId10"/>
-    <sheet name="Nacional-PN" sheetId="7" state="hidden" r:id="rId11"/>
-    <sheet name="Nacional-PC" sheetId="8" state="hidden" r:id="rId12"/>
+    <sheet name="Legilsadores" sheetId="17" r:id="rId10"/>
+    <sheet name="Nacional-FA" sheetId="6" state="hidden" r:id="rId11"/>
+    <sheet name="Nacional-PN" sheetId="7" state="hidden" r:id="rId12"/>
+    <sheet name="Nacional-PC" sheetId="8" state="hidden" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="256">
   <si>
     <t>Anulados</t>
   </si>
@@ -276,9 +277,6 @@
     <t>% Lema</t>
   </si>
   <si>
-    <t>% Dentro del lema</t>
-  </si>
-  <si>
     <t>% SI</t>
   </si>
   <si>
@@ -288,9 +286,6 @@
     <t>% Anulado</t>
   </si>
   <si>
-    <t>% Participación</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -348,19 +343,463 @@
     <t>Martínez - Villar</t>
   </si>
   <si>
-    <t>% Martinez - Villar</t>
-  </si>
-  <si>
     <t>Lacalle - Argimón</t>
   </si>
   <si>
-    <t>% Lacalle - Argimón</t>
-  </si>
-  <si>
-    <t>% En blanco y anulados</t>
-  </si>
-  <si>
     <t>% en el Lema</t>
+  </si>
+  <si>
+    <t>Elecciones internas 2019 - Frente Amplio - Voto por precandidato por departamento ( votos al O.D.N.)</t>
+  </si>
+  <si>
+    <t>Elecciones internas 2019 - Partido Nacional - Voto por precandidato por departamento ( votos al O.D.N.)</t>
+  </si>
+  <si>
+    <t>Elecciones internas 2019 - Partido Colorado - Voto por precandidato por departamento ( votos al O.D.N.)</t>
+  </si>
+  <si>
+    <t>% En el lema</t>
+  </si>
+  <si>
+    <t>¿Se calcula sobre el total de emitidos?</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>José Mujica</t>
+  </si>
+  <si>
+    <t>Lucía Topolansky</t>
+  </si>
+  <si>
+    <t>Eduardo Bonomi</t>
+  </si>
+  <si>
+    <t>Sandra Lazo</t>
+  </si>
+  <si>
+    <t>Charles Carrera</t>
+  </si>
+  <si>
+    <t>Liliam Kechichian</t>
+  </si>
+  <si>
+    <t>Enrique Rubio</t>
+  </si>
+  <si>
+    <t>Daniel Olesker</t>
+  </si>
+  <si>
+    <t>Carmen Asiaín</t>
+  </si>
+  <si>
+    <t>Amanda Della Ventura</t>
+  </si>
+  <si>
+    <t>Amin Niffouri</t>
+  </si>
+  <si>
+    <t>Graciela Bianchi</t>
+  </si>
+  <si>
+    <t>Gustavo Penadés</t>
+  </si>
+  <si>
+    <t>Sergio Botana</t>
+  </si>
+  <si>
+    <t>Gloria Rodríguez</t>
+  </si>
+  <si>
+    <t>Sergio Abreu</t>
+  </si>
+  <si>
+    <t>Carlos Camy</t>
+  </si>
+  <si>
+    <t>Jorge Gandini</t>
+  </si>
+  <si>
+    <t>Carmen Sanguinetti</t>
+  </si>
+  <si>
+    <t>Adrían Peña</t>
+  </si>
+  <si>
+    <t>Julio María Sanguinetti</t>
+  </si>
+  <si>
+    <t>Germán Coutinho</t>
+  </si>
+  <si>
+    <t>Guido Manini Ríos</t>
+  </si>
+  <si>
+    <t>Guillermo Domenech</t>
+  </si>
+  <si>
+    <t>Raúl Lozano</t>
+  </si>
+  <si>
+    <t>Senado</t>
+  </si>
+  <si>
+    <t>Cuerpo</t>
+  </si>
+  <si>
+    <t>MPP</t>
+  </si>
+  <si>
+    <t>Unidad para los Cambios</t>
+  </si>
+  <si>
+    <t>Danilo Astori</t>
+  </si>
+  <si>
+    <t>Todos hacia adelante</t>
+  </si>
+  <si>
+    <t>Todos por el pueblo</t>
+  </si>
+  <si>
+    <t>Movimiento Social Artiguista</t>
+  </si>
+  <si>
+    <t>Alejandro Sánchez</t>
+  </si>
+  <si>
+    <t>Cecilia Cairo</t>
+  </si>
+  <si>
+    <t>Daniel Caggiani</t>
+  </si>
+  <si>
+    <t>Susana Pereyra</t>
+  </si>
+  <si>
+    <t>Mario Tucci</t>
+  </si>
+  <si>
+    <t>Lilián Galán</t>
+  </si>
+  <si>
+    <t>Bettina Díaz Rey</t>
+  </si>
+  <si>
+    <t>Felipe Carballo</t>
+  </si>
+  <si>
+    <t>Gabriel Otero</t>
+  </si>
+  <si>
+    <t>Gerardo Núñez</t>
+  </si>
+  <si>
+    <t>Partido Comunista</t>
+  </si>
+  <si>
+    <t>Verónica Mato</t>
+  </si>
+  <si>
+    <t>Gonzalo Civila</t>
+  </si>
+  <si>
+    <t>Partido Socialista</t>
+  </si>
+  <si>
+    <t>Gabriela Barreiro</t>
+  </si>
+  <si>
+    <t>Carlos Varela</t>
+  </si>
+  <si>
+    <t>Asamblea Uruguay</t>
+  </si>
+  <si>
+    <t>Enzo Malan</t>
+  </si>
+  <si>
+    <t>Claudia Hugo</t>
+  </si>
+  <si>
+    <t>Cristina Lustemberg</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>Gustavo Olmos</t>
+  </si>
+  <si>
+    <t>Fuerza Renovadora</t>
+  </si>
+  <si>
+    <t>Federico Ruiz</t>
+  </si>
+  <si>
+    <t>Constante Mediondo</t>
+  </si>
+  <si>
+    <t>Nuevo Espacio</t>
+  </si>
+  <si>
+    <t>Gabriel Tinaglini</t>
+  </si>
+  <si>
+    <t>Sergio Mier</t>
+  </si>
+  <si>
+    <t>Nicolás Lorenzo</t>
+  </si>
+  <si>
+    <t>Martín Tierno</t>
+  </si>
+  <si>
+    <t>Zulimar Ferreira</t>
+  </si>
+  <si>
+    <t>Nicolás Viera</t>
+  </si>
+  <si>
+    <t>Eduardo Antonini</t>
+  </si>
+  <si>
+    <t>Cecilia Bottino</t>
+  </si>
+  <si>
+    <t>Nicolás Mesa</t>
+  </si>
+  <si>
+    <t>Javier Umpiérrez</t>
+  </si>
+  <si>
+    <t>MPP - Socialista</t>
+  </si>
+  <si>
+    <t>Sebastián Sabini</t>
+  </si>
+  <si>
+    <t>Orquidea Minetti</t>
+  </si>
+  <si>
+    <t>Pedro Irigoin</t>
+  </si>
+  <si>
+    <t>Lucía Etcheverry</t>
+  </si>
+  <si>
+    <t>Nelson Larzabal</t>
+  </si>
+  <si>
+    <t>Ubaldo Aíta</t>
+  </si>
+  <si>
+    <t>José Carlos Mahía</t>
+  </si>
+  <si>
+    <t>Carlos Rodríguez</t>
+  </si>
+  <si>
+    <t>Álvaro Lima</t>
+  </si>
+  <si>
+    <t>Juan José Olaizola</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Mario García</t>
+  </si>
+  <si>
+    <t>Martín Lema</t>
+  </si>
+  <si>
+    <t>Gonzalo Mujica</t>
+  </si>
+  <si>
+    <t>Rodrigo Goñi</t>
+  </si>
+  <si>
+    <t>Espacio 40</t>
+  </si>
+  <si>
+    <t>Carlos Enciso</t>
+  </si>
+  <si>
+    <t>Gabriel Gianoli</t>
+  </si>
+  <si>
+    <t>Andrés Abt</t>
+  </si>
+  <si>
+    <t>Juan Martín Rodríguez</t>
+  </si>
+  <si>
+    <t>Álvaro Viviano</t>
+  </si>
+  <si>
+    <t>Pablo Viana</t>
+  </si>
+  <si>
+    <t>Armando Castaingdebat</t>
+  </si>
+  <si>
+    <t>Omar Laflulf</t>
+  </si>
+  <si>
+    <t>Alejo Umpierrez</t>
+  </si>
+  <si>
+    <t>Dardo Sánchez</t>
+  </si>
+  <si>
+    <t>Valentina Dos Santos</t>
+  </si>
+  <si>
+    <t>Benjamín Irazabal</t>
+  </si>
+  <si>
+    <t>Alfredo de Mattos</t>
+  </si>
+  <si>
+    <t>Gerardo Amarilla</t>
+  </si>
+  <si>
+    <t>Mario Colman</t>
+  </si>
+  <si>
+    <t>Diego Echeverría</t>
+  </si>
+  <si>
+    <t>Rodrigo Blás</t>
+  </si>
+  <si>
+    <t>Nicolás Olivera</t>
+  </si>
+  <si>
+    <t>Ruben Bacigalupe</t>
+  </si>
+  <si>
+    <t>Álvaro Dastugue</t>
+  </si>
+  <si>
+    <t>Sartori</t>
+  </si>
+  <si>
+    <t>Sebastían Andújar</t>
+  </si>
+  <si>
+    <t>Javier Radiccioni</t>
+  </si>
+  <si>
+    <t>Guillermo Besozzi</t>
+  </si>
+  <si>
+    <t>Cristian Morel</t>
+  </si>
+  <si>
+    <t>Unidos</t>
+  </si>
+  <si>
+    <t>Ope Pasquet</t>
+  </si>
+  <si>
+    <t>Felipe Schipani</t>
+  </si>
+  <si>
+    <t>María Eugenia Rosello</t>
+  </si>
+  <si>
+    <t>Conrado Rodríguez</t>
+  </si>
+  <si>
+    <t>Marne Osorio</t>
+  </si>
+  <si>
+    <t>Walter Cervini</t>
+  </si>
+  <si>
+    <t>Jorge Alvear</t>
+  </si>
+  <si>
+    <t>Gustavo Zubía</t>
+  </si>
+  <si>
+    <t>Germán Cardozo</t>
+  </si>
+  <si>
+    <t>Nibia Reisch</t>
+  </si>
+  <si>
+    <t>Omar Estévez</t>
+  </si>
+  <si>
+    <t>Carlos Moreno</t>
+  </si>
+  <si>
+    <t>Martín Melazzi</t>
+  </si>
+  <si>
+    <t>Eduardo Lust</t>
+  </si>
+  <si>
+    <t>Martín Sodano</t>
+  </si>
+  <si>
+    <t>Elsa Capillera</t>
+  </si>
+  <si>
+    <t>Nazmi Camargo</t>
+  </si>
+  <si>
+    <t>Rodrigo Albernáz</t>
+  </si>
+  <si>
+    <t>Álvaro Perrone</t>
+  </si>
+  <si>
+    <t>Wilman Caballero</t>
+  </si>
+  <si>
+    <t>Carlos Testa</t>
+  </si>
+  <si>
+    <t>Iván Posada</t>
+  </si>
+  <si>
+    <t>César Vega</t>
+  </si>
+  <si>
+    <t>PERI</t>
+  </si>
+  <si>
+    <t>Daniel Peña</t>
+  </si>
+  <si>
+    <t>Silvana Pérez</t>
+  </si>
+  <si>
+    <t>Sebastián Cal</t>
+  </si>
+  <si>
+    <t>Solís Echeverría</t>
+  </si>
+  <si>
+    <t>Diputados</t>
+  </si>
+  <si>
+    <t>Ana Olivera</t>
+  </si>
+  <si>
+    <t>Daniel Gerhard</t>
+  </si>
+  <si>
+    <t>Alfredo Fratti</t>
   </si>
 </sst>
 </file>
@@ -371,7 +810,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -382,6 +821,20 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -409,7 +862,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -420,12 +873,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -439,6 +886,27 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -758,7 +1226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3476E4-AE28-304F-9212-EDE14D2C0DBA}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
@@ -2095,6 +2563,2152 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304A8E17-32CE-9945-B764-6F254F25279E}">
+  <dimension ref="A1:F130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>252</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>252</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>252</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>254</v>
+      </c>
+      <c r="D43" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>252</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" t="s">
+        <v>158</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>252</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>252</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" t="s">
+        <v>161</v>
+      </c>
+      <c r="F48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>252</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>252</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" t="s">
+        <v>165</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" t="s">
+        <v>155</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" t="s">
+        <v>170</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>252</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" t="s">
+        <v>161</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>252</v>
+      </c>
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>252</v>
+      </c>
+      <c r="B57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>252</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>252</v>
+      </c>
+      <c r="B59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>252</v>
+      </c>
+      <c r="B60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>252</v>
+      </c>
+      <c r="B61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>252</v>
+      </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" t="s">
+        <v>139</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>252</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" t="s">
+        <v>181</v>
+      </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>252</v>
+      </c>
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>252</v>
+      </c>
+      <c r="B65" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>252</v>
+      </c>
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" t="s">
+        <v>139</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>252</v>
+      </c>
+      <c r="B67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" t="s">
+        <v>139</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>252</v>
+      </c>
+      <c r="B68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>252</v>
+      </c>
+      <c r="B69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>252</v>
+      </c>
+      <c r="B70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" t="s">
+        <v>161</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>252</v>
+      </c>
+      <c r="B71" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>252</v>
+      </c>
+      <c r="B72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" t="s">
+        <v>255</v>
+      </c>
+      <c r="D72" t="s">
+        <v>139</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>252</v>
+      </c>
+      <c r="B73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" t="s">
+        <v>190</v>
+      </c>
+      <c r="D73" t="s">
+        <v>155</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>252</v>
+      </c>
+      <c r="B74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" t="s">
+        <v>192</v>
+      </c>
+      <c r="F74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>252</v>
+      </c>
+      <c r="B75" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" t="s">
+        <v>193</v>
+      </c>
+      <c r="D75" t="s">
+        <v>192</v>
+      </c>
+      <c r="F75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>252</v>
+      </c>
+      <c r="B76" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" t="s">
+        <v>194</v>
+      </c>
+      <c r="D76" t="s">
+        <v>192</v>
+      </c>
+      <c r="F76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>252</v>
+      </c>
+      <c r="B77" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" t="s">
+        <v>195</v>
+      </c>
+      <c r="D77" t="s">
+        <v>192</v>
+      </c>
+      <c r="F77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>252</v>
+      </c>
+      <c r="B78" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" t="s">
+        <v>196</v>
+      </c>
+      <c r="D78" t="s">
+        <v>197</v>
+      </c>
+      <c r="F78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>252</v>
+      </c>
+      <c r="B79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" t="s">
+        <v>192</v>
+      </c>
+      <c r="F79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>252</v>
+      </c>
+      <c r="B80" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" t="s">
+        <v>199</v>
+      </c>
+      <c r="D80" t="s">
+        <v>197</v>
+      </c>
+      <c r="F80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>252</v>
+      </c>
+      <c r="B81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" t="s">
+        <v>200</v>
+      </c>
+      <c r="D81" t="s">
+        <v>192</v>
+      </c>
+      <c r="F81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82" t="s">
+        <v>192</v>
+      </c>
+      <c r="F82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>252</v>
+      </c>
+      <c r="B83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" t="s">
+        <v>202</v>
+      </c>
+      <c r="D83" t="s">
+        <v>94</v>
+      </c>
+      <c r="F83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>252</v>
+      </c>
+      <c r="B84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" t="s">
+        <v>203</v>
+      </c>
+      <c r="D84" t="s">
+        <v>218</v>
+      </c>
+      <c r="F84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>252</v>
+      </c>
+      <c r="B85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D85" t="s">
+        <v>192</v>
+      </c>
+      <c r="F85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" t="s">
+        <v>205</v>
+      </c>
+      <c r="D86" t="s">
+        <v>94</v>
+      </c>
+      <c r="F86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>252</v>
+      </c>
+      <c r="B87" t="s">
+        <v>56</v>
+      </c>
+      <c r="C87" t="s">
+        <v>206</v>
+      </c>
+      <c r="D87" t="s">
+        <v>94</v>
+      </c>
+      <c r="F87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>252</v>
+      </c>
+      <c r="B88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88" t="s">
+        <v>94</v>
+      </c>
+      <c r="F88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>252</v>
+      </c>
+      <c r="B89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" t="s">
+        <v>208</v>
+      </c>
+      <c r="D89" t="s">
+        <v>192</v>
+      </c>
+      <c r="F89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>252</v>
+      </c>
+      <c r="B90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>252</v>
+      </c>
+      <c r="B91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" t="s">
+        <v>210</v>
+      </c>
+      <c r="D91" t="s">
+        <v>192</v>
+      </c>
+      <c r="F91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>252</v>
+      </c>
+      <c r="B92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" t="s">
+        <v>211</v>
+      </c>
+      <c r="D92" t="s">
+        <v>192</v>
+      </c>
+      <c r="F92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>252</v>
+      </c>
+      <c r="B93" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" t="s">
+        <v>212</v>
+      </c>
+      <c r="D93" t="s">
+        <v>94</v>
+      </c>
+      <c r="F93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>252</v>
+      </c>
+      <c r="B94" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" t="s">
+        <v>213</v>
+      </c>
+      <c r="D94" t="s">
+        <v>192</v>
+      </c>
+      <c r="F94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>252</v>
+      </c>
+      <c r="B95" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95" t="s">
+        <v>192</v>
+      </c>
+      <c r="F95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>252</v>
+      </c>
+      <c r="B96" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" t="s">
+        <v>215</v>
+      </c>
+      <c r="D96" t="s">
+        <v>94</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>252</v>
+      </c>
+      <c r="B97" t="s">
+        <v>58</v>
+      </c>
+      <c r="C97" t="s">
+        <v>216</v>
+      </c>
+      <c r="D97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>252</v>
+      </c>
+      <c r="B98" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" t="s">
+        <v>122</v>
+      </c>
+      <c r="D98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>252</v>
+      </c>
+      <c r="B99" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" t="s">
+        <v>218</v>
+      </c>
+      <c r="F99" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>252</v>
+      </c>
+      <c r="B100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>252</v>
+      </c>
+      <c r="B101" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" t="s">
+        <v>220</v>
+      </c>
+      <c r="D101" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>252</v>
+      </c>
+      <c r="B102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" t="s">
+        <v>221</v>
+      </c>
+      <c r="D102" t="s">
+        <v>94</v>
+      </c>
+      <c r="F102" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>252</v>
+      </c>
+      <c r="B103" t="s">
+        <v>46</v>
+      </c>
+      <c r="C103" t="s">
+        <v>222</v>
+      </c>
+      <c r="D103" t="s">
+        <v>223</v>
+      </c>
+      <c r="F103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>252</v>
+      </c>
+      <c r="B104" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" t="s">
+        <v>224</v>
+      </c>
+      <c r="D104" t="s">
+        <v>96</v>
+      </c>
+      <c r="F104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>252</v>
+      </c>
+      <c r="B105" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" t="s">
+        <v>225</v>
+      </c>
+      <c r="D105" t="s">
+        <v>96</v>
+      </c>
+      <c r="F105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>252</v>
+      </c>
+      <c r="B106" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>252</v>
+      </c>
+      <c r="B107" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" t="s">
+        <v>227</v>
+      </c>
+      <c r="D107" t="s">
+        <v>97</v>
+      </c>
+      <c r="F107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>252</v>
+      </c>
+      <c r="B108" t="s">
+        <v>57</v>
+      </c>
+      <c r="C108" t="s">
+        <v>228</v>
+      </c>
+      <c r="D108" t="s">
+        <v>97</v>
+      </c>
+      <c r="F108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>252</v>
+      </c>
+      <c r="B109" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109" t="s">
+        <v>229</v>
+      </c>
+      <c r="D109" t="s">
+        <v>96</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>252</v>
+      </c>
+      <c r="B110" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110" t="s">
+        <v>230</v>
+      </c>
+      <c r="D110" t="s">
+        <v>96</v>
+      </c>
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>252</v>
+      </c>
+      <c r="B111" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" t="s">
+        <v>231</v>
+      </c>
+      <c r="D111" t="s">
+        <v>98</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>252</v>
+      </c>
+      <c r="B112" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" t="s">
+        <v>232</v>
+      </c>
+      <c r="D112" t="s">
+        <v>97</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>252</v>
+      </c>
+      <c r="B113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" t="s">
+        <v>233</v>
+      </c>
+      <c r="D113" t="s">
+        <v>96</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>252</v>
+      </c>
+      <c r="B114" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114" t="s">
+        <v>234</v>
+      </c>
+      <c r="D114" t="s">
+        <v>97</v>
+      </c>
+      <c r="F114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>252</v>
+      </c>
+      <c r="B115" t="s">
+        <v>54</v>
+      </c>
+      <c r="C115" t="s">
+        <v>235</v>
+      </c>
+      <c r="D115" t="s">
+        <v>96</v>
+      </c>
+      <c r="F115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>252</v>
+      </c>
+      <c r="B116" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" t="s">
+        <v>236</v>
+      </c>
+      <c r="D116" t="s">
+        <v>96</v>
+      </c>
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>252</v>
+      </c>
+      <c r="B117" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" t="s">
+        <v>237</v>
+      </c>
+      <c r="D117" t="s">
+        <v>144</v>
+      </c>
+      <c r="F117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>252</v>
+      </c>
+      <c r="B118" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" t="s">
+        <v>238</v>
+      </c>
+      <c r="D118" t="s">
+        <v>144</v>
+      </c>
+      <c r="F118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>252</v>
+      </c>
+      <c r="B119" t="s">
+        <v>53</v>
+      </c>
+      <c r="C119" t="s">
+        <v>239</v>
+      </c>
+      <c r="D119" t="s">
+        <v>144</v>
+      </c>
+      <c r="F119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>252</v>
+      </c>
+      <c r="B120" t="s">
+        <v>57</v>
+      </c>
+      <c r="C120" t="s">
+        <v>240</v>
+      </c>
+      <c r="D120" t="s">
+        <v>144</v>
+      </c>
+      <c r="F120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>252</v>
+      </c>
+      <c r="B121" t="s">
+        <v>59</v>
+      </c>
+      <c r="C121" t="s">
+        <v>241</v>
+      </c>
+      <c r="D121" t="s">
+        <v>144</v>
+      </c>
+      <c r="F121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>252</v>
+      </c>
+      <c r="B122" t="s">
+        <v>45</v>
+      </c>
+      <c r="C122" t="s">
+        <v>242</v>
+      </c>
+      <c r="D122" t="s">
+        <v>144</v>
+      </c>
+      <c r="F122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>252</v>
+      </c>
+      <c r="B123" t="s">
+        <v>46</v>
+      </c>
+      <c r="C123" t="s">
+        <v>243</v>
+      </c>
+      <c r="D123" t="s">
+        <v>144</v>
+      </c>
+      <c r="F123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>252</v>
+      </c>
+      <c r="B124" t="s">
+        <v>45</v>
+      </c>
+      <c r="C124" t="s">
+        <v>244</v>
+      </c>
+      <c r="D124" t="s">
+        <v>144</v>
+      </c>
+      <c r="F124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>252</v>
+      </c>
+      <c r="B125" t="s">
+        <v>53</v>
+      </c>
+      <c r="C125" t="s">
+        <v>245</v>
+      </c>
+      <c r="D125" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>252</v>
+      </c>
+      <c r="B126" t="s">
+        <v>53</v>
+      </c>
+      <c r="C126" t="s">
+        <v>246</v>
+      </c>
+      <c r="D126" t="s">
+        <v>247</v>
+      </c>
+      <c r="F126" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" t="s">
+        <v>53</v>
+      </c>
+      <c r="C127" t="s">
+        <v>248</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" t="s">
+        <v>53</v>
+      </c>
+      <c r="C128" t="s">
+        <v>249</v>
+      </c>
+      <c r="D128" t="s">
+        <v>144</v>
+      </c>
+      <c r="F128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>252</v>
+      </c>
+      <c r="B129" t="s">
+        <v>52</v>
+      </c>
+      <c r="C129" t="s">
+        <v>250</v>
+      </c>
+      <c r="D129" t="s">
+        <v>144</v>
+      </c>
+      <c r="F129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>252</v>
+      </c>
+      <c r="B130" t="s">
+        <v>61</v>
+      </c>
+      <c r="C130" t="s">
+        <v>251</v>
+      </c>
+      <c r="D130" t="s">
+        <v>144</v>
+      </c>
+      <c r="F130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BD9FEF-152C-0D40-B0FB-02AFF5462054}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2189,7 +4803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D70695B-A5D1-1D46-A2D3-ADDA59DA0354}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2246,7 +4860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED08F8C1-6521-3B4A-929B-CA26D29A6630}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2483,10 +5097,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041A808B-2A1E-8F4E-937E-2F1B254DFF75}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2503,791 +5117,806 @@
     <col min="12" max="12" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3">
-        <v>2644</v>
-      </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3:C22" si="0">B3/J3</f>
-        <v>0.62698600901114532</v>
-      </c>
-      <c r="D3">
-        <v>579</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E22" si="1">D3/J3</f>
-        <v>0.13730139909888547</v>
-      </c>
-      <c r="F3">
-        <v>664</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G22" si="2">F3/J3</f>
-        <v>0.15745790846573393</v>
-      </c>
-      <c r="H3">
-        <v>330</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I22" si="3">H3/J3</f>
-        <v>7.8254683424235236E-2</v>
-      </c>
-      <c r="J3">
-        <v>4217</v>
-      </c>
+      <c r="I3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>2644</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C23" si="0">B4/J4</f>
+        <v>0.62698600901114532</v>
+      </c>
+      <c r="D4">
+        <v>579</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E23" si="1">D4/J4</f>
+        <v>0.13730139909888547</v>
+      </c>
+      <c r="F4">
+        <v>664</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G23" si="2">F4/J4</f>
+        <v>0.15745790846573393</v>
+      </c>
+      <c r="H4">
+        <v>330</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I23" si="3">H4/J4</f>
+        <v>7.8254683424235236E-2</v>
+      </c>
+      <c r="J4">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>45</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>14527</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>0.36227836105638545</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>10625</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <f t="shared" si="1"/>
         <v>0.26496920122696327</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>12012</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G5" s="1">
         <f t="shared" si="2"/>
         <v>0.29955859248360306</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>2935</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I5" s="1">
         <f t="shared" si="3"/>
         <v>7.3193845233048199E-2</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>40099</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>46</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>2169</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>0.57244655581947745</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>687</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <f t="shared" si="1"/>
         <v>0.18131433095803642</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>764</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6" s="1">
         <f t="shared" si="2"/>
         <v>0.20163631565056744</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>169</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I6" s="1">
         <f t="shared" si="3"/>
         <v>4.4602797571918713E-2</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>3789</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>4585</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>0.50356946732564523</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>2083</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <f t="shared" si="1"/>
         <v>0.22877539813289402</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>2003</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G7" s="1">
         <f t="shared" si="2"/>
         <v>0.2199890170236134</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>434</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I7" s="1">
         <f t="shared" si="3"/>
         <v>4.7666117517847335E-2</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>9105</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>1598</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>0.54243041412084181</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>456</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
         <v>0.15478615071283094</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>741</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="1">
         <f t="shared" si="2"/>
         <v>0.2515274949083503</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>151</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I8" s="1">
         <f t="shared" si="3"/>
         <v>5.1255940257976917E-2</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>2946</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>49</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>2069</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>0.5210274490052883</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>625</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
         <v>0.15739108536892471</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>966</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="1">
         <f t="shared" si="2"/>
         <v>0.24326366154621001</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>311</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I9" s="1">
         <f t="shared" si="3"/>
         <v>7.8317804079576933E-2</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>3971</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>616</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>0.47022900763358777</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>284</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
         <v>0.21679389312977099</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>354</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G10" s="1">
         <f t="shared" si="2"/>
         <v>0.27022900763358776</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>56</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I10" s="1">
         <f t="shared" si="3"/>
         <v>4.2748091603053436E-2</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>1310</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>1466</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>0.50761772853185594</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>531</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
         <v>0.18386426592797783</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>688</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G11" s="1">
         <f t="shared" si="2"/>
         <v>0.23822714681440443</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>203</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I11" s="1">
         <f t="shared" si="3"/>
         <v>7.0290858725761768E-2</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>2888</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>5332</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>0.5181226314255174</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>2152</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
         <v>0.20911476047031385</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>2103</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G12" s="1">
         <f t="shared" si="2"/>
         <v>0.20435331843358273</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>704</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I12" s="1">
         <f t="shared" si="3"/>
         <v>6.8409289670585946E-2</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>10291</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>44930</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>0.35852790500965542</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>29836</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
         <v>0.23808231858152859</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>34529</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G13" s="1">
         <f t="shared" si="2"/>
         <v>0.2755310490113152</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>16023</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I13" s="1">
         <f t="shared" si="3"/>
         <v>0.12785872739750076</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>125318</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>4463</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>0.4774283269148481</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>2301</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <f t="shared" si="1"/>
         <v>0.24614890885750962</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>2283</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G14" s="1">
         <f t="shared" si="2"/>
         <v>0.24422336328626446</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>301</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I14" s="1">
         <f t="shared" si="3"/>
         <v>3.2199400941377833E-2</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>9348</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>55</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>2369</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>0.54623011298132351</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>1051</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <f t="shared" si="1"/>
         <v>0.24233341019137652</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>673</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G15" s="1">
         <f t="shared" si="2"/>
         <v>0.15517638920913074</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>244</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I15" s="1">
         <f t="shared" si="3"/>
         <v>5.6260087618169238E-2</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>4337</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>2322</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>0.49849720910261913</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>900</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
         <f t="shared" si="1"/>
         <v>0.19321597252039502</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>1231</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G16" s="1">
         <f t="shared" si="2"/>
         <v>0.26427651352511805</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>205</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I16" s="1">
         <f t="shared" si="3"/>
         <v>4.4010304851867757E-2</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>4658</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>57</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>1619</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>0.47366881217086015</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>929</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <f t="shared" si="1"/>
         <v>0.27179637214745467</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>733</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G17" s="1">
         <f t="shared" si="2"/>
         <v>0.21445289643066121</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>137</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I17" s="1">
         <f t="shared" si="3"/>
         <v>4.0081919251023994E-2</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>3418</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>59</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>6928</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>0.66911338613096383</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>1801</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E18" s="1">
         <f t="shared" si="1"/>
         <v>0.17394243770523468</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>1358</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G18" s="1">
         <f t="shared" si="2"/>
         <v>0.13115704075719528</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>267</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I18" s="1">
         <f t="shared" si="3"/>
         <v>2.5787135406606144E-2</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>10354</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>58</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>3665</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>0.50530814835240589</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>1581</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <f t="shared" si="1"/>
         <v>0.21797876740659039</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>1569</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
         <v>0.21632427960843789</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>438</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I19" s="1">
         <f t="shared" si="3"/>
         <v>6.0388804632565837E-2</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>7253</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>60</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>2842</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>0.56931089743589747</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>896</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E20" s="1">
         <f t="shared" si="1"/>
         <v>0.17948717948717949</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>999</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G20" s="1">
         <f t="shared" si="2"/>
         <v>0.20012019230769232</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>255</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I20" s="1">
         <f t="shared" si="3"/>
         <v>5.1081730769230768E-2</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <v>4992</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>2459</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>0.46766831494864969</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>1204</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <f t="shared" si="1"/>
         <v>0.22898440471662229</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>1163</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G21" s="1">
         <f t="shared" si="2"/>
         <v>0.22118676302776721</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>432</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I21" s="1">
         <f t="shared" si="3"/>
         <v>8.216051730696082E-2</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>5258</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>1520</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>0.61939690301548489</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>369</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <f t="shared" si="1"/>
         <v>0.15036674816625917</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>446</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G22" s="1">
         <f t="shared" si="2"/>
         <v>0.18174409127954361</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>119</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I22" s="1">
         <f t="shared" si="3"/>
         <v>4.8492257538712308E-2</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>2454</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="B22">
-        <f>SUM(B3:B21)</f>
+      <c r="B23">
+        <f>SUM(B4:B22)</f>
         <v>108123</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>0.4223455700257025</v>
       </c>
-      <c r="D22">
-        <f>SUM(D3:D21)</f>
+      <c r="D23">
+        <f>SUM(D4:D22)</f>
         <v>58890</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <f t="shared" si="1"/>
         <v>0.23003367108583392</v>
       </c>
-      <c r="F22">
-        <f>SUM(F3:F21)</f>
+      <c r="F23">
+        <f>SUM(F4:F22)</f>
         <v>65279</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G23" s="1">
         <f t="shared" si="2"/>
         <v>0.25499011741912297</v>
       </c>
-      <c r="H22">
-        <f>SUM(H3:H21)</f>
+      <c r="H23">
+        <f>SUM(H4:H22)</f>
         <v>23714</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I23" s="1">
         <f t="shared" si="3"/>
         <v>9.2630641469340566E-2</v>
       </c>
-      <c r="J22">
-        <f>SUM(J3:J21)</f>
+      <c r="J23">
+        <f>SUM(J4:J22)</f>
         <v>256006</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:J2"/>
+  <mergeCells count="7">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3295,10 +5924,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA55DBA9-FFFE-C446-A138-BD6B4356846B}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3314,943 +5943,960 @@
     <col min="12" max="12" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="8" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="I3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3">
-        <v>8708</v>
-      </c>
-      <c r="C3" s="3">
-        <f t="shared" ref="C3:C22" si="0">B3/L3</f>
-        <v>0.55788327247101033</v>
-      </c>
-      <c r="D3">
-        <v>1944</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E22" si="1">D3/L3</f>
-        <v>0.12454353257735921</v>
-      </c>
-      <c r="F3">
-        <v>4823</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G22" si="2">F3/L3</f>
-        <v>0.30898840412582484</v>
-      </c>
-      <c r="H3">
-        <v>112</v>
-      </c>
-      <c r="I3" s="3">
-        <f t="shared" ref="I3:I22" si="3">H3/L3</f>
-        <v>7.1753475558972392E-3</v>
-      </c>
-      <c r="J3">
-        <v>22</v>
-      </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K22" si="4">J3/L3</f>
-        <v>1.4094432699083862E-3</v>
-      </c>
-      <c r="L3">
-        <v>15609</v>
-      </c>
+      <c r="K3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>8708</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C23" si="0">B4/L4</f>
+        <v>0.55788327247101033</v>
+      </c>
+      <c r="D4">
+        <v>1944</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E23" si="1">D4/L4</f>
+        <v>0.12454353257735921</v>
+      </c>
+      <c r="F4">
+        <v>4823</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G23" si="2">F4/L4</f>
+        <v>0.30898840412582484</v>
+      </c>
+      <c r="H4">
+        <v>112</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I23" si="3">H4/L4</f>
+        <v>7.1753475558972392E-3</v>
+      </c>
+      <c r="J4">
+        <v>22</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" ref="K4:K23" si="4">J4/L4</f>
+        <v>1.4094432699083862E-3</v>
+      </c>
+      <c r="L4">
+        <v>15609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>45</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>40844</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>0.65568612341873755</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>13073</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="3">
         <f t="shared" si="1"/>
         <v>0.20986643549733514</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>6981</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <f t="shared" si="2"/>
         <v>0.11206896551724138</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>1257</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I5" s="3">
         <f t="shared" si="3"/>
         <v>2.0179156231939895E-2</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>137</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K5" s="5">
         <f t="shared" si="4"/>
         <v>2.1993193347460346E-3</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>62292</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>46</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>5430</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>0.21235823230348064</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>4185</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="3">
         <f t="shared" si="1"/>
         <v>0.16366836136096988</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>1213</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="3">
         <f t="shared" si="2"/>
         <v>4.743840438013297E-2</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>14737</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I6" s="3">
         <f t="shared" si="3"/>
         <v>0.57633946030504501</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K6" s="5">
         <f t="shared" si="4"/>
         <v>1.9554165037152912E-4</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>25570</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>12140</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>0.53697806086341116</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>3416</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="3">
         <f t="shared" si="1"/>
         <v>0.15109695682944091</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>5391</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="3">
         <f t="shared" si="2"/>
         <v>0.23845541401273884</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>1485</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I7" s="3">
         <f t="shared" si="3"/>
         <v>6.5684713375796178E-2</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>176</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K7" s="5">
         <f t="shared" si="4"/>
         <v>7.7848549186128801E-3</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>22608</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>9026</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>0.59043631844050504</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>4217</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
         <v>0.27585530189049517</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>1838</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="3">
         <f t="shared" si="2"/>
         <v>0.12023287760842546</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>190</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I8" s="3">
         <f t="shared" si="3"/>
         <v>1.2428861123830705E-2</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>16</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K8" s="5">
         <f t="shared" si="4"/>
         <v>1.0466409367436383E-3</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>15287</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>49</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>10207</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>0.70112652836928147</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>3422</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>0.23505976095617531</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>815</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="3">
         <f t="shared" si="2"/>
         <v>5.5982964692952331E-2</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>36</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I9" s="3">
         <f t="shared" si="3"/>
         <v>2.4728671520813299E-3</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>78</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K9" s="5">
         <f t="shared" si="4"/>
         <v>5.3578788295095478E-3</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>14558</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>3617</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>0.57816496163682862</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>1731</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>0.27669437340153452</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>825</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <f t="shared" si="2"/>
         <v>0.13187340153452684</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>78</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I10" s="3">
         <f t="shared" si="3"/>
         <v>1.2468030690537084E-2</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>5</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K10" s="5">
         <f t="shared" si="4"/>
         <v>7.9923273657289001E-4</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>6256</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>7247</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>0.562087954704103</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>2523</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <f t="shared" si="1"/>
         <v>0.19568758240905917</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>2877</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="3">
         <f t="shared" si="2"/>
         <v>0.22314434189094859</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>218</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I11" s="3">
         <f t="shared" si="3"/>
         <v>1.690839990692624E-2</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>28</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K11" s="5">
         <f t="shared" si="4"/>
         <v>2.1717210889630034E-3</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>12893</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>14396</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>0.44160863830178843</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>5460</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="3">
         <f t="shared" si="1"/>
         <v>0.16748980030062272</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>1655</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="3">
         <f t="shared" si="2"/>
         <v>5.0768428479401211E-2</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>10990</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I12" s="3">
         <f t="shared" si="3"/>
         <v>0.33712690573330473</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>98</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K12" s="5">
         <f t="shared" si="4"/>
         <v>3.006227184882972E-3</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>32599</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>71723</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>0.62804178597385307</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>24468</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <f t="shared" si="1"/>
         <v>0.21425381564084378</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>15827</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="3">
         <f t="shared" si="2"/>
         <v>0.13858897908074361</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>1456</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I13" s="3">
         <f t="shared" si="3"/>
         <v>1.2749450530205516E-2</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>727</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K13" s="5">
         <f t="shared" si="4"/>
         <v>6.3659687743539903E-3</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>114201</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>5686</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>0.25355629877369007</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>3451</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <f t="shared" si="1"/>
         <v>0.15389074693422519</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>13164</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="3">
         <f t="shared" si="2"/>
         <v>0.58702341137123748</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>10</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I14" s="3">
         <f t="shared" si="3"/>
         <v>4.4593088071348942E-4</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>114</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K14" s="5">
         <f t="shared" si="4"/>
         <v>5.0836120401337795E-3</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>22425</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>55</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>4056</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>0.45192200557103063</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>2111</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="3">
         <f t="shared" si="1"/>
         <v>0.23520891364902508</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>2768</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="3">
         <f t="shared" si="2"/>
         <v>0.30841225626740948</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>25</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I15" s="3">
         <f t="shared" si="3"/>
         <v>2.7855153203342618E-3</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>15</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K15" s="5">
         <f t="shared" si="4"/>
         <v>1.6713091922005571E-3</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>8975</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>7275</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>0.63877425586091841</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>2472</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="3">
         <f t="shared" si="1"/>
         <v>0.21705154096057599</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>1539</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G16" s="3">
         <f t="shared" si="2"/>
         <v>0.1351303889718149</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>80</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I16" s="3">
         <f t="shared" si="3"/>
         <v>7.0243217139344984E-3</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>23</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K16" s="5">
         <f t="shared" si="4"/>
         <v>2.0194924927561682E-3</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>11389</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>57</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>6411</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <f t="shared" si="0"/>
         <v>0.48804811205846527</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>4740</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <f t="shared" si="1"/>
         <v>0.36084043848964675</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>1396</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <f t="shared" si="2"/>
         <v>0.10627283800243606</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>524</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <f t="shared" si="3"/>
         <v>3.9890377588306943E-2</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>65</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K17" s="5">
         <f t="shared" si="4"/>
         <v>4.9482338611449451E-3</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <v>13136</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>59</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>7088</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <f t="shared" si="0"/>
         <v>0.52903418420659798</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>3673</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="3">
         <f t="shared" si="1"/>
         <v>0.27414539483505002</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>2322</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="3">
         <f t="shared" si="2"/>
         <v>0.17330944917151814</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>233</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I18" s="3">
         <f t="shared" si="3"/>
         <v>1.7390655321689805E-2</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>82</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K18" s="5">
         <f t="shared" si="4"/>
         <v>6.1203164651440515E-3</v>
       </c>
-      <c r="L17">
+      <c r="L18">
         <v>13398</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>58</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>11106</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <f t="shared" si="0"/>
         <v>0.64920792657976267</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>2738</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <f t="shared" si="1"/>
         <v>0.16005144093061319</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>2915</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="3">
         <f t="shared" si="2"/>
         <v>0.17039808265622261</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>327</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I19" s="3">
         <f t="shared" si="3"/>
         <v>1.9114982171041094E-2</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>21</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K19" s="5">
         <f t="shared" si="4"/>
         <v>1.2275676623604373E-3</v>
       </c>
-      <c r="L18">
+      <c r="L19">
         <v>17107</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>60</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>6047</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <f t="shared" si="0"/>
         <v>0.38592124577190628</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>4540</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="3">
         <f t="shared" si="1"/>
         <v>0.28974408066883656</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>4803</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" s="3">
         <f t="shared" si="2"/>
         <v>0.30652881485736166</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>253</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I20" s="3">
         <f t="shared" si="3"/>
         <v>1.6146531367668644E-2</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <v>26</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K20" s="5">
         <f t="shared" si="4"/>
         <v>1.6593273342268174E-3</v>
       </c>
-      <c r="L19">
+      <c r="L20">
         <v>15669</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>8701</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>0.45602725366876312</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>4158</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <f t="shared" si="1"/>
         <v>0.2179245283018868</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>4716</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <f t="shared" si="2"/>
         <v>0.24716981132075472</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>1468</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I21" s="3">
         <f t="shared" si="3"/>
         <v>7.69392033542977E-2</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>37</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K21" s="5">
         <f t="shared" si="4"/>
         <v>1.9392033542976939E-3</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>19080</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>4940</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>0.40244399185336049</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>2076</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="3">
         <f t="shared" si="1"/>
         <v>0.16912423625254583</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>4394</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="3">
         <f t="shared" si="2"/>
         <v>0.3579633401221996</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>835</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I22" s="3">
         <f t="shared" si="3"/>
         <v>6.8024439918533602E-2</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>30</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K22" s="5">
         <f t="shared" si="4"/>
         <v>2.443991853360489E-3</v>
       </c>
-      <c r="L21">
+      <c r="L22">
         <v>12275</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="B22">
-        <f>SUM(B3:B21)</f>
+      <c r="B23">
+        <f>SUM(B4:B22)</f>
         <v>244648</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <f t="shared" si="0"/>
         <v>0.53730176334809931</v>
       </c>
-      <c r="D22">
-        <f>SUM(D3:D21)</f>
+      <c r="D23">
+        <f>SUM(D4:D22)</f>
         <v>94398</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="3">
         <f t="shared" si="1"/>
         <v>0.20731913547845834</v>
       </c>
-      <c r="F22">
-        <f>SUM(F3:F21)</f>
+      <c r="F23">
+        <f>SUM(F4:F22)</f>
         <v>80262</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G23" s="3">
         <f t="shared" si="2"/>
         <v>0.17627331566105239</v>
       </c>
-      <c r="H22">
-        <f>SUM(H3:H21)</f>
+      <c r="H23">
+        <f>SUM(H4:H22)</f>
         <v>34314</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I23" s="3">
         <f t="shared" si="3"/>
         <v>7.5361223911606379E-2</v>
       </c>
-      <c r="J22">
-        <f>SUM(J3:J21)</f>
+      <c r="J23">
+        <f>SUM(J4:J22)</f>
         <v>1705</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K23" s="5">
         <f t="shared" si="4"/>
         <v>3.7445616007836125E-3</v>
       </c>
-      <c r="L22">
-        <f>SUM(L3:L21)</f>
+      <c r="L23">
+        <f>SUM(L4:L22)</f>
         <v>455327</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D1:E1"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4258,10 +6904,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6C17F0-415D-664A-A750-5A637C994158}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4278,791 +6924,806 @@
     <col min="12" max="12" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3">
-        <v>820</v>
-      </c>
-      <c r="C3" s="3">
-        <f t="shared" ref="C3:C22" si="0">B3/J3</f>
-        <v>0.29528267915016204</v>
-      </c>
-      <c r="D3">
-        <v>1360</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E22" si="1">D3/J3</f>
-        <v>0.48973712639539069</v>
-      </c>
-      <c r="F3">
-        <v>597</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G22" si="2">F3/J3</f>
-        <v>0.21498019445444724</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <f>H3/J3</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>2777</v>
-      </c>
+      <c r="I3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>820</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C23" si="0">B4/J4</f>
+        <v>0.29528267915016204</v>
+      </c>
+      <c r="D4">
+        <v>1360</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E23" si="1">D4/J4</f>
+        <v>0.48973712639539069</v>
+      </c>
+      <c r="F4">
+        <v>597</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G23" si="2">F4/J4</f>
+        <v>0.21498019445444724</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <f>H4/J4</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>45</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>11678</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>0.55025208500212031</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>6513</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="3">
         <f t="shared" si="1"/>
         <v>0.30688404089902466</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>3002</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <f t="shared" si="2"/>
         <v>0.14145031333930169</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>30</v>
       </c>
-      <c r="I4" s="3">
-        <f t="shared" ref="I4:I22" si="3">H4/J4</f>
+      <c r="I5" s="3">
+        <f t="shared" ref="I5:I23" si="3">H5/J5</f>
         <v>1.4135607595533149E-3</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>21223</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>46</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>857</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>0.46199460916442048</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>944</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="3">
         <f t="shared" si="1"/>
         <v>0.50889487870619943</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>54</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="3">
         <f t="shared" si="2"/>
         <v>2.9110512129380053E-2</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>1855</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>5078</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>0.63104262458058902</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>1714</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="3">
         <f t="shared" si="1"/>
         <v>0.21299863303094321</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>1247</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="3">
         <f t="shared" si="2"/>
         <v>0.15496458307443767</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>8</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I7" s="3">
         <f t="shared" si="3"/>
         <v>9.9415931403007331E-4</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>8047</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>1556</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>0.47935921133703019</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>1487</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
         <v>0.45810227972889711</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>203</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="3">
         <f t="shared" si="2"/>
         <v>6.2538508934072701E-2</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>3246</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>49</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>2426</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>0.6257415527469693</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>732</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>0.18880577766314161</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>719</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="3">
         <f t="shared" si="2"/>
         <v>0.1854526695898891</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>3877</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>1023</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>0.48414576431613821</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>648</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>0.30667297681022243</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>442</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <f t="shared" si="2"/>
         <v>0.20918125887363936</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>2113</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>1970</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>0.46748932130991933</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>2038</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <f t="shared" si="1"/>
         <v>0.48362600854295207</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>206</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="3">
         <f t="shared" si="2"/>
         <v>4.888467014712862E-2</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>4214</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>4037</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>0.50443583656128954</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>3502</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="3">
         <f t="shared" si="1"/>
         <v>0.43758590528551794</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>464</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="3">
         <f t="shared" si="2"/>
         <v>5.7978258153192554E-2</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>8003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>46704</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>0.68608699484377067</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>18216</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <f t="shared" si="1"/>
         <v>0.26759508175047375</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>3036</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="3">
         <f t="shared" si="2"/>
         <v>4.4599180291745623E-2</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>117</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I13" s="3">
         <f t="shared" si="3"/>
         <v>1.7187431140099599E-3</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>68073</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>2381</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>0.48731068358575524</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>2192</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <f t="shared" si="1"/>
         <v>0.44862873516168644</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>313</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="3">
         <f t="shared" si="2"/>
         <v>6.4060581252558327E-2</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>4886</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>55</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>2714</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>0.69625448948178548</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>979</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="3">
         <f t="shared" si="1"/>
         <v>0.25115443817342226</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>201</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="3">
         <f t="shared" si="2"/>
         <v>5.1564905079527962E-2</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I15" s="3">
         <f t="shared" si="3"/>
         <v>1.026167265264238E-3</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>3898</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>1650</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>0.53886348791639449</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>1229</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="3">
         <f t="shared" si="1"/>
         <v>0.40137165251469625</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>183</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G16" s="3">
         <f t="shared" si="2"/>
         <v>5.9764859568909208E-2</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>3062</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>57</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>1785</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <f t="shared" si="0"/>
         <v>0.12247838616714697</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>8907</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <f t="shared" si="1"/>
         <v>0.61115685467270486</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>3882</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <f t="shared" si="2"/>
         <v>0.26636475916014823</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>14574</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>59</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>3350</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <f t="shared" si="0"/>
         <v>0.22065604004742459</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>2364</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="3">
         <f t="shared" si="1"/>
         <v>0.15571071005137663</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>9454</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="3">
         <f t="shared" si="2"/>
         <v>0.62271110525622453</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>14</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I18" s="3">
         <f t="shared" si="3"/>
         <v>9.2214464497431166E-4</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>15182</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>58</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>3145</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <f t="shared" si="0"/>
         <v>0.68399304045237064</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>1296</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <f t="shared" si="1"/>
         <v>0.28186167899086562</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>157</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="3">
         <f t="shared" si="2"/>
         <v>3.4145280556763809E-2</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>4598</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>60</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>2889</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <f t="shared" si="0"/>
         <v>0.56591576885406469</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>2015</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="3">
         <f t="shared" si="1"/>
         <v>0.39471106758080315</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>137</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" s="3">
         <f t="shared" si="2"/>
         <v>2.683643486777669E-2</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>64</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I20" s="3">
         <f t="shared" si="3"/>
         <v>1.2536728697355533E-2</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <v>5105</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>2921</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>0.46438791732909379</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>3257</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <f t="shared" si="1"/>
         <v>0.51780604133545305</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>112</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <f t="shared" si="2"/>
         <v>1.7806041335453101E-2</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>6290</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>744</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>0.40924092409240925</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>1034</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="3">
         <f t="shared" si="1"/>
         <v>0.56875687568756872</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>40</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="3">
         <f t="shared" si="2"/>
         <v>2.2002200220022004E-2</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>1818</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="B22">
-        <f>SUM(B3:B21)</f>
+      <c r="B23">
+        <f>SUM(B4:B22)</f>
         <v>97728</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <f t="shared" si="0"/>
         <v>0.53449718607970864</v>
       </c>
-      <c r="D22">
-        <f>SUM(D3:D21)</f>
+      <c r="D23">
+        <f>SUM(D4:D22)</f>
         <v>60427</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="3">
         <f t="shared" si="1"/>
         <v>0.33048933226136368</v>
       </c>
-      <c r="F22">
-        <f>SUM(F3:F21)</f>
+      <c r="F23">
+        <f>SUM(F4:F22)</f>
         <v>24449</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G23" s="3">
         <f t="shared" si="2"/>
         <v>0.13371727347804924</v>
       </c>
-      <c r="H22">
-        <f>SUM(H3:H21)</f>
+      <c r="H23">
+        <f>SUM(H4:H22)</f>
         <v>237</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I23" s="3">
         <f t="shared" si="3"/>
         <v>1.2962081808784681E-3</v>
       </c>
-      <c r="J22">
-        <f t="shared" ref="J22" si="4">SUM(J3:J21)</f>
+      <c r="J23">
+        <f t="shared" ref="J23" si="4">SUM(J4:J22)</f>
         <v>182841</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5072,8 +7733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7D0C7A-41FB-EF49-814D-F7088EB65B84}">
   <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5111,176 +7772,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="12"/>
+      <c r="N1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8" t="s">
+      <c r="O1" s="12"/>
+      <c r="P1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8" t="s">
+      <c r="U1" s="12"/>
+      <c r="V1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8" t="s">
+      <c r="W1" s="12"/>
+      <c r="X1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8" t="s">
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8" t="s">
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="10" t="s">
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AG1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AD2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AF2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH2" s="4" t="s">
         <v>27</v>
@@ -5344,16 +8005,16 @@
         <v>358</v>
       </c>
       <c r="Q3" s="3">
-        <f>SUM(U3,W3,Y3,AA3)</f>
-        <v>6.1535288253291628E-3</v>
+        <f>P3/AF3</f>
+        <v>6.1535288253291619E-3</v>
       </c>
       <c r="R3" s="6">
         <f>SUM(AB3,AD3)</f>
         <v>1182</v>
       </c>
       <c r="S3" s="3">
-        <f>SUM(AC3,AE3)</f>
-        <v>2.031695830038846E-2</v>
+        <f>R3/AF3</f>
+        <v>2.0316958300388464E-2</v>
       </c>
       <c r="T3">
         <v>15</v>
@@ -5466,15 +8127,15 @@
         <v>7557</v>
       </c>
       <c r="Q4" s="3">
-        <f t="shared" ref="Q4:Q22" si="11">SUM(U4,W4,Y4,AA4)</f>
-        <v>2.0315444523002393E-2</v>
+        <f t="shared" ref="Q4:Q22" si="11">P4/AF4</f>
+        <v>2.0315444523002397E-2</v>
       </c>
       <c r="R4" s="6">
         <f t="shared" ref="R4:R22" si="12">SUM(AB4,AD4)</f>
         <v>14213</v>
       </c>
       <c r="S4" s="3">
-        <f t="shared" ref="S4:S22" si="13">SUM(AC4,AE4)</f>
+        <f t="shared" ref="S4:S22" si="13">R4/AF4</f>
         <v>3.8208735345432454E-2</v>
       </c>
       <c r="T4">
@@ -5597,7 +8258,7 @@
       </c>
       <c r="S5" s="3">
         <f t="shared" si="13"/>
-        <v>2.4145858334658703E-2</v>
+        <v>2.4145858334658706E-2</v>
       </c>
       <c r="T5">
         <v>18</v>
@@ -5955,7 +8616,7 @@
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="11"/>
-        <v>1.6816447570656201E-2</v>
+        <v>1.6816447570656205E-2</v>
       </c>
       <c r="R8" s="6">
         <f t="shared" si="12"/>
@@ -6199,7 +8860,7 @@
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="11"/>
-        <v>9.8117700186793125E-3</v>
+        <v>9.8117700186793107E-3</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" si="12"/>
@@ -6443,7 +9104,7 @@
       </c>
       <c r="Q12" s="3">
         <f t="shared" si="11"/>
-        <v>2.6541019741812284E-2</v>
+        <v>2.6541019741812288E-2</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" si="12"/>
@@ -6565,7 +9226,7 @@
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="11"/>
-        <v>1.4671762741120167E-2</v>
+        <v>1.4671762741120165E-2</v>
       </c>
       <c r="R13" s="6">
         <f t="shared" si="12"/>
@@ -6695,7 +9356,7 @@
       </c>
       <c r="S14" s="3">
         <f t="shared" si="13"/>
-        <v>2.6981251911270022E-2</v>
+        <v>2.6981251911270026E-2</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -7053,7 +9714,7 @@
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="11"/>
-        <v>7.7657992951523525E-3</v>
+        <v>7.7657992951523534E-3</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="12"/>
@@ -7297,7 +9958,7 @@
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="11"/>
-        <v>1.1721070398864112E-2</v>
+        <v>1.1721070398864114E-2</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" si="12"/>
@@ -7305,7 +9966,7 @@
       </c>
       <c r="S19" s="3">
         <f t="shared" si="13"/>
-        <v>2.8614479651120676E-2</v>
+        <v>2.8614479651120673E-2</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -7419,7 +10080,7 @@
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="11"/>
-        <v>1.0298551265974759E-2</v>
+        <v>1.0298551265974761E-2</v>
       </c>
       <c r="R20" s="6">
         <f t="shared" si="12"/>
@@ -7663,7 +10324,7 @@
       </c>
       <c r="Q22" s="3">
         <f t="shared" si="11"/>
-        <v>1.9002550566366821E-2</v>
+        <v>1.9002550566366825E-2</v>
       </c>
       <c r="R22" s="6">
         <f t="shared" si="12"/>
@@ -7671,7 +10332,7 @@
       </c>
       <c r="S22" s="3">
         <f t="shared" si="13"/>
-        <v>2.9713226496861353E-2</v>
+        <v>2.9713226496861356E-2</v>
       </c>
       <c r="T22">
         <v>1387</v>
@@ -7754,7 +10415,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7766,29 +10427,29 @@
     <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2">
         <v>309307</v>
@@ -7796,14 +10457,14 @@
       <c r="D2" s="3">
         <v>0.32580031515437508</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="14">
         <v>0.38490000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="12"/>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>234909</v>
@@ -7811,12 +10472,12 @@
       <c r="D3" s="3">
         <v>0.24743515740865579</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="12"/>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>172471</v>
@@ -7824,12 +10485,12 @@
       <c r="D4" s="3">
         <v>0.18166774807873803</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="12"/>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <v>123520</v>
@@ -7837,12 +10498,12 @@
       <c r="D5" s="3">
         <v>0.1301065120668734</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="12"/>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>96391</v>
@@ -7850,12 +10511,12 @@
       <c r="D6" s="3">
         <v>0.10153090029661588</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="12"/>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>41836</v>
@@ -7863,14 +10524,14 @@
       <c r="D7" s="3">
         <v>4.4066839692598087E-2</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>471975</v>
@@ -7878,14 +10539,14 @@
       <c r="D8" s="3">
         <v>0.67768489429278689</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="14">
         <v>0.2823</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="12"/>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9">
         <v>143532</v>
@@ -7893,12 +10554,12 @@
       <c r="D9" s="3">
         <v>0.20609029768024215</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="12"/>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10">
         <v>108750</v>
@@ -7906,14 +10567,14 @@
       <c r="D10" s="3">
         <v>0.15614859315502003</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11">
         <v>141159</v>
@@ -7921,14 +10582,14 @@
       <c r="D11" s="3">
         <v>0.47025255099491298</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="14">
         <v>0.1217</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="12"/>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12">
         <v>119859</v>
@@ -7936,12 +10597,12 @@
       <c r="D12" s="3">
         <v>0.39929441629438633</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="12"/>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13">
         <v>44598</v>
@@ -7949,7 +10610,7 @@
       <c r="D13" s="3">
         <v>0.14857234231803237</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7966,10 +10627,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6B12CA-3570-7149-A147-2D29312251E5}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7979,29 +10640,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>102</v>
+      <c r="G1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -8567,6 +11228,11 @@
       <c r="H21">
         <f t="shared" si="1"/>
         <v>74468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -8576,1100 +11242,1133 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C4D943-BE71-4448-9C66-01B0201E982A}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="17" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="17" style="3" customWidth="1"/>
-    <col min="6" max="7" width="13.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="7" width="11.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2">
-        <v>19800</v>
-      </c>
-      <c r="C2" s="3">
-        <f>B2/L2</f>
-        <v>0.34202798410779062</v>
-      </c>
-      <c r="D2">
-        <v>34958</v>
-      </c>
-      <c r="E2" s="3">
-        <f>D2/L2</f>
-        <v>0.60386940749697704</v>
-      </c>
-      <c r="F2" s="6">
-        <f>SUM(H2,J2)</f>
-        <v>1417</v>
-      </c>
-      <c r="G2" s="3">
-        <f>SUM(I2,K2)</f>
-        <v>2.4477457246501987E-2</v>
-      </c>
-      <c r="H2">
-        <v>671</v>
-      </c>
-      <c r="I2" s="3">
-        <f>H2/L2</f>
-        <v>1.1590948350319572E-2</v>
-      </c>
-      <c r="J2">
-        <v>746</v>
-      </c>
-      <c r="K2" s="3">
-        <f>J2/L2</f>
-        <v>1.2886508896182414E-2</v>
-      </c>
-      <c r="L2">
-        <v>57890</v>
-      </c>
-      <c r="M2" s="3">
-        <f>L2/N2</f>
-        <v>0.89534002505529175</v>
-      </c>
-      <c r="N2">
-        <v>64657</v>
+      <c r="D2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>189577</v>
+        <v>19800</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C21" si="0">B3/L3</f>
-        <v>0.50906410528379198</v>
+        <f>B3/L3</f>
+        <v>0.34202798410779062</v>
       </c>
       <c r="D3">
-        <v>165350</v>
+        <v>34958</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E21" si="1">D3/L3</f>
-        <v>0.44400823838690878</v>
+        <f>D3/L3</f>
+        <v>0.60386940749697704</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F21" si="2">SUM(H3,J3)</f>
-        <v>14692</v>
+        <f>SUM(H3,J3)</f>
+        <v>1417</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G21" si="3">SUM(I3,K3)</f>
-        <v>3.9451884114789629E-2</v>
+        <f>F3/L3</f>
+        <v>2.4477457246501987E-2</v>
       </c>
       <c r="H3">
-        <v>6006</v>
+        <v>671</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I21" si="4">H3/L3</f>
-        <v>1.6127689626560474E-2</v>
+        <f>H3/L3</f>
+        <v>1.1590948350319572E-2</v>
       </c>
       <c r="J3">
-        <v>8686</v>
+        <v>746</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K21" si="5">J3/L3</f>
-        <v>2.3324194488229151E-2</v>
+        <f>J3/L3</f>
+        <v>1.2886508896182414E-2</v>
       </c>
       <c r="L3">
-        <v>372403</v>
+        <v>57890</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M21" si="6">L3/N3</f>
-        <v>0.90522444475234143</v>
+        <f>L3/N3</f>
+        <v>0.89534002505529175</v>
       </c>
       <c r="N3">
-        <v>411393</v>
+        <v>64657</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>189577</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C22" si="0">B4/L4</f>
+        <v>0.50906410528379198</v>
+      </c>
+      <c r="D4">
+        <v>165350</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E22" si="1">D4/L4</f>
+        <v>0.44400823838690878</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F22" si="2">SUM(H4,J4)</f>
+        <v>14692</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G22" si="3">F4/L4</f>
+        <v>3.9451884114789622E-2</v>
+      </c>
+      <c r="H4">
+        <v>6006</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I22" si="4">H4/L4</f>
+        <v>1.6127689626560474E-2</v>
+      </c>
+      <c r="J4">
+        <v>8686</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:K22" si="5">J4/L4</f>
+        <v>2.3324194488229151E-2</v>
+      </c>
+      <c r="L4">
+        <v>372403</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" ref="M4:M22" si="6">L4/N4</f>
+        <v>0.90522444475234143</v>
+      </c>
+      <c r="N4">
+        <v>411393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>26466</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>0.3833707539653799</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>38620</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="3">
         <f t="shared" si="1"/>
         <v>0.55942637792424132</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F5" s="6">
         <f t="shared" si="2"/>
         <v>2135</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <f t="shared" si="3"/>
-        <v>3.0926341710726446E-2</v>
-      </c>
-      <c r="H4">
+        <v>3.0926341710726443E-2</v>
+      </c>
+      <c r="H5">
         <v>1052</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I5" s="3">
         <f t="shared" si="4"/>
         <v>1.5238647063083944E-2</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>1083</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K5" s="3">
         <f t="shared" si="5"/>
         <v>1.5687694647642501E-2</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>69035</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M5" s="3">
         <f t="shared" si="6"/>
         <v>0.92033168468624604</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <v>75011</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>47</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>41946</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>0.42474381303414477</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>52111</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="3">
         <f t="shared" si="1"/>
         <v>0.52767426789258376</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F6" s="6">
         <f t="shared" si="2"/>
         <v>3319</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="3">
         <f t="shared" si="3"/>
         <v>3.3608084572076632E-2</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>1425</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I6" s="3">
         <f t="shared" si="4"/>
         <v>1.4429503017538176E-2</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>1894</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K6" s="3">
         <f t="shared" si="5"/>
         <v>1.9178581554538457E-2</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>98756</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M6" s="3">
         <f t="shared" si="6"/>
         <v>0.91594245912130512</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>107819</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>48</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>17905</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>0.37220663132730486</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>26948</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="3">
         <f t="shared" si="1"/>
         <v>0.56019124831098643</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F7" s="6">
         <f t="shared" si="2"/>
         <v>1683</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="3">
         <f t="shared" si="3"/>
-        <v>3.4985968194574363E-2</v>
-      </c>
-      <c r="H6">
+        <v>3.498596819457437E-2</v>
+      </c>
+      <c r="H7">
         <v>768</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I7" s="3">
         <f t="shared" si="4"/>
         <v>1.5965076395385094E-2</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>915</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K7" s="3">
         <f t="shared" si="5"/>
         <v>1.9020891799189272E-2</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>48105</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M7" s="3">
         <f t="shared" si="6"/>
         <v>0.92580831408775976</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>51960</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>49</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>22419</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>0.40444147784673112</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>29257</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
         <v>0.52779982681483617</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F8" s="6">
         <f t="shared" si="2"/>
         <v>2109</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="3">
         <f t="shared" si="3"/>
         <v>3.8046615673257324E-2</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>878</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I8" s="3">
         <f t="shared" si="4"/>
         <v>1.5839226439601672E-2</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>1231</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K8" s="3">
         <f t="shared" si="5"/>
         <v>2.2207389233655651E-2</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>55432</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M8" s="3">
         <f t="shared" si="6"/>
         <v>0.9288515030664567</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>59678</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>50</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>6990</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>0.33149957317651524</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>13102</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>0.62136014417148822</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="6">
         <f t="shared" si="2"/>
         <v>728</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="3">
         <f t="shared" si="3"/>
-        <v>3.4525277435265109E-2</v>
-      </c>
-      <c r="H8">
+        <v>3.4525277435265102E-2</v>
+      </c>
+      <c r="H9">
         <v>356</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I9" s="3">
         <f t="shared" si="4"/>
         <v>1.6883240064497772E-2</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>372</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K9" s="3">
         <f t="shared" si="5"/>
         <v>1.7642037370767333E-2</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>21086</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M9" s="3">
         <f t="shared" si="6"/>
         <v>0.92312406969617367</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>22842</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>15934</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>0.32733473026829368</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>30249</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>0.62141008258350794</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F10" s="6">
         <f t="shared" si="2"/>
         <v>1720</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <f t="shared" si="3"/>
         <v>3.5334237232425326E-2</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>792</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I10" s="3">
         <f t="shared" si="4"/>
         <v>1.6270183655860963E-2</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>928</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K10" s="3">
         <f t="shared" si="5"/>
         <v>1.9064053576564363E-2</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>48678</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M10" s="3">
         <f t="shared" si="6"/>
         <v>0.92584209825589137</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>52577</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>48768</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>0.37465717117241698</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>74193</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <f t="shared" si="1"/>
         <v>0.56998317545921773</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="6">
         <f t="shared" si="2"/>
         <v>5769</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="3">
         <f t="shared" si="3"/>
         <v>4.4319988937288252E-2</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>2193</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I11" s="3">
         <f t="shared" si="4"/>
         <v>1.6847588098365944E-2</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>3576</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K11" s="3">
         <f t="shared" si="5"/>
         <v>2.7472400838922308E-2</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>130167</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M11" s="3">
         <f t="shared" si="6"/>
         <v>0.91141872873167251</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>142818</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>507346</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>0.54251740325288456</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>383991</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="3">
         <f t="shared" si="1"/>
         <v>0.41061090496914998</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F12" s="6">
         <f t="shared" si="2"/>
         <v>36164</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="3">
         <f t="shared" si="3"/>
         <v>3.8671043767443354E-2</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>13924</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I12" s="3">
         <f t="shared" si="4"/>
         <v>1.4889271469358513E-2</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>22240</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K12" s="3">
         <f t="shared" si="5"/>
         <v>2.3781772298084841E-2</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>935170</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M12" s="3">
         <f t="shared" si="6"/>
         <v>0.88800284109252925</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>1053116</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>54</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>40114</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>0.44855695579733645</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>43404</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <f t="shared" si="1"/>
         <v>0.48534591687260287</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="6">
         <f t="shared" si="2"/>
         <v>3072</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="3">
         <f t="shared" si="3"/>
-        <v>3.4351273076966081E-2</v>
-      </c>
-      <c r="H12">
+        <v>3.4351273076966088E-2</v>
+      </c>
+      <c r="H13">
         <v>1305</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I13" s="3">
         <f t="shared" si="4"/>
         <v>1.459258182468774E-2</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>1767</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K13" s="3">
         <f t="shared" si="5"/>
         <v>1.9758691252278342E-2</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>89429</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M13" s="3">
         <f t="shared" si="6"/>
         <v>0.90876665277876578</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>98407</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>55</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>17485</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>0.41261563148952235</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>22953</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <f t="shared" si="1"/>
         <v>0.54165093449122148</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="6">
         <f t="shared" si="2"/>
         <v>1360</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="3">
         <f t="shared" si="3"/>
         <v>3.2093637908249956E-2</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>613</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I14" s="3">
         <f t="shared" si="4"/>
         <v>1.4465735321880309E-2</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>747</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K14" s="3">
         <f t="shared" si="5"/>
         <v>1.7627902586369645E-2</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>42376</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M14" s="3">
         <f t="shared" si="6"/>
         <v>0.89871055310485237</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <v>47152</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>24129</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>0.41372747380874814</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>30736</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="3">
         <f t="shared" si="1"/>
         <v>0.52701428301983844</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <f t="shared" si="2"/>
         <v>2667</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="3">
         <f t="shared" si="3"/>
         <v>4.5729668558495223E-2</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>1195</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I15" s="3">
         <f t="shared" si="4"/>
         <v>2.0490046466967303E-2</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>1472</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K15" s="3">
         <f t="shared" si="5"/>
         <v>2.5239622091527924E-2</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>58321</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M15" s="3">
         <f t="shared" si="6"/>
         <v>0.91400764794383149</v>
       </c>
-      <c r="N14">
+      <c r="N15">
         <v>63808</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>57</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>24029</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>0.2955960142698979</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>52842</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="3">
         <f t="shared" si="1"/>
         <v>0.65004305572641163</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F16" s="6">
         <f t="shared" si="2"/>
         <v>2276</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G16" s="3">
         <f t="shared" si="3"/>
         <v>2.7998523803665888E-2</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>1216</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I16" s="3">
         <f t="shared" si="4"/>
         <v>1.4958789519006028E-2</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>1060</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K16" s="3">
         <f t="shared" si="5"/>
         <v>1.3039734284659859E-2</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>81290</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M16" s="3">
         <f t="shared" si="6"/>
         <v>0.89197344598672301</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <v>91135</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>59</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>43398</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <f t="shared" si="0"/>
         <v>0.45184599046290319</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>48240</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <f t="shared" si="1"/>
         <v>0.50225933406909185</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <f t="shared" si="2"/>
         <v>2727</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <f t="shared" si="3"/>
-        <v>2.8392645190846055E-2</v>
-      </c>
-      <c r="H16">
+        <v>2.8392645190846052E-2</v>
+      </c>
+      <c r="H17">
         <v>1448</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <f t="shared" si="4"/>
         <v>1.5076109364262957E-2</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>1279</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="3">
         <f t="shared" si="5"/>
         <v>1.3316535826583096E-2</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <v>96046</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M17" s="3">
         <f t="shared" si="6"/>
         <v>0.90850272893235839</v>
       </c>
-      <c r="N16">
+      <c r="N17">
         <v>105719</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>35178</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <f t="shared" si="0"/>
         <v>0.44281919915408918</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>40247</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="3">
         <f t="shared" si="1"/>
         <v>0.50662756007603127</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="6">
         <f t="shared" si="2"/>
         <v>2972</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="3">
         <f t="shared" si="3"/>
         <v>3.7411412243048302E-2</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>1323</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I18" s="3">
         <f t="shared" si="4"/>
         <v>1.665386890900165E-2</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>1649</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K18" s="3">
         <f t="shared" si="5"/>
         <v>2.0757543334046651E-2</v>
       </c>
-      <c r="L17">
+      <c r="L18">
         <v>79441</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M18" s="3">
         <f t="shared" si="6"/>
         <v>0.92746398300137767</v>
       </c>
-      <c r="N17">
+      <c r="N18">
         <v>85654</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>60</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>30453</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <f t="shared" si="0"/>
         <v>0.44107295453557926</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>34318</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <f t="shared" si="1"/>
         <v>0.49705256144721405</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="6">
         <f t="shared" si="2"/>
         <v>2481</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="3">
         <f t="shared" si="3"/>
         <v>3.593412800718393E-2</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>1027</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I19" s="3">
         <f t="shared" si="4"/>
         <v>1.4874788175484844E-2</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>1454</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K19" s="3">
         <f t="shared" si="5"/>
         <v>2.1059339831699084E-2</v>
       </c>
-      <c r="L18">
+      <c r="L19">
         <v>69043</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M19" s="3">
         <f t="shared" si="6"/>
         <v>0.91184394727805806</v>
       </c>
-      <c r="N18">
+      <c r="N19">
         <v>75718</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>61</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>26179</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <f t="shared" si="0"/>
         <v>0.34982761846219634</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>44092</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="3">
         <f t="shared" si="1"/>
         <v>0.58919742363096983</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="6">
         <f t="shared" si="2"/>
         <v>2415</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" s="3">
         <f t="shared" si="3"/>
         <v>3.2271427426036295E-2</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>1206</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I20" s="3">
         <f t="shared" si="4"/>
         <v>1.6115669348157256E-2</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <v>1209</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K20" s="3">
         <f t="shared" si="5"/>
         <v>1.6155758077879039E-2</v>
       </c>
-      <c r="L19">
+      <c r="L20">
         <v>74834</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M20" s="3">
         <f t="shared" si="6"/>
         <v>0.92171449685921913</v>
       </c>
-      <c r="N19">
+      <c r="N20">
         <v>81190</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>62</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>14155</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>0.34927332395686828</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>23702</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <f t="shared" si="1"/>
         <v>0.58484467145359886</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="6">
         <f t="shared" si="2"/>
         <v>1511</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <f t="shared" si="3"/>
         <v>3.7283786117896713E-2</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>626</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I21" s="3">
         <f t="shared" si="4"/>
         <v>1.544649246181558E-2</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>885</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K21" s="3">
         <f t="shared" si="5"/>
         <v>2.1837293656081131E-2</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>40527</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M21" s="3">
         <f t="shared" si="6"/>
         <v>0.91775176068298647</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <v>44159</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>63</v>
       </c>
-      <c r="B21">
-        <f>SUM(B2:B20)</f>
+      <c r="B22">
+        <f>SUM(B3:B21)</f>
         <v>1152271</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>0.4668790358622204</v>
       </c>
-      <c r="D21">
-        <f>SUM(D2:D20)</f>
+      <c r="D22">
+        <f>SUM(D3:D21)</f>
         <v>1189313</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="3">
         <f t="shared" si="1"/>
         <v>0.48188777360395685</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F22" s="6">
         <f t="shared" si="2"/>
         <v>91217</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="3">
         <f t="shared" si="3"/>
         <v>3.6959452259272482E-2</v>
       </c>
-      <c r="H21">
-        <f>SUM(H2:H20)</f>
+      <c r="H22">
+        <f>SUM(H3:H21)</f>
         <v>38024</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I22" s="3">
         <f t="shared" si="4"/>
         <v>1.5406626097181192E-2</v>
       </c>
-      <c r="J21">
-        <f>SUM(J2:J20)</f>
+      <c r="J22">
+        <f>SUM(J3:J21)</f>
         <v>53193</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K22" s="3">
         <f t="shared" si="5"/>
         <v>2.1552826162091289E-2</v>
       </c>
-      <c r="L21">
-        <f>SUM(L2:L20)</f>
+      <c r="L22">
+        <f>SUM(L3:L21)</f>
         <v>2468029</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M22" s="3">
         <f t="shared" si="6"/>
         <v>0.90244890601295225</v>
       </c>
-      <c r="N21">
-        <f>SUM(N2:N20)</f>
+      <c r="N22">
+        <f>SUM(N3:N21)</f>
         <v>2734813</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fede/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fede/Desktop/PAPERS/Proyecto libro/Anexo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95FB5F1-7E31-DE45-9070-3606D5B83352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AA2A4A-6190-A640-9E4B-4BB1884CD30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="25600" windowHeight="14240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internas-General" sheetId="13" state="hidden" r:id="rId1"/>
@@ -1918,6 +1918,108 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1929,6 +2031,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1948,8 +2059,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1981,6 +2104,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1993,10 +2125,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2010,156 +2160,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3839,70 +3839,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="199" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
     </row>
     <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="202" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201" t="s">
+      <c r="C2" s="191"/>
+      <c r="D2" s="191" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201" t="s">
+      <c r="E2" s="191"/>
+      <c r="F2" s="191" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201" t="s">
+      <c r="G2" s="191"/>
+      <c r="H2" s="191" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="201"/>
-      <c r="J2" s="142" t="s">
+      <c r="I2" s="191"/>
+      <c r="J2" s="200" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="204"/>
-      <c r="B3" s="206" t="s">
+      <c r="A3" s="203"/>
+      <c r="B3" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="207" t="s">
+      <c r="C3" s="159" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="206" t="s">
+      <c r="D3" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="207" t="s">
+      <c r="E3" s="159" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="206" t="s">
+      <c r="F3" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="207" t="s">
+      <c r="G3" s="159" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="206" t="s">
+      <c r="H3" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="207" t="s">
+      <c r="I3" s="159" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="205"/>
+      <c r="J3" s="201"/>
     </row>
     <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
@@ -4630,20 +4630,20 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F25" s="188" t="s">
+      <c r="F25" s="189" t="s">
         <v>263</v>
       </c>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="188"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="189"/>
+      <c r="J25" s="189"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G26" s="188"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="188"/>
-      <c r="K26" s="188"/>
+      <c r="G26" s="189"/>
+      <c r="H26" s="189"/>
+      <c r="I26" s="189"/>
+      <c r="J26" s="189"/>
+      <c r="K26" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6822,28 +6822,28 @@
       <c r="A1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144" t="s">
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144" t="s">
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
+      <c r="P1" s="204"/>
+      <c r="Q1" s="204"/>
       <c r="R1" s="5" t="s">
         <v>6</v>
       </c>
@@ -6856,7 +6856,7 @@
       <c r="U1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="145" t="s">
+      <c r="V1" s="205" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6924,7 +6924,7 @@
       <c r="U2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="145"/>
+      <c r="V2" s="205"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -8358,17 +8358,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="199" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="108" t="s">
@@ -8377,7 +8377,7 @@
       <c r="B2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="118" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="109" t="s">
@@ -8386,10 +8386,10 @@
       <c r="E2" s="109" t="s">
         <v>250</v>
       </c>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="206" t="s">
         <v>248</v>
       </c>
-      <c r="G2" s="147"/>
+      <c r="G2" s="207"/>
       <c r="H2" s="109" t="s">
         <v>246</v>
       </c>
@@ -8404,7 +8404,7 @@
       <c r="B3" s="39">
         <v>1053066</v>
       </c>
-      <c r="C3" s="150">
+      <c r="C3" s="119">
         <v>933197</v>
       </c>
       <c r="D3" s="39">
@@ -8435,7 +8435,7 @@
       <c r="B4" s="39">
         <v>411087</v>
       </c>
-      <c r="C4" s="150">
+      <c r="C4" s="119">
         <v>371983</v>
       </c>
       <c r="D4" s="39">
@@ -8466,7 +8466,7 @@
       <c r="B5" s="39">
         <v>142659</v>
       </c>
-      <c r="C5" s="150">
+      <c r="C5" s="119">
         <v>130093</v>
       </c>
       <c r="D5" s="39">
@@ -8497,7 +8497,7 @@
       <c r="B6" s="39">
         <v>91089</v>
       </c>
-      <c r="C6" s="150">
+      <c r="C6" s="119">
         <v>81579</v>
       </c>
       <c r="D6" s="39">
@@ -8528,7 +8528,7 @@
       <c r="B7" s="39">
         <v>44083</v>
       </c>
-      <c r="C7" s="150">
+      <c r="C7" s="119">
         <v>40570</v>
       </c>
       <c r="D7" s="9">
@@ -8559,7 +8559,7 @@
       <c r="B8" s="39">
         <v>74926</v>
       </c>
-      <c r="C8" s="150">
+      <c r="C8" s="119">
         <v>69163</v>
       </c>
       <c r="D8" s="39">
@@ -8590,7 +8590,7 @@
       <c r="B9" s="39">
         <v>63764</v>
       </c>
-      <c r="C9" s="150">
+      <c r="C9" s="119">
         <v>58324</v>
       </c>
       <c r="D9" s="39">
@@ -8621,7 +8621,7 @@
       <c r="B10" s="39">
         <v>64640</v>
       </c>
-      <c r="C10" s="150">
+      <c r="C10" s="119">
         <v>58178</v>
       </c>
       <c r="D10" s="39">
@@ -8652,7 +8652,7 @@
       <c r="B11" s="39">
         <v>105642</v>
       </c>
-      <c r="C11" s="150">
+      <c r="C11" s="119">
         <v>96191</v>
       </c>
       <c r="D11" s="39">
@@ -8683,7 +8683,7 @@
       <c r="B12" s="39">
         <v>98237</v>
       </c>
-      <c r="C12" s="150">
+      <c r="C12" s="119">
         <v>89219</v>
       </c>
       <c r="D12" s="39">
@@ -8714,7 +8714,7 @@
       <c r="B13" s="39">
         <v>47138</v>
       </c>
-      <c r="C13" s="150">
+      <c r="C13" s="119">
         <v>42511</v>
       </c>
       <c r="D13" s="39">
@@ -8745,7 +8745,7 @@
       <c r="B14" s="39">
         <v>75619</v>
       </c>
-      <c r="C14" s="150">
+      <c r="C14" s="119">
         <v>69021</v>
       </c>
       <c r="D14" s="39">
@@ -8776,7 +8776,7 @@
       <c r="B15" s="39">
         <v>107775</v>
       </c>
-      <c r="C15" s="150">
+      <c r="C15" s="119">
         <v>98806</v>
       </c>
       <c r="D15" s="39">
@@ -8807,7 +8807,7 @@
       <c r="B16" s="39">
         <v>85589</v>
       </c>
-      <c r="C16" s="150">
+      <c r="C16" s="119">
         <v>79510</v>
       </c>
       <c r="D16" s="39">
@@ -8838,7 +8838,7 @@
       <c r="B17" s="39">
         <v>59574</v>
       </c>
-      <c r="C17" s="150">
+      <c r="C17" s="119">
         <v>55303</v>
       </c>
       <c r="D17" s="39">
@@ -8869,7 +8869,7 @@
       <c r="B18" s="39">
         <v>22838</v>
       </c>
-      <c r="C18" s="150">
+      <c r="C18" s="119">
         <v>21129</v>
       </c>
       <c r="D18" s="39">
@@ -8900,7 +8900,7 @@
       <c r="B19" s="39">
         <v>51787</v>
       </c>
-      <c r="C19" s="150">
+      <c r="C19" s="119">
         <v>48055</v>
       </c>
       <c r="D19" s="39">
@@ -8931,7 +8931,7 @@
       <c r="B20" s="39">
         <v>52537</v>
       </c>
-      <c r="C20" s="150">
+      <c r="C20" s="119">
         <v>48717</v>
       </c>
       <c r="D20" s="39">
@@ -8962,7 +8962,7 @@
       <c r="B21" s="39">
         <v>81075</v>
       </c>
-      <c r="C21" s="150">
+      <c r="C21" s="119">
         <v>74962</v>
       </c>
       <c r="D21" s="39">
@@ -8994,7 +8994,7 @@
         <f>SUM(B3:B21)</f>
         <v>2733125</v>
       </c>
-      <c r="C22" s="151">
+      <c r="C22" s="120">
         <f t="shared" ref="C22:I22" si="2">SUM(C3:C21)</f>
         <v>2466511</v>
       </c>
@@ -9024,13 +9024,13 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E24" s="188" t="s">
+      <c r="E24" s="189" t="s">
         <v>263</v>
       </c>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
+      <c r="F24" s="189"/>
+      <c r="G24" s="189"/>
+      <c r="H24" s="189"/>
+      <c r="I24" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9277,49 +9277,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="165" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
     </row>
     <row r="2" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="123" t="s">
+      <c r="E2" s="161"/>
+      <c r="F2" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="123"/>
-      <c r="H2" s="117" t="s">
+      <c r="G2" s="170"/>
+      <c r="H2" s="161" t="s">
         <v>245</v>
       </c>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117" t="s">
+      <c r="I2" s="161"/>
+      <c r="J2" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="124"/>
+      <c r="K2" s="171"/>
       <c r="L2" s="21" t="s">
         <v>2</v>
       </c>
@@ -9331,27 +9331,27 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="120"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="118" t="s">
+      <c r="A3" s="164"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118" t="s">
+      <c r="E3" s="162"/>
+      <c r="F3" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="125"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="172"/>
       <c r="L3" s="38"/>
       <c r="M3" s="22"/>
       <c r="N3" s="38"/>
     </row>
     <row r="4" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="120"/>
+      <c r="A4" s="164"/>
       <c r="B4" s="42" t="s">
         <v>26</v>
       </c>
@@ -10396,14 +10396,14 @@
       <c r="N25" s="9"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F26" s="157" t="s">
+      <c r="F26" s="160" t="s">
         <v>263</v>
       </c>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="157"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="160"/>
       <c r="L26" s="9"/>
       <c r="M26" s="17"/>
       <c r="N26" s="9"/>
@@ -10429,7 +10429,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7D0C7A-41FB-EF49-814D-F7088EB65B84}">
-  <dimension ref="A1:AL27"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="AD24" sqref="AD24"/>
@@ -10474,115 +10474,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="142" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="126"/>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="126"/>
-      <c r="AI1" s="126"/>
-      <c r="AJ1" s="126"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="173"/>
+      <c r="AH1" s="173"/>
+      <c r="AI1" s="173"/>
+      <c r="AJ1" s="173"/>
     </row>
     <row r="2" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="193" t="s">
+      <c r="D2" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193" t="s">
+      <c r="E2" s="174"/>
+      <c r="F2" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193" t="s">
+      <c r="G2" s="174"/>
+      <c r="H2" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193" t="s">
+      <c r="I2" s="174"/>
+      <c r="J2" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193" t="s">
+      <c r="K2" s="174"/>
+      <c r="L2" s="174" t="s">
         <v>276</v>
       </c>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193" t="s">
+      <c r="M2" s="174"/>
+      <c r="N2" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193" t="s">
+      <c r="O2" s="174"/>
+      <c r="P2" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193" t="s">
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193" t="s">
+      <c r="S2" s="174"/>
+      <c r="T2" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193" t="s">
+      <c r="U2" s="174"/>
+      <c r="V2" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193" t="s">
+      <c r="W2" s="174"/>
+      <c r="X2" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="193" t="s">
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="193"/>
-      <c r="AB2" s="193" t="s">
+      <c r="AA2" s="174"/>
+      <c r="AB2" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="193"/>
-      <c r="AD2" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="193" t="s">
+      <c r="AC2" s="174"/>
+      <c r="AD2" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="174"/>
+      <c r="AF2" s="174" t="s">
         <v>246</v>
       </c>
-      <c r="AG2" s="196"/>
+      <c r="AG2" s="175"/>
       <c r="AH2" s="29" t="s">
         <v>2</v>
       </c>
@@ -10594,101 +10594,101 @@
       </c>
     </row>
     <row r="3" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="189"/>
+      <c r="A3" s="177"/>
       <c r="B3" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="190" t="s">
+      <c r="C3" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="194" t="s">
+      <c r="D3" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="190" t="s">
+      <c r="E3" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="194" t="s">
+      <c r="F3" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="190" t="s">
+      <c r="G3" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="195" t="s">
+      <c r="H3" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="195" t="s">
+      <c r="I3" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="194" t="s">
+      <c r="J3" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="190" t="s">
+      <c r="K3" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="194" t="s">
+      <c r="L3" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="190" t="s">
+      <c r="M3" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="194" t="s">
+      <c r="N3" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="190" t="s">
+      <c r="O3" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="P3" s="195" t="s">
+      <c r="P3" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="195" t="s">
+      <c r="Q3" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="194" t="s">
+      <c r="R3" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="190" t="s">
+      <c r="S3" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="T3" s="195" t="s">
+      <c r="T3" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="195" t="s">
+      <c r="U3" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="195" t="s">
+      <c r="V3" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="195" t="s">
+      <c r="W3" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="X3" s="195" t="s">
+      <c r="X3" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="195" t="s">
+      <c r="Y3" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="Z3" s="195" t="s">
+      <c r="Z3" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="195" t="s">
+      <c r="AA3" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="AB3" s="195" t="s">
+      <c r="AB3" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="AC3" s="195" t="s">
+      <c r="AC3" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="AD3" s="194" t="s">
+      <c r="AD3" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="AE3" s="190" t="s">
+      <c r="AE3" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="AF3" s="194" t="s">
+      <c r="AF3" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="AG3" s="197" t="s">
+      <c r="AG3" s="154" t="s">
         <v>78</v>
       </c>
       <c r="AH3" s="10" t="s">
@@ -13159,7 +13159,7 @@
       <c r="B23" s="58">
         <v>2733125</v>
       </c>
-      <c r="C23" s="156">
+      <c r="C23" s="125">
         <f t="shared" si="18"/>
         <v>0.90245085753487309</v>
       </c>
@@ -13191,7 +13191,7 @@
         <f t="shared" ref="K23" si="22">J23/$AH23</f>
         <v>0.10895390290171014</v>
       </c>
-      <c r="L23" s="148">
+      <c r="L23" s="117">
         <v>33461</v>
       </c>
       <c r="M23" s="59">
@@ -13288,22 +13288,22 @@
     </row>
     <row r="25" spans="1:36" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="F26" s="157" t="s">
+      <c r="F26" s="160" t="s">
         <v>263</v>
       </c>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="157"/>
-      <c r="AD26" s="157" t="s">
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="160"/>
+      <c r="AD26" s="160" t="s">
         <v>263</v>
       </c>
-      <c r="AE26" s="157"/>
-      <c r="AF26" s="157"/>
-      <c r="AG26" s="157"/>
-      <c r="AH26" s="157"/>
-      <c r="AI26" s="157"/>
+      <c r="AE26" s="160"/>
+      <c r="AF26" s="160"/>
+      <c r="AG26" s="160"/>
+      <c r="AH26" s="160"/>
+      <c r="AI26" s="160"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AE27" s="9"/>
@@ -13312,13 +13312,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="AD26:AI26"/>
-    <mergeCell ref="N1:AJ1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="J2:K2"/>
@@ -13331,6 +13324,13 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="AD26:AI26"/>
+    <mergeCell ref="N1:AJ1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
   </mergeCells>
   <pageMargins left="0.3968253968253968" right="1.8518518518518517E-2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -13356,13 +13356,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="166" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
     </row>
     <row r="2" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="99" t="s">
@@ -13382,7 +13382,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="182" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -13394,12 +13394,12 @@
       <c r="D3" s="25">
         <v>0.32580031515437508</v>
       </c>
-      <c r="E3" s="128">
+      <c r="E3" s="179">
         <v>0.38490000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="132"/>
+      <c r="A4" s="183"/>
       <c r="B4" s="9" t="s">
         <v>82</v>
       </c>
@@ -13409,10 +13409,10 @@
       <c r="D4" s="17">
         <v>0.24743515740865579</v>
       </c>
-      <c r="E4" s="129"/>
+      <c r="E4" s="180"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="132"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="9" t="s">
         <v>83</v>
       </c>
@@ -13422,10 +13422,10 @@
       <c r="D5" s="17">
         <v>0.18166774807873803</v>
       </c>
-      <c r="E5" s="129"/>
+      <c r="E5" s="180"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="132"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="9" t="s">
         <v>84</v>
       </c>
@@ -13435,10 +13435,10 @@
       <c r="D6" s="17">
         <v>0.1301065120668734</v>
       </c>
-      <c r="E6" s="129"/>
+      <c r="E6" s="180"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="132"/>
+      <c r="A7" s="183"/>
       <c r="B7" s="9" t="s">
         <v>85</v>
       </c>
@@ -13448,10 +13448,10 @@
       <c r="D7" s="17">
         <v>0.10153090029661588</v>
       </c>
-      <c r="E7" s="129"/>
+      <c r="E7" s="180"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="133"/>
+      <c r="A8" s="184"/>
       <c r="B8" s="36" t="s">
         <v>86</v>
       </c>
@@ -13461,10 +13461,10 @@
       <c r="D8" s="37">
         <v>4.4066839692598087E-2</v>
       </c>
-      <c r="E8" s="130"/>
+      <c r="E8" s="181"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="182" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -13476,12 +13476,12 @@
       <c r="D9" s="25">
         <v>0.67768489429278689</v>
       </c>
-      <c r="E9" s="128">
+      <c r="E9" s="179">
         <v>0.2823</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="132"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="9" t="s">
         <v>88</v>
       </c>
@@ -13491,10 +13491,10 @@
       <c r="D10" s="17">
         <v>0.20609029768024215</v>
       </c>
-      <c r="E10" s="129"/>
+      <c r="E10" s="180"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="133"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="36" t="s">
         <v>89</v>
       </c>
@@ -13504,10 +13504,10 @@
       <c r="D11" s="37">
         <v>0.15614859315502003</v>
       </c>
-      <c r="E11" s="130"/>
+      <c r="E11" s="181"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="182" t="s">
         <v>253</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -13519,12 +13519,12 @@
       <c r="D12" s="25">
         <v>0.47025255099491298</v>
       </c>
-      <c r="E12" s="128">
+      <c r="E12" s="179">
         <v>0.1217</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="132"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="9" t="s">
         <v>91</v>
       </c>
@@ -13534,10 +13534,10 @@
       <c r="D13" s="17">
         <v>0.39929441629438633</v>
       </c>
-      <c r="E13" s="129"/>
+      <c r="E13" s="180"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="133"/>
+      <c r="A14" s="184"/>
       <c r="B14" s="36" t="s">
         <v>92</v>
       </c>
@@ -13547,7 +13547,7 @@
       <c r="D14" s="37">
         <v>0.14857234231803237</v>
       </c>
-      <c r="E14" s="130"/>
+      <c r="E14" s="181"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="66" t="s">
@@ -13570,7 +13570,7 @@
       <c r="A16" s="67" t="s">
         <v>276</v>
       </c>
-      <c r="B16" s="153" t="s">
+      <c r="B16" s="122" t="s">
         <v>93</v>
       </c>
       <c r="C16" s="8">
@@ -13587,7 +13587,7 @@
       <c r="A17" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="122" t="s">
         <v>255</v>
       </c>
       <c r="C17" s="8">
@@ -13604,13 +13604,13 @@
       <c r="A18" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="B18" s="154" t="s">
+      <c r="B18" s="123" t="s">
         <v>254</v>
       </c>
       <c r="C18" s="72">
         <v>23580</v>
       </c>
-      <c r="D18" s="155">
+      <c r="D18" s="124">
         <v>1</v>
       </c>
       <c r="E18" s="73" t="s">
@@ -13619,22 +13619,22 @@
     </row>
     <row r="19" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="41"/>
-      <c r="B19" s="199"/>
-      <c r="C19" s="198" t="s">
+      <c r="B19" s="155"/>
+      <c r="C19" s="178" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="157" t="s">
+      <c r="B21" s="160" t="s">
         <v>263</v>
       </c>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13657,7 +13657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D933B0A-BDDC-E04B-A473-9EAA03C45938}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:D15"/>
     </sheetView>
   </sheetViews>
@@ -13683,138 +13683,138 @@
       <c r="B2" s="82" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="187" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="137"/>
+      <c r="D2" s="188"/>
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="137" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="33">
         <v>5</v>
       </c>
-      <c r="D3" s="135">
+      <c r="D3" s="186">
         <v>13</v>
       </c>
       <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="134"/>
-      <c r="B4" s="172" t="s">
+      <c r="A4" s="185"/>
+      <c r="B4" s="138" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="77">
         <v>4</v>
       </c>
-      <c r="D4" s="135"/>
+      <c r="D4" s="186"/>
       <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="134"/>
-      <c r="B5" s="172" t="s">
+      <c r="A5" s="185"/>
+      <c r="B5" s="138" t="s">
         <v>84</v>
       </c>
       <c r="C5" s="77">
         <v>1</v>
       </c>
-      <c r="D5" s="135"/>
+      <c r="D5" s="186"/>
       <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134"/>
-      <c r="B6" s="172" t="s">
+      <c r="A6" s="185"/>
+      <c r="B6" s="138" t="s">
         <v>126</v>
       </c>
       <c r="C6" s="77">
         <v>2</v>
       </c>
-      <c r="D6" s="135"/>
+      <c r="D6" s="186"/>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="134"/>
-      <c r="B7" s="173" t="s">
+      <c r="A7" s="185"/>
+      <c r="B7" s="139" t="s">
         <v>86</v>
       </c>
       <c r="C7" s="77">
         <v>1</v>
       </c>
-      <c r="D7" s="135"/>
+      <c r="D7" s="186"/>
       <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="140" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="28">
         <v>7</v>
       </c>
-      <c r="D8" s="135">
+      <c r="D8" s="186">
         <v>10</v>
       </c>
       <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="134"/>
-      <c r="B9" s="174" t="s">
+      <c r="A9" s="185"/>
+      <c r="B9" s="140" t="s">
         <v>88</v>
       </c>
       <c r="C9" s="78">
         <v>2</v>
       </c>
-      <c r="D9" s="135"/>
+      <c r="D9" s="186"/>
       <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="134"/>
-      <c r="B10" s="174" t="s">
+      <c r="A10" s="185"/>
+      <c r="B10" s="140" t="s">
         <v>129</v>
       </c>
       <c r="C10" s="79">
         <v>1</v>
       </c>
-      <c r="D10" s="135"/>
+      <c r="D10" s="186"/>
       <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="134" t="s">
+      <c r="A11" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="137" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="77">
         <v>2</v>
       </c>
-      <c r="D11" s="135">
+      <c r="D11" s="186">
         <v>4</v>
       </c>
       <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="134"/>
-      <c r="B12" s="173" t="s">
+      <c r="A12" s="185"/>
+      <c r="B12" s="139" t="s">
         <v>91</v>
       </c>
       <c r="C12" s="77">
         <v>2</v>
       </c>
-      <c r="D12" s="135"/>
+      <c r="D12" s="186"/>
       <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="141" t="s">
         <v>130</v>
       </c>
       <c r="C13" s="49">
@@ -13826,15 +13826,16 @@
       <c r="E13" s="34"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="157" t="s">
+      <c r="A15" s="160" t="s">
         <v>263</v>
       </c>
-      <c r="B15" s="157"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="D11:D12"/>
@@ -13842,10 +13843,9 @@
     <mergeCell ref="D3:D7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13864,41 +13864,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="34" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="166" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
     </row>
     <row r="2" spans="1:9" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="152" t="s">
+      <c r="C2" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="152" t="s">
+      <c r="D2" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="152" t="s">
+      <c r="E2" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="152" t="s">
+      <c r="F2" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="152" t="s">
+      <c r="G2" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="152" t="s">
+      <c r="H2" s="121" t="s">
         <v>244</v>
       </c>
       <c r="I2" s="86" t="s">
@@ -14506,20 +14506,20 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F23" s="198" t="s">
+      <c r="F23" s="178" t="s">
         <v>277</v>
       </c>
-      <c r="G23" s="198"/>
-      <c r="H23" s="198"/>
-      <c r="I23" s="198"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F25" s="157" t="s">
+      <c r="F25" s="160" t="s">
         <v>263</v>
       </c>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="157"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14549,12 +14549,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="166" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
     </row>
     <row r="2" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="89" t="s">
@@ -14566,7 +14566,7 @@
       <c r="C2" s="110" t="s">
         <v>260</v>
       </c>
-      <c r="D2" s="165" t="s">
+      <c r="D2" s="131" t="s">
         <v>261</v>
       </c>
     </row>
@@ -14574,14 +14574,14 @@
       <c r="A3" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="162">
+      <c r="B3" s="128">
         <v>455327</v>
       </c>
       <c r="C3" s="14">
         <f>B3/1099317</f>
         <v>0.41419081120368373</v>
       </c>
-      <c r="D3" s="167">
+      <c r="D3" s="133">
         <f>B3/2698588</f>
         <v>0.16872786805544232</v>
       </c>
@@ -14590,14 +14590,14 @@
       <c r="A4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="162">
+      <c r="B4" s="128">
         <v>256006</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" ref="C4:C20" si="0">B4/1099317</f>
         <v>0.23287732291959462</v>
       </c>
-      <c r="D4" s="168">
+      <c r="D4" s="134">
         <f t="shared" ref="D4:D21" si="1">B4/2698588</f>
         <v>9.4866648780769794E-2</v>
       </c>
@@ -14606,14 +14606,14 @@
       <c r="A5" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="162">
+      <c r="B5" s="128">
         <v>182841</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" si="0"/>
         <v>0.16632236197566308</v>
       </c>
-      <c r="D5" s="168">
+      <c r="D5" s="134">
         <f t="shared" si="1"/>
         <v>6.7754321889817934E-2</v>
       </c>
@@ -14622,14 +14622,14 @@
       <c r="A6" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="162">
+      <c r="B6" s="128">
         <v>49485</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" si="0"/>
         <v>4.5014313432795092E-2</v>
       </c>
-      <c r="D6" s="168">
+      <c r="D6" s="134">
         <f t="shared" si="1"/>
         <v>1.8337367541840399E-2</v>
       </c>
@@ -14638,14 +14638,14 @@
       <c r="A7" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="162">
+      <c r="B7" s="128">
         <v>6751</v>
       </c>
       <c r="C7" s="14">
         <f t="shared" si="0"/>
         <v>6.1410857832636086E-3</v>
       </c>
-      <c r="D7" s="168">
+      <c r="D7" s="134">
         <f t="shared" si="1"/>
         <v>2.5016786556525117E-3</v>
       </c>
@@ -14654,14 +14654,14 @@
       <c r="A8" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="162">
+      <c r="B8" s="128">
         <v>4145</v>
       </c>
       <c r="C8" s="14">
         <f t="shared" si="0"/>
         <v>3.7705229701714793E-3</v>
       </c>
-      <c r="D8" s="168">
+      <c r="D8" s="134">
         <f t="shared" si="1"/>
         <v>1.535988450256208E-3</v>
       </c>
@@ -14670,14 +14670,14 @@
       <c r="A9" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="162">
+      <c r="B9" s="128">
         <v>3075</v>
       </c>
       <c r="C9" s="14">
         <f t="shared" si="0"/>
         <v>2.7971913469909044E-3</v>
       </c>
-      <c r="D9" s="168">
+      <c r="D9" s="134">
         <f t="shared" si="1"/>
         <v>1.1394847972347019E-3</v>
       </c>
@@ -14686,14 +14686,14 @@
       <c r="A10" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="162">
+      <c r="B10" s="128">
         <v>2604</v>
       </c>
       <c r="C10" s="14">
         <f t="shared" si="0"/>
         <v>2.3687435016469319E-3</v>
       </c>
-      <c r="D10" s="168">
+      <c r="D10" s="134">
         <f t="shared" si="1"/>
         <v>9.6494907707289884E-4</v>
       </c>
@@ -14702,14 +14702,14 @@
       <c r="A11" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="162">
+      <c r="B11" s="128">
         <v>2073</v>
       </c>
       <c r="C11" s="14">
         <f t="shared" si="0"/>
         <v>1.8857163129470389E-3</v>
       </c>
-      <c r="D11" s="168">
+      <c r="D11" s="134">
         <f t="shared" si="1"/>
         <v>7.6817950720895519E-4</v>
       </c>
@@ -14718,14 +14718,14 @@
       <c r="A12" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="162">
+      <c r="B12" s="128">
         <v>605</v>
       </c>
       <c r="C12" s="14">
         <f t="shared" si="0"/>
         <v>5.5034171217219414E-4</v>
       </c>
-      <c r="D12" s="168">
+      <c r="D12" s="134">
         <f t="shared" si="1"/>
         <v>2.2419131782991698E-4</v>
       </c>
@@ -14734,14 +14734,14 @@
       <c r="A13" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="162">
+      <c r="B13" s="128">
         <v>566</v>
       </c>
       <c r="C13" s="14">
         <f t="shared" si="0"/>
         <v>5.1486513899084616E-4</v>
       </c>
-      <c r="D13" s="168">
+      <c r="D13" s="134">
         <f t="shared" si="1"/>
         <v>2.0973931552352565E-4</v>
       </c>
@@ -14750,14 +14750,14 @@
       <c r="A14" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="163">
+      <c r="B14" s="129">
         <v>486</v>
       </c>
-      <c r="C14" s="166">
+      <c r="C14" s="132">
         <f t="shared" si="0"/>
         <v>4.420926811829527E-4</v>
       </c>
-      <c r="D14" s="167">
+      <c r="D14" s="133">
         <f t="shared" si="1"/>
         <v>1.8009418258733826E-4</v>
       </c>
@@ -14766,14 +14766,14 @@
       <c r="A15" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="162">
+      <c r="B15" s="128">
         <v>250</v>
       </c>
       <c r="C15" s="14">
         <f t="shared" si="0"/>
         <v>2.2741393064966702E-4</v>
       </c>
-      <c r="D15" s="168">
+      <c r="D15" s="134">
         <f t="shared" si="1"/>
         <v>9.2641040425585523E-5</v>
       </c>
@@ -14782,14 +14782,14 @@
       <c r="A16" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="162">
+      <c r="B16" s="128">
         <v>135</v>
       </c>
       <c r="C16" s="14">
         <f t="shared" si="0"/>
         <v>1.2280352255082018E-4</v>
       </c>
-      <c r="D16" s="168">
+      <c r="D16" s="134">
         <f t="shared" si="1"/>
         <v>5.0026161829816188E-5</v>
       </c>
@@ -14798,14 +14798,14 @@
       <c r="A17" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="162">
+      <c r="B17" s="128">
         <v>134</v>
       </c>
       <c r="C17" s="14">
         <f t="shared" si="0"/>
         <v>1.2189386682822153E-4</v>
       </c>
-      <c r="D17" s="168">
+      <c r="D17" s="134">
         <f t="shared" si="1"/>
         <v>4.9655597668113844E-5</v>
       </c>
@@ -14814,14 +14814,14 @@
       <c r="A18" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="163">
+      <c r="B18" s="129">
         <v>7478</v>
       </c>
-      <c r="C18" s="166">
+      <c r="C18" s="132">
         <f t="shared" si="0"/>
         <v>6.8024054935928403E-3</v>
       </c>
-      <c r="D18" s="167">
+      <c r="D18" s="133">
         <f t="shared" si="1"/>
         <v>2.7710788012101145E-3</v>
       </c>
@@ -14830,14 +14830,14 @@
       <c r="A19" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="162">
+      <c r="B19" s="128">
         <v>5436</v>
       </c>
       <c r="C19" s="14">
         <f t="shared" si="0"/>
         <v>4.9448885080463599E-3</v>
       </c>
-      <c r="D19" s="168">
+      <c r="D19" s="134">
         <f t="shared" si="1"/>
         <v>2.0143867830139319E-3</v>
       </c>
@@ -14846,14 +14846,14 @@
       <c r="A20" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="163">
+      <c r="B20" s="129">
         <v>1099317</v>
       </c>
-      <c r="C20" s="166">
+      <c r="C20" s="132">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D20" s="167">
+      <c r="D20" s="133">
         <f t="shared" si="1"/>
         <v>0.40736748255013361</v>
       </c>
@@ -14862,22 +14862,22 @@
       <c r="A21" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="164">
+      <c r="B21" s="130">
         <v>2698588</v>
       </c>
-      <c r="C21" s="169"/>
-      <c r="D21" s="170">
+      <c r="C21" s="135"/>
+      <c r="D21" s="136">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="157" t="s">
+      <c r="A23" s="160" t="s">
         <v>263</v>
       </c>
-      <c r="B23" s="157"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B17">
@@ -14929,56 +14929,56 @@
       <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201" t="s">
+      <c r="C2" s="191"/>
+      <c r="D2" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201" t="s">
+      <c r="E2" s="191"/>
+      <c r="F2" s="191" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201" t="s">
+      <c r="G2" s="191"/>
+      <c r="H2" s="191" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="201"/>
-      <c r="J2" s="137" t="s">
+      <c r="I2" s="191"/>
+      <c r="J2" s="188" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="189"/>
-      <c r="B3" s="202" t="s">
+      <c r="A3" s="177"/>
+      <c r="B3" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="203" t="s">
+      <c r="C3" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="202" t="s">
+      <c r="D3" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="203" t="s">
+      <c r="E3" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="202" t="s">
+      <c r="F3" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="203" t="s">
+      <c r="G3" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="202" t="s">
+      <c r="H3" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="203" t="s">
+      <c r="I3" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="200"/>
+      <c r="J3" s="190"/>
     </row>
     <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
@@ -15711,11 +15711,11 @@
       <c r="C24" s="13"/>
       <c r="D24" s="9"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="187"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
@@ -15723,13 +15723,13 @@
       <c r="C25" s="13"/>
       <c r="D25" s="9"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="188" t="s">
+      <c r="F25" s="189" t="s">
         <v>263</v>
       </c>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="188"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="189"/>
+      <c r="J25" s="189"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
@@ -15774,7 +15774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA55DBA9-FFFE-C446-A138-BD6B4356846B}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="94" zoomScaleNormal="75" zoomScalePageLayoutView="94" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" zoomScale="84" zoomScaleNormal="75" zoomScalePageLayoutView="84" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -15792,82 +15792,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="192" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="195" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="197" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179" t="s">
+      <c r="C2" s="197"/>
+      <c r="D2" s="197" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179" t="s">
+      <c r="E2" s="197"/>
+      <c r="F2" s="197" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="197" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179" t="s">
+      <c r="I2" s="197"/>
+      <c r="J2" s="197" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="184"/>
-      <c r="L2" s="139" t="s">
+      <c r="K2" s="198"/>
+      <c r="L2" s="193" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="178"/>
-      <c r="B3" s="182" t="s">
+      <c r="A3" s="196"/>
+      <c r="B3" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="183" t="s">
+      <c r="C3" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="182" t="s">
+      <c r="D3" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="183" t="s">
+      <c r="E3" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="182" t="s">
+      <c r="F3" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="183" t="s">
+      <c r="G3" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="180" t="s">
+      <c r="H3" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="181" t="s">
+      <c r="I3" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="182" t="s">
+      <c r="J3" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="185" t="s">
+      <c r="K3" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="140"/>
+      <c r="L3" s="194"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
@@ -16755,13 +16755,13 @@
       <c r="C25" s="17"/>
       <c r="D25" s="9"/>
       <c r="E25" s="17"/>
-      <c r="H25" s="188" t="s">
+      <c r="H25" s="189" t="s">
         <v>263</v>
       </c>
-      <c r="I25" s="188"/>
-      <c r="J25" s="188"/>
-      <c r="K25" s="188"/>
-      <c r="L25" s="188"/>
+      <c r="I25" s="189"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="189"/>
+      <c r="L25" s="189"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
